--- a/data/expected_death_inla2020.xlsx
+++ b/data/expected_death_inla2020.xlsx
@@ -815,13 +815,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>83.8009917204827</v>
+        <v>83.4189363812109</v>
       </c>
       <c r="D2" t="n">
-        <v>73.0974175851156</v>
+        <v>72.9662492848386</v>
       </c>
       <c r="E2" t="n">
-        <v>94.3449384288946</v>
+        <v>94.7625061026029</v>
       </c>
       <c r="F2" t="n">
         <v>2017</v>
@@ -847,13 +847,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>194.476062904666</v>
+        <v>193.6325896051</v>
       </c>
       <c r="D3" t="n">
-        <v>176.529802404921</v>
+        <v>176.060691931449</v>
       </c>
       <c r="E3" t="n">
-        <v>214.021300111706</v>
+        <v>213.012933707312</v>
       </c>
       <c r="F3" t="n">
         <v>2017</v>
@@ -879,13 +879,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>191.65068352891</v>
+        <v>191.437818227306</v>
       </c>
       <c r="D4" t="n">
-        <v>173.74948773252</v>
+        <v>173.426568593612</v>
       </c>
       <c r="E4" t="n">
-        <v>210.903850355441</v>
+        <v>210.409104399489</v>
       </c>
       <c r="F4" t="n">
         <v>2017</v>
@@ -911,13 +911,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>3275.5339517853</v>
+        <v>3270.44944172201</v>
       </c>
       <c r="D5" t="n">
-        <v>3089.41652701075</v>
+        <v>3063.58070328456</v>
       </c>
       <c r="E5" t="n">
-        <v>3468.1622613747</v>
+        <v>3454.9658807061</v>
       </c>
       <c r="F5" t="n">
         <v>2017</v>
@@ -943,13 +943,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>483.849293504266</v>
+        <v>483.048939627023</v>
       </c>
       <c r="D6" t="n">
-        <v>448.797341574391</v>
+        <v>446.978404337565</v>
       </c>
       <c r="E6" t="n">
-        <v>522.223376914338</v>
+        <v>522.435312651175</v>
       </c>
       <c r="F6" t="n">
         <v>2017</v>
@@ -975,13 +975,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2100.07996164882</v>
+        <v>2093.37490320667</v>
       </c>
       <c r="D7" t="n">
-        <v>1982.85052732206</v>
+        <v>1962.89331670907</v>
       </c>
       <c r="E7" t="n">
-        <v>2230.33504820412</v>
+        <v>2235.29836436052</v>
       </c>
       <c r="F7" t="n">
         <v>2017</v>
@@ -1007,13 +1007,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>956.415741327009</v>
+        <v>956.336666804352</v>
       </c>
       <c r="D8" t="n">
-        <v>896.396659810515</v>
+        <v>892.655700836613</v>
       </c>
       <c r="E8" t="n">
-        <v>1021.50096538035</v>
+        <v>1019.16712950563</v>
       </c>
       <c r="F8" t="n">
         <v>2017</v>
@@ -1039,13 +1039,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>144.830516408266</v>
+        <v>144.343112851094</v>
       </c>
       <c r="D9" t="n">
-        <v>132.624657992315</v>
+        <v>129.741354801322</v>
       </c>
       <c r="E9" t="n">
-        <v>159.551323839069</v>
+        <v>159.085959169381</v>
       </c>
       <c r="F9" t="n">
         <v>2017</v>
@@ -1071,13 +1071,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>264.333607481461</v>
+        <v>263.546335430888</v>
       </c>
       <c r="D10" t="n">
-        <v>244.73790931199</v>
+        <v>241.672674845716</v>
       </c>
       <c r="E10" t="n">
-        <v>288.157291001952</v>
+        <v>288.82166933167</v>
       </c>
       <c r="F10" t="n">
         <v>2017</v>
@@ -1103,13 +1103,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>207.245900812976</v>
+        <v>206.375515761546</v>
       </c>
       <c r="D11" t="n">
-        <v>188.144567939924</v>
+        <v>187.559689547661</v>
       </c>
       <c r="E11" t="n">
-        <v>226.421158659251</v>
+        <v>227.107285312757</v>
       </c>
       <c r="F11" t="n">
         <v>2017</v>
@@ -1135,13 +1135,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>364.523367683255</v>
+        <v>364.005303455943</v>
       </c>
       <c r="D12" t="n">
-        <v>337.235534525244</v>
+        <v>335.931216692046</v>
       </c>
       <c r="E12" t="n">
-        <v>398.229228255161</v>
+        <v>395.117671312543</v>
       </c>
       <c r="F12" t="n">
         <v>2017</v>
@@ -1167,13 +1167,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>476.726053239007</v>
+        <v>477.368871063193</v>
       </c>
       <c r="D13" t="n">
-        <v>444.488422743061</v>
+        <v>441.378160337122</v>
       </c>
       <c r="E13" t="n">
-        <v>518.460514638941</v>
+        <v>510.130278336048</v>
       </c>
       <c r="F13" t="n">
         <v>2017</v>
@@ -1199,13 +1199,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>172.516363052436</v>
+        <v>173.149478301571</v>
       </c>
       <c r="D14" t="n">
-        <v>156.926135360523</v>
+        <v>156.4509064707</v>
       </c>
       <c r="E14" t="n">
-        <v>190.67917340491</v>
+        <v>191.660861108665</v>
       </c>
       <c r="F14" t="n">
         <v>2017</v>
@@ -1231,13 +1231,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>60.8686873999352</v>
+        <v>60.5896592313319</v>
       </c>
       <c r="D15" t="n">
-        <v>52.7344615513585</v>
+        <v>53.0215934026028</v>
       </c>
       <c r="E15" t="n">
-        <v>69.8746465166321</v>
+        <v>69.486092423351</v>
       </c>
       <c r="F15" t="n">
         <v>2017</v>
@@ -1263,13 +1263,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>332.545973165958</v>
+        <v>331.371267036946</v>
       </c>
       <c r="D16" t="n">
-        <v>306.444215808764</v>
+        <v>304.938984420687</v>
       </c>
       <c r="E16" t="n">
-        <v>359.457430420266</v>
+        <v>361.762082669969</v>
       </c>
       <c r="F16" t="n">
         <v>2017</v>
@@ -1295,13 +1295,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>360.7984516493</v>
+        <v>360.942256689353</v>
       </c>
       <c r="D17" t="n">
-        <v>334.945893539236</v>
+        <v>331.780476916064</v>
       </c>
       <c r="E17" t="n">
-        <v>390.670317212753</v>
+        <v>390.086925039099</v>
       </c>
       <c r="F17" t="n">
         <v>2017</v>
@@ -1327,13 +1327,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>353.42510466436</v>
+        <v>353.268992850141</v>
       </c>
       <c r="D18" t="n">
-        <v>327.123066832889</v>
+        <v>322.755446169595</v>
       </c>
       <c r="E18" t="n">
-        <v>383.070683333471</v>
+        <v>382.825968358997</v>
       </c>
       <c r="F18" t="n">
         <v>2017</v>
@@ -1359,13 +1359,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>78.6815149375794</v>
+        <v>78.3135512863211</v>
       </c>
       <c r="D19" t="n">
-        <v>69.4357633009956</v>
+        <v>69.1073867646995</v>
       </c>
       <c r="E19" t="n">
-        <v>89.5920896161009</v>
+        <v>89.4547832675643</v>
       </c>
       <c r="F19" t="n">
         <v>2017</v>
@@ -1391,13 +1391,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>538.321227280449</v>
+        <v>538.196756227309</v>
       </c>
       <c r="D20" t="n">
-        <v>498.880038078206</v>
+        <v>495.962275687559</v>
       </c>
       <c r="E20" t="n">
-        <v>578.777267836972</v>
+        <v>577.275893988458</v>
       </c>
       <c r="F20" t="n">
         <v>2017</v>
@@ -1423,13 +1423,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>267.177752590418</v>
+        <v>266.286646449115</v>
       </c>
       <c r="D21" t="n">
-        <v>244.170383735494</v>
+        <v>242.821636971352</v>
       </c>
       <c r="E21" t="n">
-        <v>291.252336079886</v>
+        <v>290.068592438327</v>
       </c>
       <c r="F21" t="n">
         <v>2017</v>
@@ -1455,13 +1455,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>273.984306106486</v>
+        <v>273.249893611792</v>
       </c>
       <c r="D22" t="n">
-        <v>252.847981497639</v>
+        <v>249.965090956885</v>
       </c>
       <c r="E22" t="n">
-        <v>296.426586911132</v>
+        <v>297.233767263001</v>
       </c>
       <c r="F22" t="n">
         <v>2017</v>
@@ -1487,13 +1487,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>828.479252750014</v>
+        <v>828.776103232004</v>
       </c>
       <c r="D23" t="n">
-        <v>774.204333013662</v>
+        <v>772.037595452314</v>
       </c>
       <c r="E23" t="n">
-        <v>890.424183315055</v>
+        <v>884.895240593535</v>
       </c>
       <c r="F23" t="n">
         <v>2017</v>
@@ -1519,13 +1519,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>503.671251005343</v>
+        <v>504.393623945244</v>
       </c>
       <c r="D24" t="n">
-        <v>467.848678193511</v>
+        <v>464.991564293593</v>
       </c>
       <c r="E24" t="n">
-        <v>545.353355311495</v>
+        <v>541.900427386522</v>
       </c>
       <c r="F24" t="n">
         <v>2017</v>
@@ -1551,13 +1551,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>526.966875420716</v>
+        <v>525.393996108713</v>
       </c>
       <c r="D25" t="n">
-        <v>486.412052381685</v>
+        <v>486.576630112129</v>
       </c>
       <c r="E25" t="n">
-        <v>568.216133098535</v>
+        <v>564.87925213708</v>
       </c>
       <c r="F25" t="n">
         <v>2017</v>
@@ -1583,13 +1583,13 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>497.556695970461</v>
+        <v>496.856157618917</v>
       </c>
       <c r="D26" t="n">
-        <v>462.56379121906</v>
+        <v>458.505792564868</v>
       </c>
       <c r="E26" t="n">
-        <v>535.015374254018</v>
+        <v>536.690098317084</v>
       </c>
       <c r="F26" t="n">
         <v>2017</v>
@@ -1615,13 +1615,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>332.956459209108</v>
+        <v>332.414150055592</v>
       </c>
       <c r="D27" t="n">
-        <v>307.190005836624</v>
+        <v>303.949064331519</v>
       </c>
       <c r="E27" t="n">
-        <v>363.327991478349</v>
+        <v>359.888179369042</v>
       </c>
       <c r="F27" t="n">
         <v>2017</v>
@@ -1647,13 +1647,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>101.328266661563</v>
+        <v>101.104286667555</v>
       </c>
       <c r="D28" t="n">
-        <v>90.6701421993158</v>
+        <v>90.3838769232687</v>
       </c>
       <c r="E28" t="n">
-        <v>113.304417294528</v>
+        <v>114.335086931632</v>
       </c>
       <c r="F28" t="n">
         <v>2017</v>
@@ -1679,13 +1679,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>220.889285535972</v>
+        <v>220.746490473163</v>
       </c>
       <c r="D29" t="n">
-        <v>201.360291878381</v>
+        <v>199.876804362301</v>
       </c>
       <c r="E29" t="n">
-        <v>241.719516274983</v>
+        <v>242.863221627662</v>
       </c>
       <c r="F29" t="n">
         <v>2017</v>
@@ -1711,13 +1711,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>118.59811560715</v>
+        <v>118.331424867183</v>
       </c>
       <c r="D30" t="n">
-        <v>105.733165195542</v>
+        <v>104.427232597669</v>
       </c>
       <c r="E30" t="n">
-        <v>133.119685992894</v>
+        <v>132.775031927246</v>
       </c>
       <c r="F30" t="n">
         <v>2017</v>
@@ -1743,13 +1743,13 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>999.972554977427</v>
+        <v>999.142380968095</v>
       </c>
       <c r="D31" t="n">
-        <v>934.375294611217</v>
+        <v>931.448847918256</v>
       </c>
       <c r="E31" t="n">
-        <v>1065.02146390007</v>
+        <v>1065.75701383337</v>
       </c>
       <c r="F31" t="n">
         <v>2017</v>
@@ -1775,13 +1775,13 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>416.654581242999</v>
+        <v>417.047083739367</v>
       </c>
       <c r="D32" t="n">
-        <v>385.256382343016</v>
+        <v>385.534752003266</v>
       </c>
       <c r="E32" t="n">
-        <v>453.920120574179</v>
+        <v>450.66395259259</v>
       </c>
       <c r="F32" t="n">
         <v>2017</v>
@@ -1807,13 +1807,13 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>217.661945143593</v>
+        <v>217.624993318005</v>
       </c>
       <c r="D33" t="n">
-        <v>197.831166315078</v>
+        <v>196.976768904679</v>
       </c>
       <c r="E33" t="n">
-        <v>239.304120291362</v>
+        <v>237.87130151324</v>
       </c>
       <c r="F33" t="n">
         <v>2017</v>
@@ -1839,13 +1839,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>590.740634360449</v>
+        <v>589.260236078472</v>
       </c>
       <c r="D34" t="n">
-        <v>551.915555496474</v>
+        <v>546.250022009638</v>
       </c>
       <c r="E34" t="n">
-        <v>634.663587568722</v>
+        <v>633.259950354487</v>
       </c>
       <c r="F34" t="n">
         <v>2017</v>
@@ -1871,13 +1871,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>121.602241991472</v>
+        <v>121.819354293673</v>
       </c>
       <c r="D35" t="n">
-        <v>108.216467968099</v>
+        <v>107.69820353277</v>
       </c>
       <c r="E35" t="n">
-        <v>137.384421828954</v>
+        <v>136.156744980451</v>
       </c>
       <c r="F35" t="n">
         <v>2017</v>
@@ -1903,13 +1903,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>561.695711190888</v>
+        <v>561.651735283155</v>
       </c>
       <c r="D36" t="n">
-        <v>522.398564051832</v>
+        <v>519.648184472832</v>
       </c>
       <c r="E36" t="n">
-        <v>608.778120783311</v>
+        <v>606.077689254102</v>
       </c>
       <c r="F36" t="n">
         <v>2017</v>
@@ -1935,13 +1935,13 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>122.08721887115</v>
+        <v>122.210204209225</v>
       </c>
       <c r="D37" t="n">
-        <v>109.213918362157</v>
+        <v>109.863678637432</v>
       </c>
       <c r="E37" t="n">
-        <v>136.179708033504</v>
+        <v>135.389008517709</v>
       </c>
       <c r="F37" t="n">
         <v>2017</v>
@@ -1967,13 +1967,13 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>921.525380325354</v>
+        <v>918.928877105006</v>
       </c>
       <c r="D38" t="n">
-        <v>858.853603304226</v>
+        <v>858.443186095641</v>
       </c>
       <c r="E38" t="n">
-        <v>982.321271899692</v>
+        <v>984.404567944455</v>
       </c>
       <c r="F38" t="n">
         <v>2017</v>
@@ -1999,13 +1999,13 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>453.728636270682</v>
+        <v>453.968553030496</v>
       </c>
       <c r="D39" t="n">
-        <v>422.891047950971</v>
+        <v>419.212477720035</v>
       </c>
       <c r="E39" t="n">
-        <v>488.348822836258</v>
+        <v>492.001356559571</v>
       </c>
       <c r="F39" t="n">
         <v>2017</v>
@@ -2031,13 +2031,13 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>573.151205207378</v>
+        <v>572.837770541043</v>
       </c>
       <c r="D40" t="n">
-        <v>533.681112231122</v>
+        <v>530.387711705993</v>
       </c>
       <c r="E40" t="n">
-        <v>614.908050327875</v>
+        <v>615.329144728301</v>
       </c>
       <c r="F40" t="n">
         <v>2017</v>
@@ -2063,13 +2063,13 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>659.358876505117</v>
+        <v>659.660245199895</v>
       </c>
       <c r="D41" t="n">
-        <v>612.434613442262</v>
+        <v>610.150036841045</v>
       </c>
       <c r="E41" t="n">
-        <v>709.749434747029</v>
+        <v>707.815705682639</v>
       </c>
       <c r="F41" t="n">
         <v>2017</v>
@@ -2095,13 +2095,13 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>95.5659996889198</v>
+        <v>95.5954236171245</v>
       </c>
       <c r="D42" t="n">
-        <v>84.1952207547049</v>
+        <v>84.2505793452878</v>
       </c>
       <c r="E42" t="n">
-        <v>107.845146742884</v>
+        <v>107.870741984522</v>
       </c>
       <c r="F42" t="n">
         <v>2017</v>
@@ -2127,13 +2127,13 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>46.2300646761875</v>
+        <v>45.9720226083367</v>
       </c>
       <c r="D43" t="n">
-        <v>39.7802472331592</v>
+        <v>39.4462641128076</v>
       </c>
       <c r="E43" t="n">
-        <v>53.0445581983275</v>
+        <v>53.2926546664324</v>
       </c>
       <c r="F43" t="n">
         <v>2017</v>
@@ -2159,13 +2159,13 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>431.586039622456</v>
+        <v>431.12697184658</v>
       </c>
       <c r="D44" t="n">
-        <v>399.717748120229</v>
+        <v>395.326316534244</v>
       </c>
       <c r="E44" t="n">
-        <v>467.016149489316</v>
+        <v>467.811468048883</v>
       </c>
       <c r="F44" t="n">
         <v>2017</v>
@@ -2191,13 +2191,13 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>112.091089242947</v>
+        <v>111.335543295598</v>
       </c>
       <c r="D45" t="n">
-        <v>98.9366428922037</v>
+        <v>99.3199091196308</v>
       </c>
       <c r="E45" t="n">
-        <v>125.591630210143</v>
+        <v>124.410223518407</v>
       </c>
       <c r="F45" t="n">
         <v>2017</v>
@@ -2223,13 +2223,13 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>318.300358053363</v>
+        <v>317.07200756018</v>
       </c>
       <c r="D46" t="n">
-        <v>291.350596709285</v>
+        <v>290.545924175431</v>
       </c>
       <c r="E46" t="n">
-        <v>344.672900115714</v>
+        <v>344.620968511133</v>
       </c>
       <c r="F46" t="n">
         <v>2017</v>
@@ -2255,13 +2255,13 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>202.747862993101</v>
+        <v>202.297913722396</v>
       </c>
       <c r="D47" t="n">
-        <v>183.858379515059</v>
+        <v>182.50809106556</v>
       </c>
       <c r="E47" t="n">
-        <v>220.669989261246</v>
+        <v>220.799086672026</v>
       </c>
       <c r="F47" t="n">
         <v>2017</v>
@@ -2287,13 +2287,13 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>474.909599415108</v>
+        <v>475.31964646487</v>
       </c>
       <c r="D48" t="n">
-        <v>440.088126782863</v>
+        <v>440.347986187988</v>
       </c>
       <c r="E48" t="n">
-        <v>513.232268995549</v>
+        <v>511.548946683088</v>
       </c>
       <c r="F48" t="n">
         <v>2017</v>
@@ -2319,13 +2319,13 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>1018.0414861553</v>
+        <v>1015.42866233316</v>
       </c>
       <c r="D49" t="n">
-        <v>954.616146869894</v>
+        <v>949.119695371743</v>
       </c>
       <c r="E49" t="n">
-        <v>1087.09447832983</v>
+        <v>1085.84108177414</v>
       </c>
       <c r="F49" t="n">
         <v>2017</v>
@@ -2351,13 +2351,13 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>149.979833852239</v>
+        <v>149.247550214233</v>
       </c>
       <c r="D50" t="n">
-        <v>135.464206636452</v>
+        <v>132.609317675352</v>
       </c>
       <c r="E50" t="n">
-        <v>166.65088711432</v>
+        <v>165.342389286237</v>
       </c>
       <c r="F50" t="n">
         <v>2017</v>
@@ -2383,13 +2383,13 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>396.833726684232</v>
+        <v>396.380202677393</v>
       </c>
       <c r="D51" t="n">
-        <v>368.495090023907</v>
+        <v>364.718244730101</v>
       </c>
       <c r="E51" t="n">
-        <v>429.053046400525</v>
+        <v>428.836974229484</v>
       </c>
       <c r="F51" t="n">
         <v>2017</v>
@@ -2415,13 +2415,13 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>209.141881894855</v>
+        <v>209.34518861604</v>
       </c>
       <c r="D52" t="n">
-        <v>191.667271943674</v>
+        <v>187.995954475058</v>
       </c>
       <c r="E52" t="n">
-        <v>229.029133736891</v>
+        <v>229.518232495755</v>
       </c>
       <c r="F52" t="n">
         <v>2017</v>
@@ -2447,13 +2447,13 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>62.7058846988206</v>
+        <v>62.3122885247157</v>
       </c>
       <c r="D53" t="n">
-        <v>53.68420711953</v>
+        <v>53.6562005370764</v>
       </c>
       <c r="E53" t="n">
-        <v>72.0539981321637</v>
+        <v>72.0457067240944</v>
       </c>
       <c r="F53" t="n">
         <v>2017</v>
@@ -2479,13 +2479,13 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>51.453510190103</v>
+        <v>51.5020274225833</v>
       </c>
       <c r="D54" t="n">
-        <v>44.3808472560745</v>
+        <v>43.9767516122177</v>
       </c>
       <c r="E54" t="n">
-        <v>59.7855221531764</v>
+        <v>60.2284727163103</v>
       </c>
       <c r="F54" t="n">
         <v>2017</v>
@@ -2511,13 +2511,13 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>404.062981746</v>
+        <v>402.439500589788</v>
       </c>
       <c r="D55" t="n">
-        <v>375.469651609157</v>
+        <v>372.352768688683</v>
       </c>
       <c r="E55" t="n">
-        <v>438.873630662867</v>
+        <v>431.802641826338</v>
       </c>
       <c r="F55" t="n">
         <v>2017</v>
@@ -2543,13 +2543,13 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>619.252788348585</v>
+        <v>617.061016318876</v>
       </c>
       <c r="D56" t="n">
-        <v>577.148014750923</v>
+        <v>575.165696907289</v>
       </c>
       <c r="E56" t="n">
-        <v>662.583194158636</v>
+        <v>669.70705817777</v>
       </c>
       <c r="F56" t="n">
         <v>2017</v>
@@ -2575,13 +2575,13 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>715.232947159492</v>
+        <v>714.328458156418</v>
       </c>
       <c r="D57" t="n">
-        <v>665.063211354592</v>
+        <v>664.737498073021</v>
       </c>
       <c r="E57" t="n">
-        <v>765.113451947405</v>
+        <v>765.970303965283</v>
       </c>
       <c r="F57" t="n">
         <v>2017</v>
@@ -2607,13 +2607,13 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>865.037780885507</v>
+        <v>862.97175583686</v>
       </c>
       <c r="D58" t="n">
-        <v>808.055709359256</v>
+        <v>804.308825891395</v>
       </c>
       <c r="E58" t="n">
-        <v>920.696132931467</v>
+        <v>924.928963807723</v>
       </c>
       <c r="F58" t="n">
         <v>2017</v>
@@ -2639,13 +2639,13 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>265.06688914692</v>
+        <v>263.758889110132</v>
       </c>
       <c r="D59" t="n">
-        <v>241.814555987399</v>
+        <v>241.803054744424</v>
       </c>
       <c r="E59" t="n">
-        <v>287.966819697207</v>
+        <v>287.124026413965</v>
       </c>
       <c r="F59" t="n">
         <v>2017</v>
@@ -2671,13 +2671,13 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>885.967488135628</v>
+        <v>885.755812007079</v>
       </c>
       <c r="D60" t="n">
-        <v>828.621385437602</v>
+        <v>822.543455901158</v>
       </c>
       <c r="E60" t="n">
-        <v>948.678229063235</v>
+        <v>945.141469548145</v>
       </c>
       <c r="F60" t="n">
         <v>2017</v>
@@ -2703,13 +2703,13 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>406.894772225922</v>
+        <v>407.760610663353</v>
       </c>
       <c r="D61" t="n">
-        <v>377.193575123044</v>
+        <v>375.433772561946</v>
       </c>
       <c r="E61" t="n">
-        <v>441.277135732073</v>
+        <v>441.062179931036</v>
       </c>
       <c r="F61" t="n">
         <v>2017</v>
@@ -2735,13 +2735,13 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>250.406317596444</v>
+        <v>249.907695227189</v>
       </c>
       <c r="D62" t="n">
-        <v>227.962772957914</v>
+        <v>229.185581757898</v>
       </c>
       <c r="E62" t="n">
-        <v>273.529603603109</v>
+        <v>274.482983645994</v>
       </c>
       <c r="F62" t="n">
         <v>2017</v>
@@ -2767,13 +2767,13 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>1229.99834225012</v>
+        <v>1228.75007772783</v>
       </c>
       <c r="D63" t="n">
-        <v>1159.36708930383</v>
+        <v>1145.79438293249</v>
       </c>
       <c r="E63" t="n">
-        <v>1311.24483676102</v>
+        <v>1313.84482894091</v>
       </c>
       <c r="F63" t="n">
         <v>2017</v>
@@ -2799,13 +2799,13 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>89.1294778870519</v>
+        <v>89.2778204871674</v>
       </c>
       <c r="D64" t="n">
-        <v>78.8922441444161</v>
+        <v>78.9986698907241</v>
       </c>
       <c r="E64" t="n">
-        <v>100.91451926952</v>
+        <v>100.0685993433</v>
       </c>
       <c r="F64" t="n">
         <v>2017</v>
@@ -2831,13 +2831,13 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>336.69340186234</v>
+        <v>336.282604184423</v>
       </c>
       <c r="D65" t="n">
-        <v>311.642806849211</v>
+        <v>310.244971935772</v>
       </c>
       <c r="E65" t="n">
-        <v>366.570413837881</v>
+        <v>366.8338321521</v>
       </c>
       <c r="F65" t="n">
         <v>2017</v>
@@ -2863,13 +2863,13 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>302.142454217343</v>
+        <v>301.707645107538</v>
       </c>
       <c r="D66" t="n">
-        <v>277.065145795619</v>
+        <v>275.497233746424</v>
       </c>
       <c r="E66" t="n">
-        <v>327.368175725585</v>
+        <v>327.732840453502</v>
       </c>
       <c r="F66" t="n">
         <v>2017</v>
@@ -2895,13 +2895,13 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>120.106606820481</v>
+        <v>120.165074297005</v>
       </c>
       <c r="D67" t="n">
-        <v>106.406880995702</v>
+        <v>106.461899559457</v>
       </c>
       <c r="E67" t="n">
-        <v>133.743202683006</v>
+        <v>133.673061097835</v>
       </c>
       <c r="F67" t="n">
         <v>2017</v>
@@ -2927,13 +2927,13 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>199.272478688797</v>
+        <v>199.510556032495</v>
       </c>
       <c r="D68" t="n">
-        <v>181.193047822576</v>
+        <v>180.609383919602</v>
       </c>
       <c r="E68" t="n">
-        <v>219.061535579483</v>
+        <v>218.309022044594</v>
       </c>
       <c r="F68" t="n">
         <v>2017</v>
@@ -2959,13 +2959,13 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>220.716039585211</v>
+        <v>220.309470401319</v>
       </c>
       <c r="D69" t="n">
-        <v>199.680732854357</v>
+        <v>199.537367018043</v>
       </c>
       <c r="E69" t="n">
-        <v>241.719783443125</v>
+        <v>241.185428877427</v>
       </c>
       <c r="F69" t="n">
         <v>2017</v>
@@ -2991,13 +2991,13 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>888.674389540102</v>
+        <v>889.196488394734</v>
       </c>
       <c r="D70" t="n">
-        <v>832.222509552255</v>
+        <v>833.662739664734</v>
       </c>
       <c r="E70" t="n">
-        <v>950.735683729896</v>
+        <v>951.829895231999</v>
       </c>
       <c r="F70" t="n">
         <v>2017</v>
@@ -3023,13 +3023,13 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>80.6091618119243</v>
+        <v>80.2440376591243</v>
       </c>
       <c r="D71" t="n">
-        <v>71.1561798435192</v>
+        <v>70.0775442156996</v>
       </c>
       <c r="E71" t="n">
-        <v>91.6982501679915</v>
+        <v>91.7248212497144</v>
       </c>
       <c r="F71" t="n">
         <v>2017</v>
@@ -3055,13 +3055,13 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>149.223202120658</v>
+        <v>149.402547887149</v>
       </c>
       <c r="D72" t="n">
-        <v>135.640589872585</v>
+        <v>133.766406504886</v>
       </c>
       <c r="E72" t="n">
-        <v>165.346974579192</v>
+        <v>165.716954441334</v>
       </c>
       <c r="F72" t="n">
         <v>2017</v>
@@ -3087,13 +3087,13 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>289.169766803992</v>
+        <v>288.367258833826</v>
       </c>
       <c r="D73" t="n">
-        <v>265.585743773318</v>
+        <v>265.582361710595</v>
       </c>
       <c r="E73" t="n">
-        <v>314.834973089695</v>
+        <v>314.104819750632</v>
       </c>
       <c r="F73" t="n">
         <v>2017</v>
@@ -3119,13 +3119,13 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>749.469129015072</v>
+        <v>748.320353761487</v>
       </c>
       <c r="D74" t="n">
-        <v>701.09221612981</v>
+        <v>697.597763059454</v>
       </c>
       <c r="E74" t="n">
-        <v>804.829278440818</v>
+        <v>797.194545069058</v>
       </c>
       <c r="F74" t="n">
         <v>2017</v>
@@ -3151,13 +3151,13 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>103.511176234391</v>
+        <v>103.531770182377</v>
       </c>
       <c r="D75" t="n">
-        <v>92.3716155238066</v>
+        <v>91.910228809223</v>
       </c>
       <c r="E75" t="n">
-        <v>116.908883172894</v>
+        <v>116.021191745594</v>
       </c>
       <c r="F75" t="n">
         <v>2017</v>
@@ -3183,13 +3183,13 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>96.5279267071537</v>
+        <v>96.4825409163944</v>
       </c>
       <c r="D76" t="n">
-        <v>85.2594900765542</v>
+        <v>85.1642877456263</v>
       </c>
       <c r="E76" t="n">
-        <v>109.83683134517</v>
+        <v>108.628921673927</v>
       </c>
       <c r="F76" t="n">
         <v>2017</v>
@@ -3215,13 +3215,13 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>683.471090758739</v>
+        <v>685.368837624901</v>
       </c>
       <c r="D77" t="n">
-        <v>639.459650169375</v>
+        <v>637.998596613932</v>
       </c>
       <c r="E77" t="n">
-        <v>734.952569523383</v>
+        <v>729.980320741324</v>
       </c>
       <c r="F77" t="n">
         <v>2017</v>
@@ -3247,13 +3247,13 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>220.398013521533</v>
+        <v>220.070498635164</v>
       </c>
       <c r="D78" t="n">
-        <v>200.486195177892</v>
+        <v>200.15778916536</v>
       </c>
       <c r="E78" t="n">
-        <v>241.023103878034</v>
+        <v>241.178395932404</v>
       </c>
       <c r="F78" t="n">
         <v>2017</v>
@@ -3279,13 +3279,13 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>459.098440576942</v>
+        <v>459.794893711321</v>
       </c>
       <c r="D79" t="n">
-        <v>425.613212906651</v>
+        <v>425.129923703256</v>
       </c>
       <c r="E79" t="n">
-        <v>496.260084859831</v>
+        <v>497.678829529595</v>
       </c>
       <c r="F79" t="n">
         <v>2017</v>
@@ -3311,13 +3311,13 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>319.522773664568</v>
+        <v>320.595659430456</v>
       </c>
       <c r="D80" t="n">
-        <v>294.208770735063</v>
+        <v>294.261531397309</v>
       </c>
       <c r="E80" t="n">
-        <v>348.397714203904</v>
+        <v>346.488204342609</v>
       </c>
       <c r="F80" t="n">
         <v>2017</v>
@@ -3343,13 +3343,13 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>393.936117977236</v>
+        <v>393.51416746855</v>
       </c>
       <c r="D81" t="n">
-        <v>365.662985462518</v>
+        <v>362.912520351182</v>
       </c>
       <c r="E81" t="n">
-        <v>426.759056021071</v>
+        <v>424.936355005565</v>
       </c>
       <c r="F81" t="n">
         <v>2017</v>
@@ -3375,13 +3375,13 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>424.384206101681</v>
+        <v>424.475459539216</v>
       </c>
       <c r="D82" t="n">
-        <v>393.986387353021</v>
+        <v>391.444781518483</v>
       </c>
       <c r="E82" t="n">
-        <v>461.30695684841</v>
+        <v>456.765692178146</v>
       </c>
       <c r="F82" t="n">
         <v>2017</v>
@@ -3407,13 +3407,13 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>1615.9424679103</v>
+        <v>1613.41139321813</v>
       </c>
       <c r="D83" t="n">
-        <v>1525.76647057217</v>
+        <v>1507.33843069914</v>
       </c>
       <c r="E83" t="n">
-        <v>1714.49856109032</v>
+        <v>1722.06843251356</v>
       </c>
       <c r="F83" t="n">
         <v>2017</v>
@@ -3439,13 +3439,13 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>218.000281433998</v>
+        <v>217.490322272876</v>
       </c>
       <c r="D84" t="n">
-        <v>198.101775270933</v>
+        <v>198.749775992239</v>
       </c>
       <c r="E84" t="n">
-        <v>238.443830108385</v>
+        <v>239.290782796261</v>
       </c>
       <c r="F84" t="n">
         <v>2017</v>
@@ -3471,13 +3471,13 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>310.225690004411</v>
+        <v>309.967392113385</v>
       </c>
       <c r="D85" t="n">
-        <v>285.336030540606</v>
+        <v>285.252157821318</v>
       </c>
       <c r="E85" t="n">
-        <v>336.595554462381</v>
+        <v>336.636518886453</v>
       </c>
       <c r="F85" t="n">
         <v>2017</v>
@@ -3503,13 +3503,13 @@
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>310.572362414131</v>
+        <v>310.179260230475</v>
       </c>
       <c r="D86" t="n">
-        <v>286.422032385959</v>
+        <v>286.237038239878</v>
       </c>
       <c r="E86" t="n">
-        <v>337.835139445139</v>
+        <v>337.988039201585</v>
       </c>
       <c r="F86" t="n">
         <v>2017</v>
@@ -3535,13 +3535,13 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>1049.43200912986</v>
+        <v>1045.76689886654</v>
       </c>
       <c r="D87" t="n">
-        <v>984.098585780411</v>
+        <v>982.389874854259</v>
       </c>
       <c r="E87" t="n">
-        <v>1121.4778208265</v>
+        <v>1119.54753561063</v>
       </c>
       <c r="F87" t="n">
         <v>2017</v>
@@ -3567,13 +3567,13 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>98.6199891494388</v>
+        <v>98.5720313267251</v>
       </c>
       <c r="D88" t="n">
-        <v>87.9414722705267</v>
+        <v>87.3890204368905</v>
       </c>
       <c r="E88" t="n">
-        <v>111.189408821007</v>
+        <v>110.707735001156</v>
       </c>
       <c r="F88" t="n">
         <v>2017</v>
@@ -3599,13 +3599,13 @@
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>271.80695717266</v>
+        <v>271.226930242889</v>
       </c>
       <c r="D89" t="n">
-        <v>247.874377042522</v>
+        <v>247.852667527875</v>
       </c>
       <c r="E89" t="n">
-        <v>297.055073662443</v>
+        <v>293.337961109625</v>
       </c>
       <c r="F89" t="n">
         <v>2017</v>
@@ -3631,13 +3631,13 @@
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>381.18569383163</v>
+        <v>380.508649137264</v>
       </c>
       <c r="D90" t="n">
-        <v>351.533064895648</v>
+        <v>350.340605529219</v>
       </c>
       <c r="E90" t="n">
-        <v>414.743475145354</v>
+        <v>413.717253593791</v>
       </c>
       <c r="F90" t="n">
         <v>2017</v>
@@ -3663,13 +3663,13 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>388.201065848349</v>
+        <v>387.573918851656</v>
       </c>
       <c r="D91" t="n">
-        <v>359.683373751194</v>
+        <v>358.50303912359</v>
       </c>
       <c r="E91" t="n">
-        <v>420.66443239208</v>
+        <v>419.674557663461</v>
       </c>
       <c r="F91" t="n">
         <v>2017</v>
@@ -3695,13 +3695,13 @@
         <v>91</v>
       </c>
       <c r="C92" t="n">
-        <v>1213.69110133745</v>
+        <v>1210.3828831796</v>
       </c>
       <c r="D92" t="n">
-        <v>1140.23376498854</v>
+        <v>1130.6573580878</v>
       </c>
       <c r="E92" t="n">
-        <v>1291.73865449331</v>
+        <v>1293.20547715259</v>
       </c>
       <c r="F92" t="n">
         <v>2017</v>
@@ -3727,13 +3727,13 @@
         <v>92</v>
       </c>
       <c r="C93" t="n">
-        <v>471.064303310643</v>
+        <v>472.054259801834</v>
       </c>
       <c r="D93" t="n">
-        <v>437.128623044357</v>
+        <v>436.672660795808</v>
       </c>
       <c r="E93" t="n">
-        <v>508.985047392962</v>
+        <v>509.448238312537</v>
       </c>
       <c r="F93" t="n">
         <v>2017</v>
@@ -3759,13 +3759,13 @@
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>140.699718741484</v>
+        <v>140.225099412615</v>
       </c>
       <c r="D94" t="n">
-        <v>125.877986554907</v>
+        <v>125.911634497735</v>
       </c>
       <c r="E94" t="n">
-        <v>154.92479365106</v>
+        <v>155.249050022491</v>
       </c>
       <c r="F94" t="n">
         <v>2017</v>
@@ -3791,13 +3791,13 @@
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>22.2592310573718</v>
+        <v>21.9278416794881</v>
       </c>
       <c r="D95" t="n">
-        <v>17.5814196482757</v>
+        <v>17.565390020957</v>
       </c>
       <c r="E95" t="n">
-        <v>26.9877586151907</v>
+        <v>26.6842630372052</v>
       </c>
       <c r="F95" t="n">
         <v>2017</v>
@@ -3823,13 +3823,13 @@
         <v>95</v>
       </c>
       <c r="C96" t="n">
-        <v>228.082921995074</v>
+        <v>227.791226016652</v>
       </c>
       <c r="D96" t="n">
-        <v>207.881316750939</v>
+        <v>207.530517320238</v>
       </c>
       <c r="E96" t="n">
-        <v>248.73135878187</v>
+        <v>249.770266110259</v>
       </c>
       <c r="F96" t="n">
         <v>2017</v>
@@ -3855,13 +3855,13 @@
         <v>96</v>
       </c>
       <c r="C97" t="n">
-        <v>444.446230656508</v>
+        <v>445.516548745648</v>
       </c>
       <c r="D97" t="n">
-        <v>413.68834808589</v>
+        <v>411.657614366991</v>
       </c>
       <c r="E97" t="n">
-        <v>480.745076264151</v>
+        <v>481.820602475347</v>
       </c>
       <c r="F97" t="n">
         <v>2017</v>
@@ -3887,13 +3887,13 @@
         <v>97</v>
       </c>
       <c r="C98" t="n">
-        <v>469.979456402149</v>
+        <v>469.710397500394</v>
       </c>
       <c r="D98" t="n">
-        <v>438.669134688171</v>
+        <v>432.170051581139</v>
       </c>
       <c r="E98" t="n">
-        <v>507.060944802543</v>
+        <v>505.812288607098</v>
       </c>
       <c r="F98" t="n">
         <v>2017</v>
@@ -3919,13 +3919,13 @@
         <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>312.786810822735</v>
+        <v>312.379782035853</v>
       </c>
       <c r="D99" t="n">
-        <v>286.534055562464</v>
+        <v>285.410109307952</v>
       </c>
       <c r="E99" t="n">
-        <v>341.077796251073</v>
+        <v>340.674581169538</v>
       </c>
       <c r="F99" t="n">
         <v>2017</v>
@@ -3951,13 +3951,13 @@
         <v>99</v>
       </c>
       <c r="C100" t="n">
-        <v>344.432654706211</v>
+        <v>343.155786081925</v>
       </c>
       <c r="D100" t="n">
-        <v>317.963315743876</v>
+        <v>316.669734142582</v>
       </c>
       <c r="E100" t="n">
-        <v>374.365188554138</v>
+        <v>372.210752841652</v>
       </c>
       <c r="F100" t="n">
         <v>2017</v>
@@ -3983,13 +3983,13 @@
         <v>100</v>
       </c>
       <c r="C101" t="n">
-        <v>114.327929034864</v>
+        <v>114.684921164898</v>
       </c>
       <c r="D101" t="n">
-        <v>102.948630781746</v>
+        <v>102.581955274109</v>
       </c>
       <c r="E101" t="n">
-        <v>128.222000899538</v>
+        <v>127.720379368074</v>
       </c>
       <c r="F101" t="n">
         <v>2017</v>
@@ -4015,13 +4015,13 @@
         <v>101</v>
       </c>
       <c r="C102" t="n">
-        <v>1422.11800348529</v>
+        <v>1421.19790859013</v>
       </c>
       <c r="D102" t="n">
-        <v>1339.10945032596</v>
+        <v>1327.4017544082</v>
       </c>
       <c r="E102" t="n">
-        <v>1511.76026823717</v>
+        <v>1515.05155026067</v>
       </c>
       <c r="F102" t="n">
         <v>2017</v>
@@ -4047,13 +4047,13 @@
         <v>102</v>
       </c>
       <c r="C103" t="n">
-        <v>761.427171179199</v>
+        <v>761.107952325055</v>
       </c>
       <c r="D103" t="n">
-        <v>712.736405668131</v>
+        <v>706.304161336361</v>
       </c>
       <c r="E103" t="n">
-        <v>817.326687438783</v>
+        <v>814.146393713002</v>
       </c>
       <c r="F103" t="n">
         <v>2017</v>
@@ -4079,13 +4079,13 @@
         <v>103</v>
       </c>
       <c r="C104" t="n">
-        <v>254.438567579694</v>
+        <v>253.377276031557</v>
       </c>
       <c r="D104" t="n">
-        <v>232.158647484432</v>
+        <v>232.409464983908</v>
       </c>
       <c r="E104" t="n">
-        <v>277.766680608706</v>
+        <v>278.284837137425</v>
       </c>
       <c r="F104" t="n">
         <v>2017</v>
@@ -4111,13 +4111,13 @@
         <v>104</v>
       </c>
       <c r="C105" t="n">
-        <v>408.828281874325</v>
+        <v>408.666205146088</v>
       </c>
       <c r="D105" t="n">
-        <v>378.057491213446</v>
+        <v>377.384196365389</v>
       </c>
       <c r="E105" t="n">
-        <v>443.509298134607</v>
+        <v>440.064678771714</v>
       </c>
       <c r="F105" t="n">
         <v>2017</v>
@@ -4143,13 +4143,13 @@
         <v>105</v>
       </c>
       <c r="C106" t="n">
-        <v>3665.35774371965</v>
+        <v>3664.20819900923</v>
       </c>
       <c r="D106" t="n">
-        <v>3473.58511728064</v>
+        <v>3432.18312649828</v>
       </c>
       <c r="E106" t="n">
-        <v>3882.60446748159</v>
+        <v>3871.48187060438</v>
       </c>
       <c r="F106" t="n">
         <v>2017</v>
@@ -4175,13 +4175,13 @@
         <v>106</v>
       </c>
       <c r="C107" t="n">
-        <v>316.893433691576</v>
+        <v>315.77820719904</v>
       </c>
       <c r="D107" t="n">
-        <v>292.839973013956</v>
+        <v>288.348286714413</v>
       </c>
       <c r="E107" t="n">
-        <v>341.775074482881</v>
+        <v>341.304315822603</v>
       </c>
       <c r="F107" t="n">
         <v>2017</v>
@@ -4207,13 +4207,13 @@
         <v>107</v>
       </c>
       <c r="C108" t="n">
-        <v>363.307154356789</v>
+        <v>362.073783078166</v>
       </c>
       <c r="D108" t="n">
-        <v>334.593914817603</v>
+        <v>332.462032079962</v>
       </c>
       <c r="E108" t="n">
-        <v>393.820199351741</v>
+        <v>391.097424893038</v>
       </c>
       <c r="F108" t="n">
         <v>2017</v>
@@ -4239,13 +4239,13 @@
         <v>108</v>
       </c>
       <c r="C109" t="n">
-        <v>149.730042465729</v>
+        <v>149.607691215113</v>
       </c>
       <c r="D109" t="n">
-        <v>135.083056085778</v>
+        <v>134.232869672734</v>
       </c>
       <c r="E109" t="n">
-        <v>165.652367453311</v>
+        <v>164.772580302541</v>
       </c>
       <c r="F109" t="n">
         <v>2017</v>
@@ -4271,13 +4271,13 @@
         <v>109</v>
       </c>
       <c r="C110" t="n">
-        <v>487.549139897031</v>
+        <v>486.911287514057</v>
       </c>
       <c r="D110" t="n">
-        <v>451.654486576012</v>
+        <v>451.073965949645</v>
       </c>
       <c r="E110" t="n">
-        <v>525.526730988673</v>
+        <v>524.385081375904</v>
       </c>
       <c r="F110" t="n">
         <v>2017</v>
@@ -4303,13 +4303,13 @@
         <v>110</v>
       </c>
       <c r="C111" t="n">
-        <v>675.586251767731</v>
+        <v>674.724202970523</v>
       </c>
       <c r="D111" t="n">
-        <v>631.482718417506</v>
+        <v>622.184200945726</v>
       </c>
       <c r="E111" t="n">
-        <v>724.060104767163</v>
+        <v>720.634572847435</v>
       </c>
       <c r="F111" t="n">
         <v>2017</v>
@@ -4335,13 +4335,13 @@
         <v>111</v>
       </c>
       <c r="C112" t="n">
-        <v>127.669348261356</v>
+        <v>127.635975846009</v>
       </c>
       <c r="D112" t="n">
-        <v>114.469696496902</v>
+        <v>113.83874466738</v>
       </c>
       <c r="E112" t="n">
-        <v>141.945374051573</v>
+        <v>141.41774936372</v>
       </c>
       <c r="F112" t="n">
         <v>2017</v>
@@ -4367,13 +4367,13 @@
         <v>112</v>
       </c>
       <c r="C113" t="n">
-        <v>349.998674834305</v>
+        <v>348.161705374943</v>
       </c>
       <c r="D113" t="n">
-        <v>324.028484256521</v>
+        <v>319.963669685865</v>
       </c>
       <c r="E113" t="n">
-        <v>379.195289522177</v>
+        <v>377.477549657478</v>
       </c>
       <c r="F113" t="n">
         <v>2017</v>
@@ -4399,13 +4399,13 @@
         <v>113</v>
       </c>
       <c r="C114" t="n">
-        <v>398.827113279997</v>
+        <v>398.637556378884</v>
       </c>
       <c r="D114" t="n">
-        <v>368.427631496679</v>
+        <v>366.731635666917</v>
       </c>
       <c r="E114" t="n">
-        <v>430.754793933362</v>
+        <v>432.913644275929</v>
       </c>
       <c r="F114" t="n">
         <v>2017</v>
@@ -4431,13 +4431,13 @@
         <v>114</v>
       </c>
       <c r="C115" t="n">
-        <v>718.463921046138</v>
+        <v>717.390843422054</v>
       </c>
       <c r="D115" t="n">
-        <v>669.664696734634</v>
+        <v>666.871895377881</v>
       </c>
       <c r="E115" t="n">
-        <v>770.366753977096</v>
+        <v>771.489765545584</v>
       </c>
       <c r="F115" t="n">
         <v>2017</v>
@@ -4463,13 +4463,13 @@
         <v>115</v>
       </c>
       <c r="C116" t="n">
-        <v>348.814753097849</v>
+        <v>348.087434952728</v>
       </c>
       <c r="D116" t="n">
-        <v>321.947129001993</v>
+        <v>318.877843458643</v>
       </c>
       <c r="E116" t="n">
-        <v>379.386066956762</v>
+        <v>375.475853889716</v>
       </c>
       <c r="F116" t="n">
         <v>2017</v>
@@ -4495,13 +4495,13 @@
         <v>116</v>
       </c>
       <c r="C117" t="n">
-        <v>107.934547423089</v>
+        <v>107.67427650955</v>
       </c>
       <c r="D117" t="n">
-        <v>95.403045131291</v>
+        <v>95.9156886125504</v>
       </c>
       <c r="E117" t="n">
-        <v>120.769766299433</v>
+        <v>119.810804871422</v>
       </c>
       <c r="F117" t="n">
         <v>2017</v>
@@ -4527,13 +4527,13 @@
         <v>117</v>
       </c>
       <c r="C118" t="n">
-        <v>166.671663317211</v>
+        <v>166.046007728136</v>
       </c>
       <c r="D118" t="n">
-        <v>150.685271999453</v>
+        <v>149.896152450721</v>
       </c>
       <c r="E118" t="n">
-        <v>184.869133237748</v>
+        <v>183.246294429302</v>
       </c>
       <c r="F118" t="n">
         <v>2017</v>
@@ -4559,13 +4559,13 @@
         <v>118</v>
       </c>
       <c r="C119" t="n">
-        <v>543.624882252913</v>
+        <v>543.5578813995</v>
       </c>
       <c r="D119" t="n">
-        <v>504.712011713741</v>
+        <v>503.47963485084</v>
       </c>
       <c r="E119" t="n">
-        <v>582.74365493613</v>
+        <v>585.587250029103</v>
       </c>
       <c r="F119" t="n">
         <v>2017</v>
@@ -4591,13 +4591,13 @@
         <v>119</v>
       </c>
       <c r="C120" t="n">
-        <v>101.896848660371</v>
+        <v>101.495175277083</v>
       </c>
       <c r="D120" t="n">
-        <v>91.5926255649227</v>
+        <v>90.9374604574519</v>
       </c>
       <c r="E120" t="n">
-        <v>113.140944653291</v>
+        <v>113.365046713294</v>
       </c>
       <c r="F120" t="n">
         <v>2017</v>
@@ -4623,13 +4623,13 @@
         <v>120</v>
       </c>
       <c r="C121" t="n">
-        <v>317.436486291407</v>
+        <v>317.737960391775</v>
       </c>
       <c r="D121" t="n">
-        <v>292.059825119699</v>
+        <v>293.602699588006</v>
       </c>
       <c r="E121" t="n">
-        <v>344.943614089511</v>
+        <v>344.527253869892</v>
       </c>
       <c r="F121" t="n">
         <v>2017</v>
@@ -4655,13 +4655,13 @@
         <v>121</v>
       </c>
       <c r="C122" t="n">
-        <v>535.060050137345</v>
+        <v>533.258492866535</v>
       </c>
       <c r="D122" t="n">
-        <v>497.640252351236</v>
+        <v>494.277921265006</v>
       </c>
       <c r="E122" t="n">
-        <v>577.984880366092</v>
+        <v>575.171388946273</v>
       </c>
       <c r="F122" t="n">
         <v>2017</v>
@@ -4687,13 +4687,13 @@
         <v>122</v>
       </c>
       <c r="C123" t="n">
-        <v>699.217775564582</v>
+        <v>699.629222968859</v>
       </c>
       <c r="D123" t="n">
-        <v>655.593999335307</v>
+        <v>646.734284117437</v>
       </c>
       <c r="E123" t="n">
-        <v>748.985393668411</v>
+        <v>746.705403372825</v>
       </c>
       <c r="F123" t="n">
         <v>2017</v>
@@ -4719,13 +4719,13 @@
         <v>123</v>
       </c>
       <c r="C124" t="n">
-        <v>1477.46478030507</v>
+        <v>1473.9723303677</v>
       </c>
       <c r="D124" t="n">
-        <v>1387.12382113434</v>
+        <v>1381.46234907277</v>
       </c>
       <c r="E124" t="n">
-        <v>1573.85530740974</v>
+        <v>1571.91984980603</v>
       </c>
       <c r="F124" t="n">
         <v>2017</v>
@@ -4751,13 +4751,13 @@
         <v>124</v>
       </c>
       <c r="C125" t="n">
-        <v>1614.4616164743</v>
+        <v>1613.16730859148</v>
       </c>
       <c r="D125" t="n">
-        <v>1521.59198675201</v>
+        <v>1508.60883216234</v>
       </c>
       <c r="E125" t="n">
-        <v>1721.91979905986</v>
+        <v>1713.42660526338</v>
       </c>
       <c r="F125" t="n">
         <v>2017</v>
@@ -4783,13 +4783,13 @@
         <v>125</v>
       </c>
       <c r="C126" t="n">
-        <v>4140.78991024447</v>
+        <v>4137.48684504002</v>
       </c>
       <c r="D126" t="n">
-        <v>3915.92472794743</v>
+        <v>3889.44020910715</v>
       </c>
       <c r="E126" t="n">
-        <v>4412.93424236962</v>
+        <v>4384.39457952178</v>
       </c>
       <c r="F126" t="n">
         <v>2017</v>
@@ -4815,13 +4815,13 @@
         <v>126</v>
       </c>
       <c r="C127" t="n">
-        <v>752.852874647521</v>
+        <v>751.41188545574</v>
       </c>
       <c r="D127" t="n">
-        <v>700.151302250152</v>
+        <v>697.036877460538</v>
       </c>
       <c r="E127" t="n">
-        <v>810.079406413897</v>
+        <v>806.458325577715</v>
       </c>
       <c r="F127" t="n">
         <v>2017</v>
@@ -4847,13 +4847,13 @@
         <v>127</v>
       </c>
       <c r="C128" t="n">
-        <v>506.21342531398</v>
+        <v>505.401345973415</v>
       </c>
       <c r="D128" t="n">
-        <v>470.999284470727</v>
+        <v>464.95377720873</v>
       </c>
       <c r="E128" t="n">
-        <v>543.635266872726</v>
+        <v>541.301468930848</v>
       </c>
       <c r="F128" t="n">
         <v>2017</v>
@@ -4879,13 +4879,13 @@
         <v>128</v>
       </c>
       <c r="C129" t="n">
-        <v>607.477639978063</v>
+        <v>606.428031993167</v>
       </c>
       <c r="D129" t="n">
-        <v>565.792875002079</v>
+        <v>562.324883599312</v>
       </c>
       <c r="E129" t="n">
-        <v>648.556587792341</v>
+        <v>653.786620870102</v>
       </c>
       <c r="F129" t="n">
         <v>2017</v>
@@ -4911,13 +4911,13 @@
         <v>129</v>
       </c>
       <c r="C130" t="n">
-        <v>288.325200764259</v>
+        <v>288.750447923789</v>
       </c>
       <c r="D130" t="n">
-        <v>266.833683178058</v>
+        <v>263.819047154975</v>
       </c>
       <c r="E130" t="n">
-        <v>313.581307134701</v>
+        <v>313.1141326557</v>
       </c>
       <c r="F130" t="n">
         <v>2017</v>
@@ -4943,13 +4943,13 @@
         <v>130</v>
       </c>
       <c r="C131" t="n">
-        <v>298.779208967049</v>
+        <v>298.16436657699</v>
       </c>
       <c r="D131" t="n">
-        <v>276.513508809533</v>
+        <v>272.459779298312</v>
       </c>
       <c r="E131" t="n">
-        <v>324.508261676637</v>
+        <v>321.840203439763</v>
       </c>
       <c r="F131" t="n">
         <v>2017</v>
@@ -4975,13 +4975,13 @@
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>83.1289536458801</v>
+        <v>82.9213399954525</v>
       </c>
       <c r="D132" t="n">
-        <v>72.0819813516418</v>
+        <v>72.5085220402826</v>
       </c>
       <c r="E132" t="n">
-        <v>94.7355859378798</v>
+        <v>94.0817135885185</v>
       </c>
       <c r="F132" t="n">
         <v>2018</v>
@@ -5007,13 +5007,13 @@
         <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>186.760517563107</v>
+        <v>186.098096370077</v>
       </c>
       <c r="D133" t="n">
-        <v>169.637081389763</v>
+        <v>169.615604127061</v>
       </c>
       <c r="E133" t="n">
-        <v>205.723090437518</v>
+        <v>204.694587220533</v>
       </c>
       <c r="F133" t="n">
         <v>2018</v>
@@ -5039,13 +5039,13 @@
         <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>201.87039030836</v>
+        <v>202.134929382394</v>
       </c>
       <c r="D134" t="n">
-        <v>183.370593906371</v>
+        <v>183.876581403784</v>
       </c>
       <c r="E134" t="n">
-        <v>219.437934256413</v>
+        <v>220.880242302203</v>
       </c>
       <c r="F134" t="n">
         <v>2018</v>
@@ -5071,13 +5071,13 @@
         <v>4</v>
       </c>
       <c r="C135" t="n">
-        <v>3314.63082013323</v>
+        <v>3319.28725222146</v>
       </c>
       <c r="D135" t="n">
-        <v>3135.75096911377</v>
+        <v>3146.64349402321</v>
       </c>
       <c r="E135" t="n">
-        <v>3503.7350193522</v>
+        <v>3476.80901490322</v>
       </c>
       <c r="F135" t="n">
         <v>2018</v>
@@ -5103,13 +5103,13 @@
         <v>5</v>
       </c>
       <c r="C136" t="n">
-        <v>490.268563276968</v>
+        <v>491.300870340596</v>
       </c>
       <c r="D136" t="n">
-        <v>458.037948839146</v>
+        <v>457.111727526622</v>
       </c>
       <c r="E136" t="n">
-        <v>527.140817386482</v>
+        <v>529.306864298374</v>
       </c>
       <c r="F136" t="n">
         <v>2018</v>
@@ -5135,13 +5135,13 @@
         <v>6</v>
       </c>
       <c r="C137" t="n">
-        <v>2081.95191875024</v>
+        <v>2081.95944244632</v>
       </c>
       <c r="D137" t="n">
-        <v>1955.15193745209</v>
+        <v>1966.82334222042</v>
       </c>
       <c r="E137" t="n">
-        <v>2202.69579930175</v>
+        <v>2193.10814014051</v>
       </c>
       <c r="F137" t="n">
         <v>2018</v>
@@ -5167,13 +5167,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="n">
-        <v>963.248290764909</v>
+        <v>963.770798644664</v>
       </c>
       <c r="D138" t="n">
-        <v>899.207958820607</v>
+        <v>911.087153059977</v>
       </c>
       <c r="E138" t="n">
-        <v>1025.65088505015</v>
+        <v>1019.11556535417</v>
       </c>
       <c r="F138" t="n">
         <v>2018</v>
@@ -5199,13 +5199,13 @@
         <v>8</v>
       </c>
       <c r="C139" t="n">
-        <v>147.074967852242</v>
+        <v>146.52950198013</v>
       </c>
       <c r="D139" t="n">
-        <v>132.883978856986</v>
+        <v>132.799722462776</v>
       </c>
       <c r="E139" t="n">
-        <v>161.181350301082</v>
+        <v>160.524355816082</v>
       </c>
       <c r="F139" t="n">
         <v>2018</v>
@@ -5231,13 +5231,13 @@
         <v>9</v>
       </c>
       <c r="C140" t="n">
-        <v>270.756673165789</v>
+        <v>271.270451618651</v>
       </c>
       <c r="D140" t="n">
-        <v>248.420572413735</v>
+        <v>250.008805974092</v>
       </c>
       <c r="E140" t="n">
-        <v>293.933413533334</v>
+        <v>296.557821349168</v>
       </c>
       <c r="F140" t="n">
         <v>2018</v>
@@ -5263,13 +5263,13 @@
         <v>10</v>
       </c>
       <c r="C141" t="n">
-        <v>211.255843036539</v>
+        <v>210.862663368342</v>
       </c>
       <c r="D141" t="n">
-        <v>192.744787560296</v>
+        <v>192.428294846931</v>
       </c>
       <c r="E141" t="n">
-        <v>230.907952405141</v>
+        <v>229.930837568249</v>
       </c>
       <c r="F141" t="n">
         <v>2018</v>
@@ -5295,13 +5295,13 @@
         <v>11</v>
       </c>
       <c r="C142" t="n">
-        <v>378.950233508535</v>
+        <v>378.852156544413</v>
       </c>
       <c r="D142" t="n">
-        <v>349.634793136392</v>
+        <v>351.721791336253</v>
       </c>
       <c r="E142" t="n">
-        <v>408.445959527961</v>
+        <v>407.581761245399</v>
       </c>
       <c r="F142" t="n">
         <v>2018</v>
@@ -5327,13 +5327,13 @@
         <v>12</v>
       </c>
       <c r="C143" t="n">
-        <v>488.47157485213</v>
+        <v>489.127982040725</v>
       </c>
       <c r="D143" t="n">
-        <v>456.334905974821</v>
+        <v>456.635801997889</v>
       </c>
       <c r="E143" t="n">
-        <v>522.66591079633</v>
+        <v>522.912277047323</v>
       </c>
       <c r="F143" t="n">
         <v>2018</v>
@@ -5359,13 +5359,13 @@
         <v>13</v>
       </c>
       <c r="C144" t="n">
-        <v>174.124054115986</v>
+        <v>174.274802549014</v>
       </c>
       <c r="D144" t="n">
-        <v>156.840657961729</v>
+        <v>157.758532190701</v>
       </c>
       <c r="E144" t="n">
-        <v>190.357961842375</v>
+        <v>191.968806001695</v>
       </c>
       <c r="F144" t="n">
         <v>2018</v>
@@ -5391,13 +5391,13 @@
         <v>14</v>
       </c>
       <c r="C145" t="n">
-        <v>60.4683292586672</v>
+        <v>60.4231307006177</v>
       </c>
       <c r="D145" t="n">
-        <v>53.301024639962</v>
+        <v>53.1425553677341</v>
       </c>
       <c r="E145" t="n">
-        <v>69.344628633527</v>
+        <v>69.4316613060182</v>
       </c>
       <c r="F145" t="n">
         <v>2018</v>
@@ -5423,13 +5423,13 @@
         <v>15</v>
       </c>
       <c r="C146" t="n">
-        <v>336.012775792489</v>
+        <v>334.857539333021</v>
       </c>
       <c r="D146" t="n">
-        <v>308.015868703869</v>
+        <v>310.672442434155</v>
       </c>
       <c r="E146" t="n">
-        <v>362.316081302241</v>
+        <v>361.578722937599</v>
       </c>
       <c r="F146" t="n">
         <v>2018</v>
@@ -5455,13 +5455,13 @@
         <v>16</v>
       </c>
       <c r="C147" t="n">
-        <v>363.106494543788</v>
+        <v>363.185174184459</v>
       </c>
       <c r="D147" t="n">
-        <v>334.322214185995</v>
+        <v>334.955838677117</v>
       </c>
       <c r="E147" t="n">
-        <v>390.489277515165</v>
+        <v>390.47287086592</v>
       </c>
       <c r="F147" t="n">
         <v>2018</v>
@@ -5487,13 +5487,13 @@
         <v>17</v>
       </c>
       <c r="C148" t="n">
-        <v>354.232879156291</v>
+        <v>355.237660210109</v>
       </c>
       <c r="D148" t="n">
-        <v>328.887765697075</v>
+        <v>326.743717031732</v>
       </c>
       <c r="E148" t="n">
-        <v>383.120726463286</v>
+        <v>383.536186374183</v>
       </c>
       <c r="F148" t="n">
         <v>2018</v>
@@ -5519,13 +5519,13 @@
         <v>18</v>
       </c>
       <c r="C149" t="n">
-        <v>77.6703933125688</v>
+        <v>77.5868477921168</v>
       </c>
       <c r="D149" t="n">
-        <v>68.3978076877333</v>
+        <v>68.9797276007919</v>
       </c>
       <c r="E149" t="n">
-        <v>88.1301323860628</v>
+        <v>88.0495067835538</v>
       </c>
       <c r="F149" t="n">
         <v>2018</v>
@@ -5551,13 +5551,13 @@
         <v>19</v>
       </c>
       <c r="C150" t="n">
-        <v>522.009171194763</v>
+        <v>522.560298001698</v>
       </c>
       <c r="D150" t="n">
-        <v>484.912981607142</v>
+        <v>487.075635017997</v>
       </c>
       <c r="E150" t="n">
-        <v>561.569417968197</v>
+        <v>557.106989127445</v>
       </c>
       <c r="F150" t="n">
         <v>2018</v>
@@ -5583,13 +5583,13 @@
         <v>20</v>
       </c>
       <c r="C151" t="n">
-        <v>268.548391624353</v>
+        <v>269.435369096545</v>
       </c>
       <c r="D151" t="n">
-        <v>248.145341222243</v>
+        <v>249.4372588268</v>
       </c>
       <c r="E151" t="n">
-        <v>291.635910359711</v>
+        <v>291.345096849198</v>
       </c>
       <c r="F151" t="n">
         <v>2018</v>
@@ -5615,13 +5615,13 @@
         <v>21</v>
       </c>
       <c r="C152" t="n">
-        <v>269.100906096593</v>
+        <v>269.531054899275</v>
       </c>
       <c r="D152" t="n">
-        <v>246.689503231949</v>
+        <v>247.934641981435</v>
       </c>
       <c r="E152" t="n">
-        <v>292.088282900835</v>
+        <v>290.630674910309</v>
       </c>
       <c r="F152" t="n">
         <v>2018</v>
@@ -5647,13 +5647,13 @@
         <v>22</v>
       </c>
       <c r="C153" t="n">
-        <v>836.927749964325</v>
+        <v>835.350439260169</v>
       </c>
       <c r="D153" t="n">
-        <v>780.706406300621</v>
+        <v>786.799485338329</v>
       </c>
       <c r="E153" t="n">
-        <v>888.579769134647</v>
+        <v>887.02613422357</v>
       </c>
       <c r="F153" t="n">
         <v>2018</v>
@@ -5679,13 +5679,13 @@
         <v>23</v>
       </c>
       <c r="C154" t="n">
-        <v>524.501494371694</v>
+        <v>526.099951885926</v>
       </c>
       <c r="D154" t="n">
-        <v>485.541504914235</v>
+        <v>490.197871947032</v>
       </c>
       <c r="E154" t="n">
-        <v>561.580161640293</v>
+        <v>562.699769178019</v>
       </c>
       <c r="F154" t="n">
         <v>2018</v>
@@ -5711,13 +5711,13 @@
         <v>24</v>
       </c>
       <c r="C155" t="n">
-        <v>528.661317615837</v>
+        <v>528.488284370639</v>
       </c>
       <c r="D155" t="n">
-        <v>491.818510615822</v>
+        <v>492.971804685428</v>
       </c>
       <c r="E155" t="n">
-        <v>564.765107386192</v>
+        <v>566.859127420935</v>
       </c>
       <c r="F155" t="n">
         <v>2018</v>
@@ -5743,13 +5743,13 @@
         <v>25</v>
       </c>
       <c r="C156" t="n">
-        <v>511.739567907358</v>
+        <v>511.39086643334</v>
       </c>
       <c r="D156" t="n">
-        <v>474.875434917918</v>
+        <v>477.294901322402</v>
       </c>
       <c r="E156" t="n">
-        <v>547.794095817273</v>
+        <v>546.639042852692</v>
       </c>
       <c r="F156" t="n">
         <v>2018</v>
@@ -5775,13 +5775,13 @@
         <v>26</v>
       </c>
       <c r="C157" t="n">
-        <v>339.303674056588</v>
+        <v>340.173043470959</v>
       </c>
       <c r="D157" t="n">
-        <v>313.371289934893</v>
+        <v>314.414315587743</v>
       </c>
       <c r="E157" t="n">
-        <v>364.921785791533</v>
+        <v>366.141679838277</v>
       </c>
       <c r="F157" t="n">
         <v>2018</v>
@@ -5807,13 +5807,13 @@
         <v>27</v>
       </c>
       <c r="C158" t="n">
-        <v>105.407160452713</v>
+        <v>104.938109304654</v>
       </c>
       <c r="D158" t="n">
-        <v>94.1184140491607</v>
+        <v>94.2487684657897</v>
       </c>
       <c r="E158" t="n">
-        <v>117.50204717231</v>
+        <v>118.041670384962</v>
       </c>
       <c r="F158" t="n">
         <v>2018</v>
@@ -5839,13 +5839,13 @@
         <v>28</v>
       </c>
       <c r="C159" t="n">
-        <v>219.966231107507</v>
+        <v>220.721576288164</v>
       </c>
       <c r="D159" t="n">
-        <v>201.37972105891</v>
+        <v>201.464972857331</v>
       </c>
       <c r="E159" t="n">
-        <v>240.013477963548</v>
+        <v>241.898097928962</v>
       </c>
       <c r="F159" t="n">
         <v>2018</v>
@@ -5871,13 +5871,13 @@
         <v>29</v>
       </c>
       <c r="C160" t="n">
-        <v>114.302987897424</v>
+        <v>114.22808137423</v>
       </c>
       <c r="D160" t="n">
-        <v>101.681063964851</v>
+        <v>101.715292815164</v>
       </c>
       <c r="E160" t="n">
-        <v>128.087321877114</v>
+        <v>128.759207978832</v>
       </c>
       <c r="F160" t="n">
         <v>2018</v>
@@ -5903,13 +5903,13 @@
         <v>30</v>
       </c>
       <c r="C161" t="n">
-        <v>1015.48996453705</v>
+        <v>1017.04787726556</v>
       </c>
       <c r="D161" t="n">
-        <v>950.87801133515</v>
+        <v>958.181739771297</v>
       </c>
       <c r="E161" t="n">
-        <v>1077.70792598646</v>
+        <v>1080.38539499512</v>
       </c>
       <c r="F161" t="n">
         <v>2018</v>
@@ -5935,13 +5935,13 @@
         <v>31</v>
       </c>
       <c r="C162" t="n">
-        <v>422.682532277991</v>
+        <v>423.748520908343</v>
       </c>
       <c r="D162" t="n">
-        <v>392.151703810946</v>
+        <v>395.563345407028</v>
       </c>
       <c r="E162" t="n">
-        <v>453.600434953713</v>
+        <v>455.503140058369</v>
       </c>
       <c r="F162" t="n">
         <v>2018</v>
@@ -5967,13 +5967,13 @@
         <v>32</v>
       </c>
       <c r="C163" t="n">
-        <v>233.587392807878</v>
+        <v>233.790096586373</v>
       </c>
       <c r="D163" t="n">
-        <v>213.690794613763</v>
+        <v>213.706874053013</v>
       </c>
       <c r="E163" t="n">
-        <v>254.198927116139</v>
+        <v>254.322127285133</v>
       </c>
       <c r="F163" t="n">
         <v>2018</v>
@@ -5999,13 +5999,13 @@
         <v>33</v>
       </c>
       <c r="C164" t="n">
-        <v>613.206195799266</v>
+        <v>612.786933364143</v>
       </c>
       <c r="D164" t="n">
-        <v>570.690092875981</v>
+        <v>573.323058556654</v>
       </c>
       <c r="E164" t="n">
-        <v>652.716553344992</v>
+        <v>652.36532474953</v>
       </c>
       <c r="F164" t="n">
         <v>2018</v>
@@ -6031,13 +6031,13 @@
         <v>34</v>
       </c>
       <c r="C165" t="n">
-        <v>124.967293991218</v>
+        <v>124.997122117805</v>
       </c>
       <c r="D165" t="n">
-        <v>111.080223253781</v>
+        <v>112.084569797931</v>
       </c>
       <c r="E165" t="n">
-        <v>138.172315932011</v>
+        <v>138.730312902094</v>
       </c>
       <c r="F165" t="n">
         <v>2018</v>
@@ -6063,13 +6063,13 @@
         <v>35</v>
       </c>
       <c r="C166" t="n">
-        <v>556.16934627306</v>
+        <v>556.214623643504</v>
       </c>
       <c r="D166" t="n">
-        <v>517.234837851808</v>
+        <v>516.555177948564</v>
       </c>
       <c r="E166" t="n">
-        <v>597.734764371254</v>
+        <v>597.50425312078</v>
       </c>
       <c r="F166" t="n">
         <v>2018</v>
@@ -6095,13 +6095,13 @@
         <v>36</v>
       </c>
       <c r="C167" t="n">
-        <v>125.121176521689</v>
+        <v>125.380975741516</v>
       </c>
       <c r="D167" t="n">
-        <v>111.724232325065</v>
+        <v>113.439694060873</v>
       </c>
       <c r="E167" t="n">
-        <v>138.270702496329</v>
+        <v>138.866673256653</v>
       </c>
       <c r="F167" t="n">
         <v>2018</v>
@@ -6127,13 +6127,13 @@
         <v>37</v>
       </c>
       <c r="C168" t="n">
-        <v>944.769084349113</v>
+        <v>945.796745024419</v>
       </c>
       <c r="D168" t="n">
-        <v>885.480261108636</v>
+        <v>891.129957824269</v>
       </c>
       <c r="E168" t="n">
-        <v>1004.68624639693</v>
+        <v>1002.04415575817</v>
       </c>
       <c r="F168" t="n">
         <v>2018</v>
@@ -6159,13 +6159,13 @@
         <v>38</v>
       </c>
       <c r="C169" t="n">
-        <v>463.897489662159</v>
+        <v>463.960814909532</v>
       </c>
       <c r="D169" t="n">
-        <v>432.173226442335</v>
+        <v>434.103429062808</v>
       </c>
       <c r="E169" t="n">
-        <v>497.179833814961</v>
+        <v>498.13711849118</v>
       </c>
       <c r="F169" t="n">
         <v>2018</v>
@@ -6191,13 +6191,13 @@
         <v>39</v>
       </c>
       <c r="C170" t="n">
-        <v>595.993774626124</v>
+        <v>597.370913619587</v>
       </c>
       <c r="D170" t="n">
-        <v>556.505570087757</v>
+        <v>557.091163695212</v>
       </c>
       <c r="E170" t="n">
-        <v>639.728251050796</v>
+        <v>636.571374104985</v>
       </c>
       <c r="F170" t="n">
         <v>2018</v>
@@ -6223,13 +6223,13 @@
         <v>40</v>
       </c>
       <c r="C171" t="n">
-        <v>677.076885405736</v>
+        <v>678.369137500021</v>
       </c>
       <c r="D171" t="n">
-        <v>630.919327797949</v>
+        <v>637.618312400026</v>
       </c>
       <c r="E171" t="n">
-        <v>720.755711095115</v>
+        <v>721.549318146741</v>
       </c>
       <c r="F171" t="n">
         <v>2018</v>
@@ -6255,13 +6255,13 @@
         <v>41</v>
       </c>
       <c r="C172" t="n">
-        <v>89.6310083929108</v>
+        <v>89.90874062169</v>
       </c>
       <c r="D172" t="n">
-        <v>79.172352058654</v>
+        <v>79.8239921606002</v>
       </c>
       <c r="E172" t="n">
-        <v>100.823417865543</v>
+        <v>101.544267195692</v>
       </c>
       <c r="F172" t="n">
         <v>2018</v>
@@ -6287,13 +6287,13 @@
         <v>42</v>
       </c>
       <c r="C173" t="n">
-        <v>45.5090233880039</v>
+        <v>45.5139557603371</v>
       </c>
       <c r="D173" t="n">
-        <v>39.0649595758967</v>
+        <v>39.095350124057</v>
       </c>
       <c r="E173" t="n">
-        <v>53.1792176218038</v>
+        <v>52.2467603784427</v>
       </c>
       <c r="F173" t="n">
         <v>2018</v>
@@ -6319,13 +6319,13 @@
         <v>43</v>
       </c>
       <c r="C174" t="n">
-        <v>429.664404239745</v>
+        <v>428.378016152724</v>
       </c>
       <c r="D174" t="n">
-        <v>396.514910178804</v>
+        <v>396.424119575006</v>
       </c>
       <c r="E174" t="n">
-        <v>458.186131170307</v>
+        <v>460.733514822645</v>
       </c>
       <c r="F174" t="n">
         <v>2018</v>
@@ -6351,13 +6351,13 @@
         <v>44</v>
       </c>
       <c r="C175" t="n">
-        <v>113.778849664188</v>
+        <v>113.426650739561</v>
       </c>
       <c r="D175" t="n">
-        <v>101.241943996174</v>
+        <v>101.515477738827</v>
       </c>
       <c r="E175" t="n">
-        <v>127.666265351997</v>
+        <v>126.337227449648</v>
       </c>
       <c r="F175" t="n">
         <v>2018</v>
@@ -6383,13 +6383,13 @@
         <v>45</v>
       </c>
       <c r="C176" t="n">
-        <v>308.135883435433</v>
+        <v>307.62997633912</v>
       </c>
       <c r="D176" t="n">
-        <v>283.567146310764</v>
+        <v>285.417332726866</v>
       </c>
       <c r="E176" t="n">
-        <v>332.956950078245</v>
+        <v>332.868364723254</v>
       </c>
       <c r="F176" t="n">
         <v>2018</v>
@@ -6415,13 +6415,13 @@
         <v>46</v>
       </c>
       <c r="C177" t="n">
-        <v>214.722153835315</v>
+        <v>214.626985615693</v>
       </c>
       <c r="D177" t="n">
-        <v>196.078909165777</v>
+        <v>195.881917125689</v>
       </c>
       <c r="E177" t="n">
-        <v>235.297647291497</v>
+        <v>233.209272406237</v>
       </c>
       <c r="F177" t="n">
         <v>2018</v>
@@ -6447,13 +6447,13 @@
         <v>47</v>
       </c>
       <c r="C178" t="n">
-        <v>471.945506393556</v>
+        <v>471.914855688379</v>
       </c>
       <c r="D178" t="n">
-        <v>438.231194919756</v>
+        <v>439.527458568048</v>
       </c>
       <c r="E178" t="n">
-        <v>505.720564679545</v>
+        <v>504.74034105696</v>
       </c>
       <c r="F178" t="n">
         <v>2018</v>
@@ -6479,13 +6479,13 @@
         <v>48</v>
       </c>
       <c r="C179" t="n">
-        <v>1014.91181315328</v>
+        <v>1013.64068764212</v>
       </c>
       <c r="D179" t="n">
-        <v>955.449661991346</v>
+        <v>956.896855483037</v>
       </c>
       <c r="E179" t="n">
-        <v>1077.01207104929</v>
+        <v>1080.00182665351</v>
       </c>
       <c r="F179" t="n">
         <v>2018</v>
@@ -6511,13 +6511,13 @@
         <v>49</v>
       </c>
       <c r="C180" t="n">
-        <v>157.429191016524</v>
+        <v>157.681438954836</v>
       </c>
       <c r="D180" t="n">
-        <v>143.927530662864</v>
+        <v>141.621170006129</v>
       </c>
       <c r="E180" t="n">
-        <v>173.730377133557</v>
+        <v>174.272715651771</v>
       </c>
       <c r="F180" t="n">
         <v>2018</v>
@@ -6543,13 +6543,13 @@
         <v>50</v>
       </c>
       <c r="C181" t="n">
-        <v>413.208001467688</v>
+        <v>413.173347421357</v>
       </c>
       <c r="D181" t="n">
-        <v>381.216926161252</v>
+        <v>383.234860125271</v>
       </c>
       <c r="E181" t="n">
-        <v>444.921286148135</v>
+        <v>443.663773900647</v>
       </c>
       <c r="F181" t="n">
         <v>2018</v>
@@ -6575,13 +6575,13 @@
         <v>51</v>
       </c>
       <c r="C182" t="n">
-        <v>216.26464767282</v>
+        <v>217.028326621063</v>
       </c>
       <c r="D182" t="n">
-        <v>198.368722371802</v>
+        <v>197.641536732683</v>
       </c>
       <c r="E182" t="n">
-        <v>236.34347833415</v>
+        <v>237.727069632627</v>
       </c>
       <c r="F182" t="n">
         <v>2018</v>
@@ -6607,13 +6607,13 @@
         <v>52</v>
       </c>
       <c r="C183" t="n">
-        <v>62.0459420285747</v>
+        <v>61.8816510237881</v>
       </c>
       <c r="D183" t="n">
-        <v>53.4559027162893</v>
+        <v>53.3618268205721</v>
       </c>
       <c r="E183" t="n">
-        <v>71.7435119630417</v>
+        <v>70.9340652325362</v>
       </c>
       <c r="F183" t="n">
         <v>2018</v>
@@ -6639,13 +6639,13 @@
         <v>53</v>
       </c>
       <c r="C184" t="n">
-        <v>53.1047679997332</v>
+        <v>52.8511871601492</v>
       </c>
       <c r="D184" t="n">
-        <v>45.4413547026508</v>
+        <v>44.7141841693916</v>
       </c>
       <c r="E184" t="n">
-        <v>61.8291812334883</v>
+        <v>61.6093010738234</v>
       </c>
       <c r="F184" t="n">
         <v>2018</v>
@@ -6671,13 +6671,13 @@
         <v>54</v>
       </c>
       <c r="C185" t="n">
-        <v>406.350875654897</v>
+        <v>405.958723849667</v>
       </c>
       <c r="D185" t="n">
-        <v>377.458534356655</v>
+        <v>379.203829931622</v>
       </c>
       <c r="E185" t="n">
-        <v>438.26561162587</v>
+        <v>434.156256304399</v>
       </c>
       <c r="F185" t="n">
         <v>2018</v>
@@ -6703,13 +6703,13 @@
         <v>55</v>
       </c>
       <c r="C186" t="n">
-        <v>632.782922096591</v>
+        <v>632.487318440505</v>
       </c>
       <c r="D186" t="n">
-        <v>594.323546754143</v>
+        <v>596.002771664863</v>
       </c>
       <c r="E186" t="n">
-        <v>675.366819036769</v>
+        <v>678.635711298868</v>
       </c>
       <c r="F186" t="n">
         <v>2018</v>
@@ -6735,13 +6735,13 @@
         <v>56</v>
       </c>
       <c r="C187" t="n">
-        <v>726.426553313048</v>
+        <v>727.0501681567</v>
       </c>
       <c r="D187" t="n">
-        <v>680.026303522492</v>
+        <v>683.581954529158</v>
       </c>
       <c r="E187" t="n">
-        <v>778.342417464159</v>
+        <v>774.486978685559</v>
       </c>
       <c r="F187" t="n">
         <v>2018</v>
@@ -6767,13 +6767,13 @@
         <v>57</v>
       </c>
       <c r="C188" t="n">
-        <v>875.76636295989</v>
+        <v>876.229186871097</v>
       </c>
       <c r="D188" t="n">
-        <v>820.503105323868</v>
+        <v>820.115360222615</v>
       </c>
       <c r="E188" t="n">
-        <v>936.052583574601</v>
+        <v>929.392116635892</v>
       </c>
       <c r="F188" t="n">
         <v>2018</v>
@@ -6799,13 +6799,13 @@
         <v>58</v>
       </c>
       <c r="C189" t="n">
-        <v>262.289813294805</v>
+        <v>261.522502741019</v>
       </c>
       <c r="D189" t="n">
-        <v>239.234634795119</v>
+        <v>241.011598989932</v>
       </c>
       <c r="E189" t="n">
-        <v>284.247358469846</v>
+        <v>284.22290161935</v>
       </c>
       <c r="F189" t="n">
         <v>2018</v>
@@ -6831,13 +6831,13 @@
         <v>59</v>
       </c>
       <c r="C190" t="n">
-        <v>898.794652411655</v>
+        <v>900.753460971</v>
       </c>
       <c r="D190" t="n">
-        <v>843.093097827506</v>
+        <v>848.236437940992</v>
       </c>
       <c r="E190" t="n">
-        <v>955.973577704569</v>
+        <v>957.414329978728</v>
       </c>
       <c r="F190" t="n">
         <v>2018</v>
@@ -6863,13 +6863,13 @@
         <v>60</v>
       </c>
       <c r="C191" t="n">
-        <v>412.610936687598</v>
+        <v>413.181201983781</v>
       </c>
       <c r="D191" t="n">
-        <v>381.948353871494</v>
+        <v>384.422631817361</v>
       </c>
       <c r="E191" t="n">
-        <v>443.316182935096</v>
+        <v>442.500074008142</v>
       </c>
       <c r="F191" t="n">
         <v>2018</v>
@@ -6895,13 +6895,13 @@
         <v>61</v>
       </c>
       <c r="C192" t="n">
-        <v>254.392809468366</v>
+        <v>255.298193917675</v>
       </c>
       <c r="D192" t="n">
-        <v>234.662499284249</v>
+        <v>235.283877881732</v>
       </c>
       <c r="E192" t="n">
-        <v>276.594299196893</v>
+        <v>280.159782298394</v>
       </c>
       <c r="F192" t="n">
         <v>2018</v>
@@ -6927,13 +6927,13 @@
         <v>62</v>
       </c>
       <c r="C193" t="n">
-        <v>1249.11304721427</v>
+        <v>1250.1262697423</v>
       </c>
       <c r="D193" t="n">
-        <v>1173.4246592276</v>
+        <v>1175.80628172804</v>
       </c>
       <c r="E193" t="n">
-        <v>1328.54524135928</v>
+        <v>1325.81580966987</v>
       </c>
       <c r="F193" t="n">
         <v>2018</v>
@@ -6959,13 +6959,13 @@
         <v>63</v>
       </c>
       <c r="C194" t="n">
-        <v>89.3621343454546</v>
+        <v>89.8615241892558</v>
       </c>
       <c r="D194" t="n">
-        <v>79.2644722893511</v>
+        <v>79.8032703616722</v>
       </c>
       <c r="E194" t="n">
-        <v>100.057509900362</v>
+        <v>100.725196559646</v>
       </c>
       <c r="F194" t="n">
         <v>2018</v>
@@ -6991,13 +6991,13 @@
         <v>64</v>
       </c>
       <c r="C195" t="n">
-        <v>325.843846090509</v>
+        <v>325.776397430904</v>
       </c>
       <c r="D195" t="n">
-        <v>298.482905141871</v>
+        <v>301.876148804088</v>
       </c>
       <c r="E195" t="n">
-        <v>351.703802008354</v>
+        <v>353.737862147058</v>
       </c>
       <c r="F195" t="n">
         <v>2018</v>
@@ -7023,13 +7023,13 @@
         <v>65</v>
       </c>
       <c r="C196" t="n">
-        <v>315.812610671726</v>
+        <v>316.69158707751</v>
       </c>
       <c r="D196" t="n">
-        <v>290.847380364066</v>
+        <v>292.538769773388</v>
       </c>
       <c r="E196" t="n">
-        <v>342.108475414119</v>
+        <v>342.310760300305</v>
       </c>
       <c r="F196" t="n">
         <v>2018</v>
@@ -7055,13 +7055,13 @@
         <v>66</v>
       </c>
       <c r="C197" t="n">
-        <v>122.324326002083</v>
+        <v>122.246440607396</v>
       </c>
       <c r="D197" t="n">
-        <v>108.974360304875</v>
+        <v>108.81820816766</v>
       </c>
       <c r="E197" t="n">
-        <v>135.177524919302</v>
+        <v>135.984243251693</v>
       </c>
       <c r="F197" t="n">
         <v>2018</v>
@@ -7087,13 +7087,13 @@
         <v>67</v>
       </c>
       <c r="C198" t="n">
-        <v>200.03066588386</v>
+        <v>201.257122035453</v>
       </c>
       <c r="D198" t="n">
-        <v>183.497555558268</v>
+        <v>182.79869085038</v>
       </c>
       <c r="E198" t="n">
-        <v>220.17955495702</v>
+        <v>219.973926536305</v>
       </c>
       <c r="F198" t="n">
         <v>2018</v>
@@ -7119,13 +7119,13 @@
         <v>68</v>
       </c>
       <c r="C199" t="n">
-        <v>224.810636821837</v>
+        <v>224.74653213573</v>
       </c>
       <c r="D199" t="n">
-        <v>205.765304343942</v>
+        <v>204.624718250343</v>
       </c>
       <c r="E199" t="n">
-        <v>244.066800136026</v>
+        <v>244.623397040429</v>
       </c>
       <c r="F199" t="n">
         <v>2018</v>
@@ -7151,13 +7151,13 @@
         <v>69</v>
       </c>
       <c r="C200" t="n">
-        <v>919.755963515958</v>
+        <v>921.371384456546</v>
       </c>
       <c r="D200" t="n">
-        <v>858.917205666531</v>
+        <v>869.000935555726</v>
       </c>
       <c r="E200" t="n">
-        <v>979.413326660617</v>
+        <v>980.618224337034</v>
       </c>
       <c r="F200" t="n">
         <v>2018</v>
@@ -7183,13 +7183,13 @@
         <v>70</v>
       </c>
       <c r="C201" t="n">
-        <v>79.8526637633703</v>
+        <v>79.8031019316626</v>
       </c>
       <c r="D201" t="n">
-        <v>70.4691822793312</v>
+        <v>69.0126639010212</v>
       </c>
       <c r="E201" t="n">
-        <v>90.5624956654297</v>
+        <v>90.4391512827551</v>
       </c>
       <c r="F201" t="n">
         <v>2018</v>
@@ -7215,13 +7215,13 @@
         <v>71</v>
       </c>
       <c r="C202" t="n">
-        <v>150.787031367035</v>
+        <v>151.047740314016</v>
       </c>
       <c r="D202" t="n">
-        <v>136.27189274165</v>
+        <v>135.801625148589</v>
       </c>
       <c r="E202" t="n">
-        <v>165.790655938</v>
+        <v>167.462301959474</v>
       </c>
       <c r="F202" t="n">
         <v>2018</v>
@@ -7247,13 +7247,13 @@
         <v>72</v>
       </c>
       <c r="C203" t="n">
-        <v>289.623603868939</v>
+        <v>289.124895550491</v>
       </c>
       <c r="D203" t="n">
-        <v>265.082137232261</v>
+        <v>267.890729216155</v>
       </c>
       <c r="E203" t="n">
-        <v>313.833532762371</v>
+        <v>314.103738748114</v>
       </c>
       <c r="F203" t="n">
         <v>2018</v>
@@ -7279,13 +7279,13 @@
         <v>73</v>
       </c>
       <c r="C204" t="n">
-        <v>747.007455596215</v>
+        <v>745.841813022334</v>
       </c>
       <c r="D204" t="n">
-        <v>694.556855324863</v>
+        <v>702.267258864043</v>
       </c>
       <c r="E204" t="n">
-        <v>794.949271026373</v>
+        <v>790.982080475482</v>
       </c>
       <c r="F204" t="n">
         <v>2018</v>
@@ -7311,13 +7311,13 @@
         <v>74</v>
       </c>
       <c r="C205" t="n">
-        <v>102.768932782138</v>
+        <v>103.352407993519</v>
       </c>
       <c r="D205" t="n">
-        <v>91.8119867376209</v>
+        <v>92.0788421773144</v>
       </c>
       <c r="E205" t="n">
-        <v>115.269427533346</v>
+        <v>116.046198767826</v>
       </c>
       <c r="F205" t="n">
         <v>2018</v>
@@ -7343,13 +7343,13 @@
         <v>75</v>
       </c>
       <c r="C206" t="n">
-        <v>97.7809992346995</v>
+        <v>97.6350378976912</v>
       </c>
       <c r="D206" t="n">
-        <v>86.4752969039745</v>
+        <v>86.5442688273279</v>
       </c>
       <c r="E206" t="n">
-        <v>110.932565960923</v>
+        <v>109.737476305449</v>
       </c>
       <c r="F206" t="n">
         <v>2018</v>
@@ -7375,13 +7375,13 @@
         <v>76</v>
       </c>
       <c r="C207" t="n">
-        <v>688.186302624805</v>
+        <v>690.044462741142</v>
       </c>
       <c r="D207" t="n">
-        <v>638.920427023962</v>
+        <v>646.254435476061</v>
       </c>
       <c r="E207" t="n">
-        <v>731.50090283563</v>
+        <v>730.471470667946</v>
       </c>
       <c r="F207" t="n">
         <v>2018</v>
@@ -7407,13 +7407,13 @@
         <v>77</v>
       </c>
       <c r="C208" t="n">
-        <v>227.019897131531</v>
+        <v>227.288481125277</v>
       </c>
       <c r="D208" t="n">
-        <v>206.460868323844</v>
+        <v>207.087198141901</v>
       </c>
       <c r="E208" t="n">
-        <v>248.253432879132</v>
+        <v>247.228105583272</v>
       </c>
       <c r="F208" t="n">
         <v>2018</v>
@@ -7439,13 +7439,13 @@
         <v>78</v>
       </c>
       <c r="C209" t="n">
-        <v>465.574044152677</v>
+        <v>465.632917225302</v>
       </c>
       <c r="D209" t="n">
-        <v>434.682558306619</v>
+        <v>434.823025318066</v>
       </c>
       <c r="E209" t="n">
-        <v>501.132427333171</v>
+        <v>501.192004003983</v>
       </c>
       <c r="F209" t="n">
         <v>2018</v>
@@ -7471,13 +7471,13 @@
         <v>79</v>
       </c>
       <c r="C210" t="n">
-        <v>331.768274158833</v>
+        <v>331.778979924685</v>
       </c>
       <c r="D210" t="n">
-        <v>305.813705722143</v>
+        <v>308.098027372813</v>
       </c>
       <c r="E210" t="n">
-        <v>359.438275340766</v>
+        <v>356.956812955503</v>
       </c>
       <c r="F210" t="n">
         <v>2018</v>
@@ -7503,13 +7503,13 @@
         <v>80</v>
       </c>
       <c r="C211" t="n">
-        <v>414.223968543732</v>
+        <v>414.318815830437</v>
       </c>
       <c r="D211" t="n">
-        <v>382.214038512169</v>
+        <v>385.299439534855</v>
       </c>
       <c r="E211" t="n">
-        <v>446.65643316734</v>
+        <v>444.799394011755</v>
       </c>
       <c r="F211" t="n">
         <v>2018</v>
@@ -7535,13 +7535,13 @@
         <v>81</v>
       </c>
       <c r="C212" t="n">
-        <v>428.858484083139</v>
+        <v>429.203503260641</v>
       </c>
       <c r="D212" t="n">
-        <v>398.216978411294</v>
+        <v>399.044694975666</v>
       </c>
       <c r="E212" t="n">
-        <v>462.656173179047</v>
+        <v>462.169234138302</v>
       </c>
       <c r="F212" t="n">
         <v>2018</v>
@@ -7567,13 +7567,13 @@
         <v>82</v>
       </c>
       <c r="C213" t="n">
-        <v>1594.09827973829</v>
+        <v>1595.54418504578</v>
       </c>
       <c r="D213" t="n">
-        <v>1504.1652725566</v>
+        <v>1506.83590510825</v>
       </c>
       <c r="E213" t="n">
-        <v>1684.46593228312</v>
+        <v>1678.93090569648</v>
       </c>
       <c r="F213" t="n">
         <v>2018</v>
@@ -7599,13 +7599,13 @@
         <v>83</v>
       </c>
       <c r="C214" t="n">
-        <v>220.323915568321</v>
+        <v>220.779118410385</v>
       </c>
       <c r="D214" t="n">
-        <v>202.800818360608</v>
+        <v>203.768717798759</v>
       </c>
       <c r="E214" t="n">
-        <v>239.62023409546</v>
+        <v>241.76264276744</v>
       </c>
       <c r="F214" t="n">
         <v>2018</v>
@@ -7631,13 +7631,13 @@
         <v>84</v>
       </c>
       <c r="C215" t="n">
-        <v>320.727731543191</v>
+        <v>320.503640282563</v>
       </c>
       <c r="D215" t="n">
-        <v>295.946092421998</v>
+        <v>296.541399466893</v>
       </c>
       <c r="E215" t="n">
-        <v>346.948965887088</v>
+        <v>346.63627547875</v>
       </c>
       <c r="F215" t="n">
         <v>2018</v>
@@ -7663,13 +7663,13 @@
         <v>85</v>
       </c>
       <c r="C216" t="n">
-        <v>318.553609932789</v>
+        <v>318.346816934822</v>
       </c>
       <c r="D216" t="n">
-        <v>294.709113342381</v>
+        <v>295.781164228612</v>
       </c>
       <c r="E216" t="n">
-        <v>344.70232879195</v>
+        <v>342.883124345217</v>
       </c>
       <c r="F216" t="n">
         <v>2018</v>
@@ -7695,13 +7695,13 @@
         <v>86</v>
       </c>
       <c r="C217" t="n">
-        <v>1065.42478572114</v>
+        <v>1064.92888542688</v>
       </c>
       <c r="D217" t="n">
-        <v>993.182170079502</v>
+        <v>1006.55719402395</v>
       </c>
       <c r="E217" t="n">
-        <v>1128.4594586064</v>
+        <v>1128.12155210182</v>
       </c>
       <c r="F217" t="n">
         <v>2018</v>
@@ -7727,13 +7727,13 @@
         <v>87</v>
       </c>
       <c r="C218" t="n">
-        <v>91.9626307825526</v>
+        <v>91.9678799554982</v>
       </c>
       <c r="D218" t="n">
-        <v>81.6876118293388</v>
+        <v>81.7077398253153</v>
       </c>
       <c r="E218" t="n">
-        <v>103.470367729999</v>
+        <v>102.891583360762</v>
       </c>
       <c r="F218" t="n">
         <v>2018</v>
@@ -7759,13 +7759,13 @@
         <v>88</v>
       </c>
       <c r="C219" t="n">
-        <v>276.60315275193</v>
+        <v>277.509042328557</v>
       </c>
       <c r="D219" t="n">
-        <v>254.670320920467</v>
+        <v>255.12275883229</v>
       </c>
       <c r="E219" t="n">
-        <v>299.686765348339</v>
+        <v>299.755700284723</v>
       </c>
       <c r="F219" t="n">
         <v>2018</v>
@@ -7791,13 +7791,13 @@
         <v>89</v>
       </c>
       <c r="C220" t="n">
-        <v>381.249067537019</v>
+        <v>381.878986894172</v>
       </c>
       <c r="D220" t="n">
-        <v>354.720415868744</v>
+        <v>354.283779742059</v>
       </c>
       <c r="E220" t="n">
-        <v>410.333422993668</v>
+        <v>413.463918709837</v>
       </c>
       <c r="F220" t="n">
         <v>2018</v>
@@ -7823,13 +7823,13 @@
         <v>90</v>
       </c>
       <c r="C221" t="n">
-        <v>380.72552331805</v>
+        <v>379.977980538753</v>
       </c>
       <c r="D221" t="n">
-        <v>354.164279072095</v>
+        <v>353.623301339652</v>
       </c>
       <c r="E221" t="n">
-        <v>411.369065990341</v>
+        <v>409.56724032379</v>
       </c>
       <c r="F221" t="n">
         <v>2018</v>
@@ -7855,13 +7855,13 @@
         <v>91</v>
       </c>
       <c r="C222" t="n">
-        <v>1255.60701717333</v>
+        <v>1254.21635269307</v>
       </c>
       <c r="D222" t="n">
-        <v>1180.73780700977</v>
+        <v>1189.70786057489</v>
       </c>
       <c r="E222" t="n">
-        <v>1324.26765378913</v>
+        <v>1327.64640946655</v>
       </c>
       <c r="F222" t="n">
         <v>2018</v>
@@ -7887,13 +7887,13 @@
         <v>92</v>
       </c>
       <c r="C223" t="n">
-        <v>473.586500102002</v>
+        <v>473.799115457908</v>
       </c>
       <c r="D223" t="n">
-        <v>442.624350923355</v>
+        <v>441.305482438518</v>
       </c>
       <c r="E223" t="n">
-        <v>507.852216982973</v>
+        <v>508.131146628418</v>
       </c>
       <c r="F223" t="n">
         <v>2018</v>
@@ -7919,13 +7919,13 @@
         <v>93</v>
       </c>
       <c r="C224" t="n">
-        <v>137.972648996388</v>
+        <v>138.011247310427</v>
       </c>
       <c r="D224" t="n">
-        <v>124.321248206132</v>
+        <v>124.98822047926</v>
       </c>
       <c r="E224" t="n">
-        <v>152.233155552208</v>
+        <v>153.186866723677</v>
       </c>
       <c r="F224" t="n">
         <v>2018</v>
@@ -7951,13 +7951,13 @@
         <v>94</v>
       </c>
       <c r="C225" t="n">
-        <v>22.2201925894821</v>
+        <v>22.1382399531656</v>
       </c>
       <c r="D225" t="n">
-        <v>18.0556197814528</v>
+        <v>17.7832543339634</v>
       </c>
       <c r="E225" t="n">
-        <v>27.2850829940113</v>
+        <v>27.4001297121461</v>
       </c>
       <c r="F225" t="n">
         <v>2018</v>
@@ -7983,13 +7983,13 @@
         <v>95</v>
       </c>
       <c r="C226" t="n">
-        <v>223.630239426766</v>
+        <v>224.688921778962</v>
       </c>
       <c r="D226" t="n">
-        <v>205.500346645775</v>
+        <v>205.784928133727</v>
       </c>
       <c r="E226" t="n">
-        <v>245.428113453865</v>
+        <v>244.90838229609</v>
       </c>
       <c r="F226" t="n">
         <v>2018</v>
@@ -8015,13 +8015,13 @@
         <v>96</v>
       </c>
       <c r="C227" t="n">
-        <v>439.873015386253</v>
+        <v>441.106418372683</v>
       </c>
       <c r="D227" t="n">
-        <v>409.597212335553</v>
+        <v>411.253944230179</v>
       </c>
       <c r="E227" t="n">
-        <v>473.643400466015</v>
+        <v>475.0584493143</v>
       </c>
       <c r="F227" t="n">
         <v>2018</v>
@@ -8047,13 +8047,13 @@
         <v>97</v>
       </c>
       <c r="C228" t="n">
-        <v>471.064632250206</v>
+        <v>471.513340544771</v>
       </c>
       <c r="D228" t="n">
-        <v>440.010534607373</v>
+        <v>440.130620299166</v>
       </c>
       <c r="E228" t="n">
-        <v>507.180582430858</v>
+        <v>504.224995927118</v>
       </c>
       <c r="F228" t="n">
         <v>2018</v>
@@ -8079,13 +8079,13 @@
         <v>98</v>
       </c>
       <c r="C229" t="n">
-        <v>323.387276699944</v>
+        <v>322.972592446319</v>
       </c>
       <c r="D229" t="n">
-        <v>299.571755897565</v>
+        <v>298.810216143133</v>
       </c>
       <c r="E229" t="n">
-        <v>350.053656947897</v>
+        <v>348.961997001035</v>
       </c>
       <c r="F229" t="n">
         <v>2018</v>
@@ -8111,13 +8111,13 @@
         <v>99</v>
       </c>
       <c r="C230" t="n">
-        <v>356.350491604267</v>
+        <v>355.817654071619</v>
       </c>
       <c r="D230" t="n">
-        <v>330.676538071755</v>
+        <v>331.151110254168</v>
       </c>
       <c r="E230" t="n">
-        <v>382.137498278299</v>
+        <v>384.659402573825</v>
       </c>
       <c r="F230" t="n">
         <v>2018</v>
@@ -8143,13 +8143,13 @@
         <v>100</v>
       </c>
       <c r="C231" t="n">
-        <v>119.694952064705</v>
+        <v>119.611894374731</v>
       </c>
       <c r="D231" t="n">
-        <v>107.541606715599</v>
+        <v>107.910096866651</v>
       </c>
       <c r="E231" t="n">
-        <v>133.079232306544</v>
+        <v>132.272741201016</v>
       </c>
       <c r="F231" t="n">
         <v>2018</v>
@@ -8175,13 +8175,13 @@
         <v>101</v>
       </c>
       <c r="C232" t="n">
-        <v>1426.14649544098</v>
+        <v>1425.55955071515</v>
       </c>
       <c r="D232" t="n">
-        <v>1335.70331127004</v>
+        <v>1349.1298081301</v>
       </c>
       <c r="E232" t="n">
-        <v>1514.10912544846</v>
+        <v>1505.68751125089</v>
       </c>
       <c r="F232" t="n">
         <v>2018</v>
@@ -8207,13 +8207,13 @@
         <v>102</v>
       </c>
       <c r="C233" t="n">
-        <v>774.007567303416</v>
+        <v>775.797263288205</v>
       </c>
       <c r="D233" t="n">
-        <v>721.862083002472</v>
+        <v>724.747772957627</v>
       </c>
       <c r="E233" t="n">
-        <v>825.912055866706</v>
+        <v>819.922334859089</v>
       </c>
       <c r="F233" t="n">
         <v>2018</v>
@@ -8239,13 +8239,13 @@
         <v>103</v>
       </c>
       <c r="C234" t="n">
-        <v>262.961344093209</v>
+        <v>262.285275638557</v>
       </c>
       <c r="D234" t="n">
-        <v>240.791309782838</v>
+        <v>242.164905126423</v>
       </c>
       <c r="E234" t="n">
-        <v>283.965874802283</v>
+        <v>284.72484340712</v>
       </c>
       <c r="F234" t="n">
         <v>2018</v>
@@ -8271,13 +8271,13 @@
         <v>104</v>
       </c>
       <c r="C235" t="n">
-        <v>397.844103087119</v>
+        <v>397.940753752567</v>
       </c>
       <c r="D235" t="n">
-        <v>368.039517060151</v>
+        <v>371.144523336244</v>
       </c>
       <c r="E235" t="n">
-        <v>426.393590821897</v>
+        <v>428.323495485449</v>
       </c>
       <c r="F235" t="n">
         <v>2018</v>
@@ -8303,13 +8303,13 @@
         <v>105</v>
       </c>
       <c r="C236" t="n">
-        <v>3668.1557558036</v>
+        <v>3673.0920364601</v>
       </c>
       <c r="D236" t="n">
-        <v>3462.25969078233</v>
+        <v>3480.93843606809</v>
       </c>
       <c r="E236" t="n">
-        <v>3863.13735090462</v>
+        <v>3858.77730746281</v>
       </c>
       <c r="F236" t="n">
         <v>2018</v>
@@ -8335,13 +8335,13 @@
         <v>106</v>
       </c>
       <c r="C237" t="n">
-        <v>330.635068478723</v>
+        <v>331.124603754082</v>
       </c>
       <c r="D237" t="n">
-        <v>306.035532221018</v>
+        <v>304.373395102573</v>
       </c>
       <c r="E237" t="n">
-        <v>356.315407726329</v>
+        <v>356.789521733272</v>
       </c>
       <c r="F237" t="n">
         <v>2018</v>
@@ -8367,13 +8367,13 @@
         <v>107</v>
       </c>
       <c r="C238" t="n">
-        <v>368.792912364785</v>
+        <v>369.215155463858</v>
       </c>
       <c r="D238" t="n">
-        <v>342.655440370601</v>
+        <v>342.86668928513</v>
       </c>
       <c r="E238" t="n">
-        <v>396.471905323508</v>
+        <v>396.424479227139</v>
       </c>
       <c r="F238" t="n">
         <v>2018</v>
@@ -8399,13 +8399,13 @@
         <v>108</v>
       </c>
       <c r="C239" t="n">
-        <v>146.388597957945</v>
+        <v>146.771260466262</v>
       </c>
       <c r="D239" t="n">
-        <v>132.104348149346</v>
+        <v>133.006015330947</v>
       </c>
       <c r="E239" t="n">
-        <v>162.58476468243</v>
+        <v>161.853372605421</v>
       </c>
       <c r="F239" t="n">
         <v>2018</v>
@@ -8431,13 +8431,13 @@
         <v>109</v>
       </c>
       <c r="C240" t="n">
-        <v>488.476317149689</v>
+        <v>490.176407775611</v>
       </c>
       <c r="D240" t="n">
-        <v>455.359430368586</v>
+        <v>455.707277129271</v>
       </c>
       <c r="E240" t="n">
-        <v>522.85746211885</v>
+        <v>525.803482992409</v>
       </c>
       <c r="F240" t="n">
         <v>2018</v>
@@ -8463,13 +8463,13 @@
         <v>110</v>
       </c>
       <c r="C241" t="n">
-        <v>679.56982179368</v>
+        <v>680.605795842824</v>
       </c>
       <c r="D241" t="n">
-        <v>635.915363925433</v>
+        <v>636.945798717609</v>
       </c>
       <c r="E241" t="n">
-        <v>725.540657284241</v>
+        <v>722.819827748064</v>
       </c>
       <c r="F241" t="n">
         <v>2018</v>
@@ -8495,13 +8495,13 @@
         <v>111</v>
       </c>
       <c r="C242" t="n">
-        <v>127.857512651662</v>
+        <v>127.896554453134</v>
       </c>
       <c r="D242" t="n">
-        <v>114.378300711009</v>
+        <v>113.689700671553</v>
       </c>
       <c r="E242" t="n">
-        <v>142.08903367413</v>
+        <v>140.944409670501</v>
       </c>
       <c r="F242" t="n">
         <v>2018</v>
@@ -8527,13 +8527,13 @@
         <v>112</v>
       </c>
       <c r="C243" t="n">
-        <v>345.504309695856</v>
+        <v>344.447756979646</v>
       </c>
       <c r="D243" t="n">
-        <v>319.768803009177</v>
+        <v>318.326117753057</v>
       </c>
       <c r="E243" t="n">
-        <v>371.766280275764</v>
+        <v>373.144597871299</v>
       </c>
       <c r="F243" t="n">
         <v>2018</v>
@@ -8559,13 +8559,13 @@
         <v>113</v>
       </c>
       <c r="C244" t="n">
-        <v>394.975947245428</v>
+        <v>396.238289698182</v>
       </c>
       <c r="D244" t="n">
-        <v>368.010845123654</v>
+        <v>368.850487099237</v>
       </c>
       <c r="E244" t="n">
-        <v>425.557593621178</v>
+        <v>428.142229546473</v>
       </c>
       <c r="F244" t="n">
         <v>2018</v>
@@ -8591,13 +8591,13 @@
         <v>114</v>
       </c>
       <c r="C245" t="n">
-        <v>756.015493373875</v>
+        <v>756.034900683068</v>
       </c>
       <c r="D245" t="n">
-        <v>709.888722689278</v>
+        <v>708.89916316896</v>
       </c>
       <c r="E245" t="n">
-        <v>806.306248795129</v>
+        <v>805.389280070182</v>
       </c>
       <c r="F245" t="n">
         <v>2018</v>
@@ -8623,13 +8623,13 @@
         <v>115</v>
       </c>
       <c r="C246" t="n">
-        <v>366.739772653588</v>
+        <v>367.760215832013</v>
       </c>
       <c r="D246" t="n">
-        <v>340.055607562143</v>
+        <v>340.165320697828</v>
       </c>
       <c r="E246" t="n">
-        <v>393.969197205243</v>
+        <v>395.336995763882</v>
       </c>
       <c r="F246" t="n">
         <v>2018</v>
@@ -8655,13 +8655,13 @@
         <v>116</v>
       </c>
       <c r="C247" t="n">
-        <v>109.785588279485</v>
+        <v>110.443441240592</v>
       </c>
       <c r="D247" t="n">
-        <v>98.6296887269998</v>
+        <v>98.6379546595885</v>
       </c>
       <c r="E247" t="n">
-        <v>123.349479744939</v>
+        <v>122.844368053874</v>
       </c>
       <c r="F247" t="n">
         <v>2018</v>
@@ -8687,13 +8687,13 @@
         <v>117</v>
       </c>
       <c r="C248" t="n">
-        <v>173.247342841129</v>
+        <v>173.265793024054</v>
       </c>
       <c r="D248" t="n">
-        <v>156.546508013419</v>
+        <v>157.208633424611</v>
       </c>
       <c r="E248" t="n">
-        <v>190.046623098086</v>
+        <v>191.007593621197</v>
       </c>
       <c r="F248" t="n">
         <v>2018</v>
@@ -8719,13 +8719,13 @@
         <v>118</v>
       </c>
       <c r="C249" t="n">
-        <v>533.562774106563</v>
+        <v>534.526644665519</v>
       </c>
       <c r="D249" t="n">
-        <v>494.988157595678</v>
+        <v>500.008784104093</v>
       </c>
       <c r="E249" t="n">
-        <v>570.47112473143</v>
+        <v>570.822045800624</v>
       </c>
       <c r="F249" t="n">
         <v>2018</v>
@@ -8751,13 +8751,13 @@
         <v>119</v>
       </c>
       <c r="C250" t="n">
-        <v>105.116009550132</v>
+        <v>105.087149383007</v>
       </c>
       <c r="D250" t="n">
-        <v>94.1392036837863</v>
+        <v>94.6314920337548</v>
       </c>
       <c r="E250" t="n">
-        <v>116.450969288742</v>
+        <v>116.370105987939</v>
       </c>
       <c r="F250" t="n">
         <v>2018</v>
@@ -8783,13 +8783,13 @@
         <v>120</v>
       </c>
       <c r="C251" t="n">
-        <v>322.124583135426</v>
+        <v>321.930754907055</v>
       </c>
       <c r="D251" t="n">
-        <v>298.841626944147</v>
+        <v>298.984294385853</v>
       </c>
       <c r="E251" t="n">
-        <v>349.482427621134</v>
+        <v>347.026591431627</v>
       </c>
       <c r="F251" t="n">
         <v>2018</v>
@@ -8815,13 +8815,13 @@
         <v>121</v>
       </c>
       <c r="C252" t="n">
-        <v>548.393711691445</v>
+        <v>548.69200048173</v>
       </c>
       <c r="D252" t="n">
-        <v>513.242564048876</v>
+        <v>514.11202043349</v>
       </c>
       <c r="E252" t="n">
-        <v>588.328048392928</v>
+        <v>588.083708629591</v>
       </c>
       <c r="F252" t="n">
         <v>2018</v>
@@ -8847,13 +8847,13 @@
         <v>122</v>
       </c>
       <c r="C253" t="n">
-        <v>711.495118691854</v>
+        <v>712.006913634415</v>
       </c>
       <c r="D253" t="n">
-        <v>664.218092840114</v>
+        <v>665.516222915456</v>
       </c>
       <c r="E253" t="n">
-        <v>758.198041327261</v>
+        <v>755.035048677364</v>
       </c>
       <c r="F253" t="n">
         <v>2018</v>
@@ -8879,13 +8879,13 @@
         <v>123</v>
       </c>
       <c r="C254" t="n">
-        <v>1504.15392792285</v>
+        <v>1506.76009202104</v>
       </c>
       <c r="D254" t="n">
-        <v>1421.70398339042</v>
+        <v>1425.43147354484</v>
       </c>
       <c r="E254" t="n">
-        <v>1594.10231350546</v>
+        <v>1590.13563833666</v>
       </c>
       <c r="F254" t="n">
         <v>2018</v>
@@ -8911,13 +8911,13 @@
         <v>124</v>
       </c>
       <c r="C255" t="n">
-        <v>1646.68129462878</v>
+        <v>1646.35541683531</v>
       </c>
       <c r="D255" t="n">
-        <v>1548.4911641789</v>
+        <v>1557.13026187942</v>
       </c>
       <c r="E255" t="n">
-        <v>1743.01964279944</v>
+        <v>1738.55160229568</v>
       </c>
       <c r="F255" t="n">
         <v>2018</v>
@@ -8943,13 +8943,13 @@
         <v>125</v>
       </c>
       <c r="C256" t="n">
-        <v>4129.80156953597</v>
+        <v>4134.95184975484</v>
       </c>
       <c r="D256" t="n">
-        <v>3908.9130541762</v>
+        <v>3911.73464655282</v>
       </c>
       <c r="E256" t="n">
-        <v>4359.11815182306</v>
+        <v>4347.80712800332</v>
       </c>
       <c r="F256" t="n">
         <v>2018</v>
@@ -8975,13 +8975,13 @@
         <v>126</v>
       </c>
       <c r="C257" t="n">
-        <v>740.672143446802</v>
+        <v>740.361127869496</v>
       </c>
       <c r="D257" t="n">
-        <v>693.847068395205</v>
+        <v>697.653525706707</v>
       </c>
       <c r="E257" t="n">
-        <v>790.113735591758</v>
+        <v>787.273229792237</v>
       </c>
       <c r="F257" t="n">
         <v>2018</v>
@@ -9007,13 +9007,13 @@
         <v>127</v>
       </c>
       <c r="C258" t="n">
-        <v>503.6215221906</v>
+        <v>504.090325434563</v>
       </c>
       <c r="D258" t="n">
-        <v>469.141161694758</v>
+        <v>468.598924427896</v>
       </c>
       <c r="E258" t="n">
-        <v>539.513667098475</v>
+        <v>539.22401190433</v>
       </c>
       <c r="F258" t="n">
         <v>2018</v>
@@ -9039,13 +9039,13 @@
         <v>128</v>
       </c>
       <c r="C259" t="n">
-        <v>617.360347452379</v>
+        <v>616.887969736367</v>
       </c>
       <c r="D259" t="n">
-        <v>574.175907020741</v>
+        <v>577.334740524074</v>
       </c>
       <c r="E259" t="n">
-        <v>658.077348756154</v>
+        <v>658.612876954771</v>
       </c>
       <c r="F259" t="n">
         <v>2018</v>
@@ -9071,13 +9071,13 @@
         <v>129</v>
       </c>
       <c r="C260" t="n">
-        <v>300.139875698583</v>
+        <v>301.211089788917</v>
       </c>
       <c r="D260" t="n">
-        <v>276.42233401225</v>
+        <v>277.631784243333</v>
       </c>
       <c r="E260" t="n">
-        <v>324.84431157932</v>
+        <v>323.806115887766</v>
       </c>
       <c r="F260" t="n">
         <v>2018</v>
@@ -9103,13 +9103,13 @@
         <v>130</v>
       </c>
       <c r="C261" t="n">
-        <v>294.309045152888</v>
+        <v>294.219763842326</v>
       </c>
       <c r="D261" t="n">
-        <v>270.768537257767</v>
+        <v>270.250154222288</v>
       </c>
       <c r="E261" t="n">
-        <v>319.007062992726</v>
+        <v>316.508098054713</v>
       </c>
       <c r="F261" t="n">
         <v>2018</v>
@@ -9135,13 +9135,13 @@
         <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>85.6433394954753</v>
+        <v>85.2663334870024</v>
       </c>
       <c r="D262" t="n">
-        <v>75.526820276106</v>
+        <v>75.420683421304</v>
       </c>
       <c r="E262" t="n">
-        <v>96.2973315711608</v>
+        <v>96.0179751238324</v>
       </c>
       <c r="F262" t="n">
         <v>2019</v>
@@ -9167,13 +9167,13 @@
         <v>2</v>
       </c>
       <c r="C263" t="n">
-        <v>189.476274649883</v>
+        <v>188.96099008356</v>
       </c>
       <c r="D263" t="n">
-        <v>174.441566538203</v>
+        <v>173.560446718775</v>
       </c>
       <c r="E263" t="n">
-        <v>204.297358757563</v>
+        <v>205.803434357835</v>
       </c>
       <c r="F263" t="n">
         <v>2019</v>
@@ -9199,13 +9199,13 @@
         <v>3</v>
       </c>
       <c r="C264" t="n">
-        <v>206.748183487877</v>
+        <v>206.668636942324</v>
       </c>
       <c r="D264" t="n">
-        <v>190.123959088677</v>
+        <v>190.773084542973</v>
       </c>
       <c r="E264" t="n">
-        <v>223.039094817438</v>
+        <v>224.11342588248</v>
       </c>
       <c r="F264" t="n">
         <v>2019</v>
@@ -9231,13 +9231,13 @@
         <v>4</v>
       </c>
       <c r="C265" t="n">
-        <v>3291.57492225998</v>
+        <v>3292.86377596152</v>
       </c>
       <c r="D265" t="n">
-        <v>3193.06267180944</v>
+        <v>3194.44982525855</v>
       </c>
       <c r="E265" t="n">
-        <v>3390.20507814999</v>
+        <v>3396.26574204706</v>
       </c>
       <c r="F265" t="n">
         <v>2019</v>
@@ -9263,13 +9263,13 @@
         <v>5</v>
       </c>
       <c r="C266" t="n">
-        <v>502.280984879236</v>
+        <v>501.42980314547</v>
       </c>
       <c r="D266" t="n">
-        <v>476.266721918409</v>
+        <v>474.750568291801</v>
       </c>
       <c r="E266" t="n">
-        <v>527.872299050656</v>
+        <v>530.018665098478</v>
       </c>
       <c r="F266" t="n">
         <v>2019</v>
@@ -9295,13 +9295,13 @@
         <v>6</v>
       </c>
       <c r="C267" t="n">
-        <v>2056.04377409226</v>
+        <v>2054.59608890098</v>
       </c>
       <c r="D267" t="n">
-        <v>1988.61495944086</v>
+        <v>1985.22936476602</v>
       </c>
       <c r="E267" t="n">
-        <v>2127.35677575572</v>
+        <v>2125.3608821757</v>
       </c>
       <c r="F267" t="n">
         <v>2019</v>
@@ -9327,13 +9327,13 @@
         <v>7</v>
       </c>
       <c r="C268" t="n">
-        <v>964.162658935296</v>
+        <v>963.211753640848</v>
       </c>
       <c r="D268" t="n">
-        <v>924.655246724936</v>
+        <v>926.07798427554</v>
       </c>
       <c r="E268" t="n">
-        <v>1005.70739963996</v>
+        <v>1004.80780125178</v>
       </c>
       <c r="F268" t="n">
         <v>2019</v>
@@ -9359,13 +9359,13 @@
         <v>8</v>
       </c>
       <c r="C269" t="n">
-        <v>147.651038514618</v>
+        <v>148.327581519254</v>
       </c>
       <c r="D269" t="n">
-        <v>135.473128716449</v>
+        <v>135.358684178963</v>
       </c>
       <c r="E269" t="n">
-        <v>161.777008012385</v>
+        <v>161.204052504621</v>
       </c>
       <c r="F269" t="n">
         <v>2019</v>
@@ -9391,13 +9391,13 @@
         <v>9</v>
       </c>
       <c r="C270" t="n">
-        <v>267.028151484903</v>
+        <v>266.776381853889</v>
       </c>
       <c r="D270" t="n">
-        <v>249.144000513466</v>
+        <v>248.323505352291</v>
       </c>
       <c r="E270" t="n">
-        <v>286.798451411418</v>
+        <v>288.125698827023</v>
       </c>
       <c r="F270" t="n">
         <v>2019</v>
@@ -9423,13 +9423,13 @@
         <v>10</v>
       </c>
       <c r="C271" t="n">
-        <v>204.255124224327</v>
+        <v>204.239693512949</v>
       </c>
       <c r="D271" t="n">
-        <v>189.251426481385</v>
+        <v>187.673172041157</v>
       </c>
       <c r="E271" t="n">
-        <v>220.79826725391</v>
+        <v>220.935806290517</v>
       </c>
       <c r="F271" t="n">
         <v>2019</v>
@@ -9455,13 +9455,13 @@
         <v>11</v>
       </c>
       <c r="C272" t="n">
-        <v>382.701264278584</v>
+        <v>382.279118118023</v>
       </c>
       <c r="D272" t="n">
-        <v>360.104953099456</v>
+        <v>360.43552689589</v>
       </c>
       <c r="E272" t="n">
-        <v>406.346339927495</v>
+        <v>407.409650298849</v>
       </c>
       <c r="F272" t="n">
         <v>2019</v>
@@ -9487,13 +9487,13 @@
         <v>12</v>
       </c>
       <c r="C273" t="n">
-        <v>485.476568374234</v>
+        <v>485.684066162324</v>
       </c>
       <c r="D273" t="n">
-        <v>460.879087697329</v>
+        <v>460.8584457558</v>
       </c>
       <c r="E273" t="n">
-        <v>512.909823963518</v>
+        <v>512.620932112161</v>
       </c>
       <c r="F273" t="n">
         <v>2019</v>
@@ -9519,13 +9519,13 @@
         <v>13</v>
       </c>
       <c r="C274" t="n">
-        <v>177.33106538828</v>
+        <v>177.194098600829</v>
       </c>
       <c r="D274" t="n">
-        <v>162.763728041305</v>
+        <v>162.523285433779</v>
       </c>
       <c r="E274" t="n">
-        <v>191.97825103335</v>
+        <v>192.818193414426</v>
       </c>
       <c r="F274" t="n">
         <v>2019</v>
@@ -9551,13 +9551,13 @@
         <v>14</v>
       </c>
       <c r="C275" t="n">
-        <v>62.0555292528285</v>
+        <v>61.9654340764057</v>
       </c>
       <c r="D275" t="n">
-        <v>54.3106774681726</v>
+        <v>54.7859999217228</v>
       </c>
       <c r="E275" t="n">
-        <v>70.7633034958116</v>
+        <v>70.2783662399397</v>
       </c>
       <c r="F275" t="n">
         <v>2019</v>
@@ -9583,13 +9583,13 @@
         <v>15</v>
       </c>
       <c r="C276" t="n">
-        <v>330.032216143761</v>
+        <v>329.824639318307</v>
       </c>
       <c r="D276" t="n">
-        <v>309.416996594434</v>
+        <v>308.255540319984</v>
       </c>
       <c r="E276" t="n">
-        <v>352.778592519489</v>
+        <v>351.648175683652</v>
       </c>
       <c r="F276" t="n">
         <v>2019</v>
@@ -9615,13 +9615,13 @@
         <v>16</v>
       </c>
       <c r="C277" t="n">
-        <v>364.787097515699</v>
+        <v>364.667124606787</v>
       </c>
       <c r="D277" t="n">
-        <v>342.696774311855</v>
+        <v>342.105641957025</v>
       </c>
       <c r="E277" t="n">
-        <v>386.59765087504</v>
+        <v>388.061495622612</v>
       </c>
       <c r="F277" t="n">
         <v>2019</v>
@@ -9647,13 +9647,13 @@
         <v>17</v>
       </c>
       <c r="C278" t="n">
-        <v>343.708734249296</v>
+        <v>343.074205326786</v>
       </c>
       <c r="D278" t="n">
-        <v>321.800554710722</v>
+        <v>320.218404257661</v>
       </c>
       <c r="E278" t="n">
-        <v>364.685289915865</v>
+        <v>365.46748277465</v>
       </c>
       <c r="F278" t="n">
         <v>2019</v>
@@ -9679,13 +9679,13 @@
         <v>18</v>
       </c>
       <c r="C279" t="n">
-        <v>81.0053690511574</v>
+        <v>80.9858869814958</v>
       </c>
       <c r="D279" t="n">
-        <v>72.4367961116412</v>
+        <v>72.2765335334942</v>
       </c>
       <c r="E279" t="n">
-        <v>90.3554433756766</v>
+        <v>90.7801299644957</v>
       </c>
       <c r="F279" t="n">
         <v>2019</v>
@@ -9711,13 +9711,13 @@
         <v>19</v>
       </c>
       <c r="C280" t="n">
-        <v>537.999969332679</v>
+        <v>538.788837996132</v>
       </c>
       <c r="D280" t="n">
-        <v>512.729990811337</v>
+        <v>509.731629793131</v>
       </c>
       <c r="E280" t="n">
-        <v>566.979662152031</v>
+        <v>566.043066900886</v>
       </c>
       <c r="F280" t="n">
         <v>2019</v>
@@ -9743,13 +9743,13 @@
         <v>20</v>
       </c>
       <c r="C281" t="n">
-        <v>261.121210664666</v>
+        <v>260.352723535868</v>
       </c>
       <c r="D281" t="n">
-        <v>241.973724145707</v>
+        <v>243.046144415107</v>
       </c>
       <c r="E281" t="n">
-        <v>279.649782522693</v>
+        <v>279.565459662211</v>
       </c>
       <c r="F281" t="n">
         <v>2019</v>
@@ -9775,13 +9775,13 @@
         <v>21</v>
       </c>
       <c r="C282" t="n">
-        <v>275.773653275985</v>
+        <v>275.823390999193</v>
       </c>
       <c r="D282" t="n">
-        <v>257.491593822138</v>
+        <v>257.671304222847</v>
       </c>
       <c r="E282" t="n">
-        <v>295.064269161363</v>
+        <v>295.789619113703</v>
       </c>
       <c r="F282" t="n">
         <v>2019</v>
@@ -9807,13 +9807,13 @@
         <v>22</v>
       </c>
       <c r="C283" t="n">
-        <v>822.778084502043</v>
+        <v>821.655761774572</v>
       </c>
       <c r="D283" t="n">
-        <v>786.810744564121</v>
+        <v>786.248859404775</v>
       </c>
       <c r="E283" t="n">
-        <v>859.248529634469</v>
+        <v>860.610197940185</v>
       </c>
       <c r="F283" t="n">
         <v>2019</v>
@@ -9839,13 +9839,13 @@
         <v>23</v>
       </c>
       <c r="C284" t="n">
-        <v>517.783427807957</v>
+        <v>518.793763852351</v>
       </c>
       <c r="D284" t="n">
-        <v>488.1274696444</v>
+        <v>488.809049327742</v>
       </c>
       <c r="E284" t="n">
-        <v>544.144028165206</v>
+        <v>548.953297557413</v>
       </c>
       <c r="F284" t="n">
         <v>2019</v>
@@ -9871,13 +9871,13 @@
         <v>24</v>
       </c>
       <c r="C285" t="n">
-        <v>543.413835206334</v>
+        <v>542.206468579262</v>
       </c>
       <c r="D285" t="n">
-        <v>516.249174336577</v>
+        <v>516.617042796306</v>
       </c>
       <c r="E285" t="n">
-        <v>574.382457989854</v>
+        <v>575.466474282541</v>
       </c>
       <c r="F285" t="n">
         <v>2019</v>
@@ -9903,13 +9903,13 @@
         <v>25</v>
       </c>
       <c r="C286" t="n">
-        <v>511.345590146558</v>
+        <v>511.070238892582</v>
       </c>
       <c r="D286" t="n">
-        <v>484.609462846114</v>
+        <v>481.939471332108</v>
       </c>
       <c r="E286" t="n">
-        <v>538.467237192981</v>
+        <v>540.795047506665</v>
       </c>
       <c r="F286" t="n">
         <v>2019</v>
@@ -9935,13 +9935,13 @@
         <v>26</v>
       </c>
       <c r="C287" t="n">
-        <v>332.113975439607</v>
+        <v>332.638913586118</v>
       </c>
       <c r="D287" t="n">
-        <v>310.822940618977</v>
+        <v>311.085586274346</v>
       </c>
       <c r="E287" t="n">
-        <v>353.347612669772</v>
+        <v>353.531974191035</v>
       </c>
       <c r="F287" t="n">
         <v>2019</v>
@@ -9967,13 +9967,13 @@
         <v>27</v>
       </c>
       <c r="C288" t="n">
-        <v>105.221171656042</v>
+        <v>105.419458691956</v>
       </c>
       <c r="D288" t="n">
-        <v>94.8940995263657</v>
+        <v>95.2479899970564</v>
       </c>
       <c r="E288" t="n">
-        <v>115.889594227055</v>
+        <v>117.722871473999</v>
       </c>
       <c r="F288" t="n">
         <v>2019</v>
@@ -9999,13 +9999,13 @@
         <v>28</v>
       </c>
       <c r="C289" t="n">
-        <v>213.737833533052</v>
+        <v>214.551392502311</v>
       </c>
       <c r="D289" t="n">
-        <v>197.951264250824</v>
+        <v>196.788419333686</v>
       </c>
       <c r="E289" t="n">
-        <v>230.075353280392</v>
+        <v>232.776395777158</v>
       </c>
       <c r="F289" t="n">
         <v>2019</v>
@@ -10031,13 +10031,13 @@
         <v>29</v>
       </c>
       <c r="C290" t="n">
-        <v>118.841615388731</v>
+        <v>119.244047140345</v>
       </c>
       <c r="D290" t="n">
-        <v>108.129780098812</v>
+        <v>106.753306634133</v>
       </c>
       <c r="E290" t="n">
-        <v>131.578024379343</v>
+        <v>131.840134197093</v>
       </c>
       <c r="F290" t="n">
         <v>2019</v>
@@ -10063,13 +10063,13 @@
         <v>30</v>
       </c>
       <c r="C291" t="n">
-        <v>1010.85987628921</v>
+        <v>1010.30227768714</v>
       </c>
       <c r="D291" t="n">
-        <v>968.721527906055</v>
+        <v>969.98663104728</v>
       </c>
       <c r="E291" t="n">
-        <v>1049.37295802431</v>
+        <v>1052.31032631476</v>
       </c>
       <c r="F291" t="n">
         <v>2019</v>
@@ -10095,13 +10095,13 @@
         <v>31</v>
       </c>
       <c r="C292" t="n">
-        <v>411.348186004555</v>
+        <v>411.352834432629</v>
       </c>
       <c r="D292" t="n">
-        <v>386.838987649145</v>
+        <v>388.306405613862</v>
       </c>
       <c r="E292" t="n">
-        <v>435.605461258596</v>
+        <v>435.669330873716</v>
       </c>
       <c r="F292" t="n">
         <v>2019</v>
@@ -10127,13 +10127,13 @@
         <v>32</v>
       </c>
       <c r="C293" t="n">
-        <v>240.526685897856</v>
+        <v>241.203417882006</v>
       </c>
       <c r="D293" t="n">
-        <v>222.763467278604</v>
+        <v>224.317793082579</v>
       </c>
       <c r="E293" t="n">
-        <v>259.052575873676</v>
+        <v>258.854759147198</v>
       </c>
       <c r="F293" t="n">
         <v>2019</v>
@@ -10159,13 +10159,13 @@
         <v>33</v>
       </c>
       <c r="C294" t="n">
-        <v>605.845566380965</v>
+        <v>603.881268901415</v>
       </c>
       <c r="D294" t="n">
-        <v>574.921304487624</v>
+        <v>573.610863872248</v>
       </c>
       <c r="E294" t="n">
-        <v>638.378863008348</v>
+        <v>635.419550809123</v>
       </c>
       <c r="F294" t="n">
         <v>2019</v>
@@ -10191,13 +10191,13 @@
         <v>34</v>
       </c>
       <c r="C295" t="n">
-        <v>122.602612839075</v>
+        <v>122.719029255785</v>
       </c>
       <c r="D295" t="n">
-        <v>111.266894137386</v>
+        <v>111.077198341501</v>
       </c>
       <c r="E295" t="n">
-        <v>135.065897061341</v>
+        <v>135.508637281229</v>
       </c>
       <c r="F295" t="n">
         <v>2019</v>
@@ -10223,13 +10223,13 @@
         <v>35</v>
       </c>
       <c r="C296" t="n">
-        <v>553.616762981725</v>
+        <v>553.52977578009</v>
       </c>
       <c r="D296" t="n">
-        <v>525.510579738137</v>
+        <v>525.085019390151</v>
       </c>
       <c r="E296" t="n">
-        <v>582.521288128562</v>
+        <v>585.495029398399</v>
       </c>
       <c r="F296" t="n">
         <v>2019</v>
@@ -10255,13 +10255,13 @@
         <v>36</v>
       </c>
       <c r="C297" t="n">
-        <v>122.839318966026</v>
+        <v>123.290801269583</v>
       </c>
       <c r="D297" t="n">
-        <v>111.71784717524</v>
+        <v>112.390857940454</v>
       </c>
       <c r="E297" t="n">
-        <v>136.093990737482</v>
+        <v>134.914939632748</v>
       </c>
       <c r="F297" t="n">
         <v>2019</v>
@@ -10287,13 +10287,13 @@
         <v>37</v>
       </c>
       <c r="C298" t="n">
-        <v>945.727878482773</v>
+        <v>947.089706434296</v>
       </c>
       <c r="D298" t="n">
-        <v>906.594375374137</v>
+        <v>906.457030292591</v>
       </c>
       <c r="E298" t="n">
-        <v>986.991077008372</v>
+        <v>988.436573921973</v>
       </c>
       <c r="F298" t="n">
         <v>2019</v>
@@ -10319,13 +10319,13 @@
         <v>38</v>
       </c>
       <c r="C299" t="n">
-        <v>470.465043320935</v>
+        <v>470.375036779763</v>
       </c>
       <c r="D299" t="n">
-        <v>445.290690172909</v>
+        <v>444.349196703382</v>
       </c>
       <c r="E299" t="n">
-        <v>496.602314921626</v>
+        <v>499.05327342774</v>
       </c>
       <c r="F299" t="n">
         <v>2019</v>
@@ -10351,13 +10351,13 @@
         <v>39</v>
       </c>
       <c r="C300" t="n">
-        <v>609.736850990101</v>
+        <v>610.575543642736</v>
       </c>
       <c r="D300" t="n">
-        <v>580.967929669645</v>
+        <v>580.465394024255</v>
       </c>
       <c r="E300" t="n">
-        <v>641.387588026539</v>
+        <v>640.71905354965</v>
       </c>
       <c r="F300" t="n">
         <v>2019</v>
@@ -10383,13 +10383,13 @@
         <v>40</v>
       </c>
       <c r="C301" t="n">
-        <v>680.291409398619</v>
+        <v>681.03516358566</v>
       </c>
       <c r="D301" t="n">
-        <v>649.195138931832</v>
+        <v>649.382749778666</v>
       </c>
       <c r="E301" t="n">
-        <v>713.328184638088</v>
+        <v>714.28555268616</v>
       </c>
       <c r="F301" t="n">
         <v>2019</v>
@@ -10415,13 +10415,13 @@
         <v>41</v>
       </c>
       <c r="C302" t="n">
-        <v>86.4431032361626</v>
+        <v>86.5146521642865</v>
       </c>
       <c r="D302" t="n">
-        <v>77.0590367742406</v>
+        <v>76.7725859497505</v>
       </c>
       <c r="E302" t="n">
-        <v>96.2734527137001</v>
+        <v>96.5777988317584</v>
       </c>
       <c r="F302" t="n">
         <v>2019</v>
@@ -10447,13 +10447,13 @@
         <v>42</v>
       </c>
       <c r="C303" t="n">
-        <v>46.102710246429</v>
+        <v>45.7535014356818</v>
       </c>
       <c r="D303" t="n">
-        <v>40.0331589378428</v>
+        <v>39.4480790221666</v>
       </c>
       <c r="E303" t="n">
-        <v>52.9448790400892</v>
+        <v>52.2107157418417</v>
       </c>
       <c r="F303" t="n">
         <v>2019</v>
@@ -10479,13 +10479,13 @@
         <v>43</v>
       </c>
       <c r="C304" t="n">
-        <v>421.707258111201</v>
+        <v>422.577796608326</v>
       </c>
       <c r="D304" t="n">
-        <v>397.986525449886</v>
+        <v>396.777309032108</v>
       </c>
       <c r="E304" t="n">
-        <v>447.561582902799</v>
+        <v>449.743405343506</v>
       </c>
       <c r="F304" t="n">
         <v>2019</v>
@@ -10511,13 +10511,13 @@
         <v>44</v>
       </c>
       <c r="C305" t="n">
-        <v>113.138786591142</v>
+        <v>113.070258676161</v>
       </c>
       <c r="D305" t="n">
-        <v>101.959753726519</v>
+        <v>102.502284756655</v>
       </c>
       <c r="E305" t="n">
-        <v>124.980920102984</v>
+        <v>124.824438865834</v>
       </c>
       <c r="F305" t="n">
         <v>2019</v>
@@ -10543,13 +10543,13 @@
         <v>45</v>
       </c>
       <c r="C306" t="n">
-        <v>290.820670419595</v>
+        <v>289.634007916268</v>
       </c>
       <c r="D306" t="n">
-        <v>272.089482329255</v>
+        <v>271.529847444853</v>
       </c>
       <c r="E306" t="n">
-        <v>310.98466004988</v>
+        <v>311.19534259525</v>
       </c>
       <c r="F306" t="n">
         <v>2019</v>
@@ -10575,13 +10575,13 @@
         <v>46</v>
       </c>
       <c r="C307" t="n">
-        <v>222.269775851871</v>
+        <v>221.912829878495</v>
       </c>
       <c r="D307" t="n">
-        <v>205.122591578959</v>
+        <v>206.207919117144</v>
       </c>
       <c r="E307" t="n">
-        <v>238.379907572194</v>
+        <v>239.490040135735</v>
       </c>
       <c r="F307" t="n">
         <v>2019</v>
@@ -10607,13 +10607,13 @@
         <v>47</v>
       </c>
       <c r="C308" t="n">
-        <v>480.416748048427</v>
+        <v>479.980223998675</v>
       </c>
       <c r="D308" t="n">
-        <v>453.768929401013</v>
+        <v>453.726929119823</v>
       </c>
       <c r="E308" t="n">
-        <v>507.850738149701</v>
+        <v>505.651370958965</v>
       </c>
       <c r="F308" t="n">
         <v>2019</v>
@@ -10639,13 +10639,13 @@
         <v>48</v>
       </c>
       <c r="C309" t="n">
-        <v>991.390492264493</v>
+        <v>990.511253557501</v>
       </c>
       <c r="D309" t="n">
-        <v>949.673598528012</v>
+        <v>947.63663708569</v>
       </c>
       <c r="E309" t="n">
-        <v>1032.27740045078</v>
+        <v>1036.41299369679</v>
       </c>
       <c r="F309" t="n">
         <v>2019</v>
@@ -10671,13 +10671,13 @@
         <v>49</v>
       </c>
       <c r="C310" t="n">
-        <v>151.492023811564</v>
+        <v>150.81266184422</v>
       </c>
       <c r="D310" t="n">
-        <v>139.166397032734</v>
+        <v>137.452442556901</v>
       </c>
       <c r="E310" t="n">
-        <v>163.940294319087</v>
+        <v>165.527823833406</v>
       </c>
       <c r="F310" t="n">
         <v>2019</v>
@@ -10703,13 +10703,13 @@
         <v>50</v>
       </c>
       <c r="C311" t="n">
-        <v>407.420033796027</v>
+        <v>407.000678940628</v>
       </c>
       <c r="D311" t="n">
-        <v>383.285909081146</v>
+        <v>383.384403671922</v>
       </c>
       <c r="E311" t="n">
-        <v>432.085993316774</v>
+        <v>431.855504892818</v>
       </c>
       <c r="F311" t="n">
         <v>2019</v>
@@ -10735,13 +10735,13 @@
         <v>51</v>
       </c>
       <c r="C312" t="n">
-        <v>208.626960434496</v>
+        <v>209.514501116627</v>
       </c>
       <c r="D312" t="n">
-        <v>191.912260243645</v>
+        <v>193.187883897655</v>
       </c>
       <c r="E312" t="n">
-        <v>226.683080998793</v>
+        <v>226.693275322233</v>
       </c>
       <c r="F312" t="n">
         <v>2019</v>
@@ -10767,13 +10767,13 @@
         <v>52</v>
       </c>
       <c r="C313" t="n">
-        <v>57.6749547037089</v>
+        <v>57.7429347383933</v>
       </c>
       <c r="D313" t="n">
-        <v>50.7835304946826</v>
+        <v>49.968707923913</v>
       </c>
       <c r="E313" t="n">
-        <v>67.2115385540226</v>
+        <v>65.7332547722199</v>
       </c>
       <c r="F313" t="n">
         <v>2019</v>
@@ -10799,13 +10799,13 @@
         <v>53</v>
       </c>
       <c r="C314" t="n">
-        <v>49.7218358182799</v>
+        <v>49.5976736910194</v>
       </c>
       <c r="D314" t="n">
-        <v>42.0916013802533</v>
+        <v>42.448691967869</v>
       </c>
       <c r="E314" t="n">
-        <v>58.008446163206</v>
+        <v>57.3960959612238</v>
       </c>
       <c r="F314" t="n">
         <v>2019</v>
@@ -10831,13 +10831,13 @@
         <v>54</v>
       </c>
       <c r="C315" t="n">
-        <v>398.217134553846</v>
+        <v>398.387703719832</v>
       </c>
       <c r="D315" t="n">
-        <v>375.854299149223</v>
+        <v>376.32039734298</v>
       </c>
       <c r="E315" t="n">
-        <v>422.78567707893</v>
+        <v>420.014371607512</v>
       </c>
       <c r="F315" t="n">
         <v>2019</v>
@@ -10863,13 +10863,13 @@
         <v>55</v>
       </c>
       <c r="C316" t="n">
-        <v>641.883538089689</v>
+        <v>641.023881615671</v>
       </c>
       <c r="D316" t="n">
-        <v>609.86900551409</v>
+        <v>610.316902161481</v>
       </c>
       <c r="E316" t="n">
-        <v>673.106964295466</v>
+        <v>677.203940734172</v>
       </c>
       <c r="F316" t="n">
         <v>2019</v>
@@ -10895,13 +10895,13 @@
         <v>56</v>
       </c>
       <c r="C317" t="n">
-        <v>713.27639622265</v>
+        <v>713.097015267072</v>
       </c>
       <c r="D317" t="n">
-        <v>679.666805981019</v>
+        <v>679.085849309592</v>
       </c>
       <c r="E317" t="n">
-        <v>747.470485938599</v>
+        <v>748.003594054299</v>
       </c>
       <c r="F317" t="n">
         <v>2019</v>
@@ -10927,13 +10927,13 @@
         <v>57</v>
       </c>
       <c r="C318" t="n">
-        <v>884.984429851955</v>
+        <v>883.322503840305</v>
       </c>
       <c r="D318" t="n">
-        <v>848.23702797771</v>
+        <v>845.472435795884</v>
       </c>
       <c r="E318" t="n">
-        <v>920.993899904394</v>
+        <v>921.798013512069</v>
       </c>
       <c r="F318" t="n">
         <v>2019</v>
@@ -10959,13 +10959,13 @@
         <v>58</v>
       </c>
       <c r="C319" t="n">
-        <v>264.590052496511</v>
+        <v>264.887969310388</v>
       </c>
       <c r="D319" t="n">
-        <v>246.39849115506</v>
+        <v>246.45285356023</v>
       </c>
       <c r="E319" t="n">
-        <v>283.520417015039</v>
+        <v>284.540012522407</v>
       </c>
       <c r="F319" t="n">
         <v>2019</v>
@@ -10991,13 +10991,13 @@
         <v>59</v>
       </c>
       <c r="C320" t="n">
-        <v>902.676415603592</v>
+        <v>902.646496232441</v>
       </c>
       <c r="D320" t="n">
-        <v>862.643639473154</v>
+        <v>864.78680620907</v>
       </c>
       <c r="E320" t="n">
-        <v>942.796136753372</v>
+        <v>943.348575107874</v>
       </c>
       <c r="F320" t="n">
         <v>2019</v>
@@ -11023,13 +11023,13 @@
         <v>60</v>
       </c>
       <c r="C321" t="n">
-        <v>403.932389699101</v>
+        <v>404.531516156139</v>
       </c>
       <c r="D321" t="n">
-        <v>379.093337344564</v>
+        <v>381.507293581015</v>
       </c>
       <c r="E321" t="n">
-        <v>427.477139775944</v>
+        <v>428.267485013345</v>
       </c>
       <c r="F321" t="n">
         <v>2019</v>
@@ -11055,13 +11055,13 @@
         <v>61</v>
       </c>
       <c r="C322" t="n">
-        <v>249.252762791067</v>
+        <v>249.183269983866</v>
       </c>
       <c r="D322" t="n">
-        <v>232.981531067741</v>
+        <v>232.215290607698</v>
       </c>
       <c r="E322" t="n">
-        <v>269.014918644612</v>
+        <v>268.571327211438</v>
       </c>
       <c r="F322" t="n">
         <v>2019</v>
@@ -11087,13 +11087,13 @@
         <v>62</v>
       </c>
       <c r="C323" t="n">
-        <v>1228.1863396111</v>
+        <v>1229.09114148664</v>
       </c>
       <c r="D323" t="n">
-        <v>1183.3399017757</v>
+        <v>1180.08870169143</v>
       </c>
       <c r="E323" t="n">
-        <v>1275.18274440408</v>
+        <v>1279.20583821592</v>
       </c>
       <c r="F323" t="n">
         <v>2019</v>
@@ -11119,13 +11119,13 @@
         <v>63</v>
       </c>
       <c r="C324" t="n">
-        <v>88.7134731086157</v>
+        <v>88.930717179699</v>
       </c>
       <c r="D324" t="n">
-        <v>78.8559447644474</v>
+        <v>80.0010385564478</v>
       </c>
       <c r="E324" t="n">
-        <v>99.0104523930438</v>
+        <v>98.6264563840288</v>
       </c>
       <c r="F324" t="n">
         <v>2019</v>
@@ -11151,13 +11151,13 @@
         <v>64</v>
       </c>
       <c r="C325" t="n">
-        <v>324.119022656612</v>
+        <v>324.009566320329</v>
       </c>
       <c r="D325" t="n">
-        <v>304.358933454731</v>
+        <v>303.745062825687</v>
       </c>
       <c r="E325" t="n">
-        <v>346.479516995337</v>
+        <v>346.656652290044</v>
       </c>
       <c r="F325" t="n">
         <v>2019</v>
@@ -11183,13 +11183,13 @@
         <v>65</v>
       </c>
       <c r="C326" t="n">
-        <v>315.23132543173</v>
+        <v>315.108381935823</v>
       </c>
       <c r="D326" t="n">
-        <v>295.051855328133</v>
+        <v>294.56100208656</v>
       </c>
       <c r="E326" t="n">
-        <v>337.176441383609</v>
+        <v>336.592727522709</v>
       </c>
       <c r="F326" t="n">
         <v>2019</v>
@@ -11215,13 +11215,13 @@
         <v>66</v>
       </c>
       <c r="C327" t="n">
-        <v>122.776901828276</v>
+        <v>122.540462316568</v>
       </c>
       <c r="D327" t="n">
-        <v>111.287652858728</v>
+        <v>110.931864963066</v>
       </c>
       <c r="E327" t="n">
-        <v>134.670047208319</v>
+        <v>135.885369589052</v>
       </c>
       <c r="F327" t="n">
         <v>2019</v>
@@ -11247,13 +11247,13 @@
         <v>67</v>
       </c>
       <c r="C328" t="n">
-        <v>194.41812192351</v>
+        <v>194.754709599683</v>
       </c>
       <c r="D328" t="n">
-        <v>179.235518339052</v>
+        <v>180.256610407262</v>
       </c>
       <c r="E328" t="n">
-        <v>210.829190151186</v>
+        <v>210.49843949185</v>
       </c>
       <c r="F328" t="n">
         <v>2019</v>
@@ -11279,13 +11279,13 @@
         <v>68</v>
       </c>
       <c r="C329" t="n">
-        <v>230.563081198633</v>
+        <v>230.365987163296</v>
       </c>
       <c r="D329" t="n">
-        <v>214.354213889782</v>
+        <v>212.621389823697</v>
       </c>
       <c r="E329" t="n">
-        <v>247.674769888267</v>
+        <v>249.167895764981</v>
       </c>
       <c r="F329" t="n">
         <v>2019</v>
@@ -11311,13 +11311,13 @@
         <v>69</v>
       </c>
       <c r="C330" t="n">
-        <v>940.700875708801</v>
+        <v>942.248009784013</v>
       </c>
       <c r="D330" t="n">
-        <v>903.008191210507</v>
+        <v>901.399951910382</v>
       </c>
       <c r="E330" t="n">
-        <v>980.664292936205</v>
+        <v>985.352303177105</v>
       </c>
       <c r="F330" t="n">
         <v>2019</v>
@@ -11343,13 +11343,13 @@
         <v>70</v>
       </c>
       <c r="C331" t="n">
-        <v>76.4082337606015</v>
+        <v>76.2365147646462</v>
       </c>
       <c r="D331" t="n">
-        <v>67.690532286813</v>
+        <v>67.6991945776883</v>
       </c>
       <c r="E331" t="n">
-        <v>85.6178845619899</v>
+        <v>86.2947641970844</v>
       </c>
       <c r="F331" t="n">
         <v>2019</v>
@@ -11375,13 +11375,13 @@
         <v>71</v>
       </c>
       <c r="C332" t="n">
-        <v>151.956554041082</v>
+        <v>150.918588833872</v>
       </c>
       <c r="D332" t="n">
-        <v>138.612376454873</v>
+        <v>138.366967726439</v>
       </c>
       <c r="E332" t="n">
-        <v>165.544369913507</v>
+        <v>166.136662547166</v>
       </c>
       <c r="F332" t="n">
         <v>2019</v>
@@ -11407,13 +11407,13 @@
         <v>72</v>
       </c>
       <c r="C333" t="n">
-        <v>282.225068815333</v>
+        <v>282.171769370018</v>
       </c>
       <c r="D333" t="n">
-        <v>263.907564429506</v>
+        <v>263.089108553613</v>
       </c>
       <c r="E333" t="n">
-        <v>301.892653411306</v>
+        <v>302.771884027236</v>
       </c>
       <c r="F333" t="n">
         <v>2019</v>
@@ -11439,13 +11439,13 @@
         <v>73</v>
       </c>
       <c r="C334" t="n">
-        <v>738.597251402981</v>
+        <v>738.02689927709</v>
       </c>
       <c r="D334" t="n">
-        <v>706.772114235374</v>
+        <v>703.572825559014</v>
       </c>
       <c r="E334" t="n">
-        <v>770.94258224494</v>
+        <v>772.974053706668</v>
       </c>
       <c r="F334" t="n">
         <v>2019</v>
@@ -11471,13 +11471,13 @@
         <v>74</v>
       </c>
       <c r="C335" t="n">
-        <v>105.185842955512</v>
+        <v>104.933690105148</v>
       </c>
       <c r="D335" t="n">
-        <v>93.7267480346001</v>
+        <v>94.753434181325</v>
       </c>
       <c r="E335" t="n">
-        <v>116.344874712616</v>
+        <v>116.286827914716</v>
       </c>
       <c r="F335" t="n">
         <v>2019</v>
@@ -11503,13 +11503,13 @@
         <v>75</v>
       </c>
       <c r="C336" t="n">
-        <v>99.8270696775322</v>
+        <v>99.5830175613279</v>
       </c>
       <c r="D336" t="n">
-        <v>88.9833237220854</v>
+        <v>89.234255585835</v>
       </c>
       <c r="E336" t="n">
-        <v>110.874147573445</v>
+        <v>110.528154561395</v>
       </c>
       <c r="F336" t="n">
         <v>2019</v>
@@ -11535,13 +11535,13 @@
         <v>76</v>
       </c>
       <c r="C337" t="n">
-        <v>692.874614855479</v>
+        <v>695.735685205313</v>
       </c>
       <c r="D337" t="n">
-        <v>661.914552118304</v>
+        <v>660.270047239938</v>
       </c>
       <c r="E337" t="n">
-        <v>727.498646687655</v>
+        <v>727.373561808834</v>
       </c>
       <c r="F337" t="n">
         <v>2019</v>
@@ -11567,13 +11567,13 @@
         <v>77</v>
       </c>
       <c r="C338" t="n">
-        <v>238.210273410854</v>
+        <v>237.57593815104</v>
       </c>
       <c r="D338" t="n">
-        <v>220.603704461133</v>
+        <v>220.666095998809</v>
       </c>
       <c r="E338" t="n">
-        <v>255.066839720558</v>
+        <v>256.344207919801</v>
       </c>
       <c r="F338" t="n">
         <v>2019</v>
@@ -11599,13 +11599,13 @@
         <v>78</v>
       </c>
       <c r="C339" t="n">
-        <v>455.343719813536</v>
+        <v>455.539954609357</v>
       </c>
       <c r="D339" t="n">
-        <v>429.89722558074</v>
+        <v>430.115337581586</v>
       </c>
       <c r="E339" t="n">
-        <v>481.25822182827</v>
+        <v>483.124953541739</v>
       </c>
       <c r="F339" t="n">
         <v>2019</v>
@@ -11631,13 +11631,13 @@
         <v>79</v>
       </c>
       <c r="C340" t="n">
-        <v>338.315547936349</v>
+        <v>338.532909971667</v>
       </c>
       <c r="D340" t="n">
-        <v>316.250616824483</v>
+        <v>316.401351013227</v>
       </c>
       <c r="E340" t="n">
-        <v>360.618214246291</v>
+        <v>359.401177916089</v>
       </c>
       <c r="F340" t="n">
         <v>2019</v>
@@ -11663,13 +11663,13 @@
         <v>80</v>
       </c>
       <c r="C341" t="n">
-        <v>385.079289396957</v>
+        <v>384.605207776722</v>
       </c>
       <c r="D341" t="n">
-        <v>361.736980059035</v>
+        <v>361.842538324628</v>
       </c>
       <c r="E341" t="n">
-        <v>409.11597599946</v>
+        <v>408.907799176577</v>
       </c>
       <c r="F341" t="n">
         <v>2019</v>
@@ -11695,13 +11695,13 @@
         <v>81</v>
       </c>
       <c r="C342" t="n">
-        <v>411.754814254523</v>
+        <v>410.922299021064</v>
       </c>
       <c r="D342" t="n">
-        <v>389.445241313189</v>
+        <v>386.706227351626</v>
       </c>
       <c r="E342" t="n">
-        <v>435.022896645118</v>
+        <v>435.648431724867</v>
       </c>
       <c r="F342" t="n">
         <v>2019</v>
@@ -11727,13 +11727,13 @@
         <v>82</v>
       </c>
       <c r="C343" t="n">
-        <v>1567.54985283543</v>
+        <v>1566.05738652289</v>
       </c>
       <c r="D343" t="n">
-        <v>1512.01511750487</v>
+        <v>1507.09259017889</v>
       </c>
       <c r="E343" t="n">
-        <v>1620.84109821991</v>
+        <v>1619.96077910444</v>
       </c>
       <c r="F343" t="n">
         <v>2019</v>
@@ -11759,13 +11759,13 @@
         <v>83</v>
       </c>
       <c r="C344" t="n">
-        <v>211.91382869867</v>
+        <v>211.772160085466</v>
       </c>
       <c r="D344" t="n">
-        <v>196.765320886235</v>
+        <v>196.231334942955</v>
       </c>
       <c r="E344" t="n">
-        <v>228.812564865759</v>
+        <v>229.13774209589</v>
       </c>
       <c r="F344" t="n">
         <v>2019</v>
@@ -11791,13 +11791,13 @@
         <v>84</v>
       </c>
       <c r="C345" t="n">
-        <v>329.363542260345</v>
+        <v>328.935081618202</v>
       </c>
       <c r="D345" t="n">
-        <v>308.647597975147</v>
+        <v>309.611140438586</v>
       </c>
       <c r="E345" t="n">
-        <v>350.434793304819</v>
+        <v>351.643868009972</v>
       </c>
       <c r="F345" t="n">
         <v>2019</v>
@@ -11823,13 +11823,13 @@
         <v>85</v>
       </c>
       <c r="C346" t="n">
-        <v>316.429438161966</v>
+        <v>317.453480023512</v>
       </c>
       <c r="D346" t="n">
-        <v>297.086781417776</v>
+        <v>297.379917453771</v>
       </c>
       <c r="E346" t="n">
-        <v>338.826328271311</v>
+        <v>338.049265543173</v>
       </c>
       <c r="F346" t="n">
         <v>2019</v>
@@ -11855,13 +11855,13 @@
         <v>86</v>
       </c>
       <c r="C347" t="n">
-        <v>1048.65389941358</v>
+        <v>1048.77401317829</v>
       </c>
       <c r="D347" t="n">
-        <v>1008.96768994436</v>
+        <v>1003.95148803988</v>
       </c>
       <c r="E347" t="n">
-        <v>1092.45293051564</v>
+        <v>1091.29714689258</v>
       </c>
       <c r="F347" t="n">
         <v>2019</v>
@@ -11887,13 +11887,13 @@
         <v>87</v>
       </c>
       <c r="C348" t="n">
-        <v>92.4198463193013</v>
+        <v>92.1217968837715</v>
       </c>
       <c r="D348" t="n">
-        <v>82.8195366849309</v>
+        <v>82.4899015248751</v>
       </c>
       <c r="E348" t="n">
-        <v>102.590818898611</v>
+        <v>102.231154420126</v>
       </c>
       <c r="F348" t="n">
         <v>2019</v>
@@ -11919,13 +11919,13 @@
         <v>88</v>
       </c>
       <c r="C349" t="n">
-        <v>279.945764378573</v>
+        <v>279.409954388922</v>
       </c>
       <c r="D349" t="n">
-        <v>261.959209022392</v>
+        <v>261.367191336074</v>
       </c>
       <c r="E349" t="n">
-        <v>298.730931386813</v>
+        <v>299.068801643065</v>
       </c>
       <c r="F349" t="n">
         <v>2019</v>
@@ -11951,13 +11951,13 @@
         <v>89</v>
       </c>
       <c r="C350" t="n">
-        <v>384.95283365843</v>
+        <v>384.470139319301</v>
       </c>
       <c r="D350" t="n">
-        <v>361.782961975961</v>
+        <v>359.888155436701</v>
       </c>
       <c r="E350" t="n">
-        <v>408.402792374856</v>
+        <v>410.28197115665</v>
       </c>
       <c r="F350" t="n">
         <v>2019</v>
@@ -11983,13 +11983,13 @@
         <v>90</v>
       </c>
       <c r="C351" t="n">
-        <v>389.307979972755</v>
+        <v>388.961469626895</v>
       </c>
       <c r="D351" t="n">
-        <v>366.07867368231</v>
+        <v>368.185330407362</v>
       </c>
       <c r="E351" t="n">
-        <v>413.878500101516</v>
+        <v>412.665909024025</v>
       </c>
       <c r="F351" t="n">
         <v>2019</v>
@@ -12015,13 +12015,13 @@
         <v>91</v>
       </c>
       <c r="C352" t="n">
-        <v>1255.68007978775</v>
+        <v>1254.57145646685</v>
       </c>
       <c r="D352" t="n">
-        <v>1211.36471673903</v>
+        <v>1207.05769567616</v>
       </c>
       <c r="E352" t="n">
-        <v>1307.9177352468</v>
+        <v>1301.99221553828</v>
       </c>
       <c r="F352" t="n">
         <v>2019</v>
@@ -12047,13 +12047,13 @@
         <v>92</v>
       </c>
       <c r="C353" t="n">
-        <v>480.647131612482</v>
+        <v>480.856646638238</v>
       </c>
       <c r="D353" t="n">
-        <v>455.830262621722</v>
+        <v>455.795839406959</v>
       </c>
       <c r="E353" t="n">
-        <v>506.973231613179</v>
+        <v>507.85563170008</v>
       </c>
       <c r="F353" t="n">
         <v>2019</v>
@@ -12079,13 +12079,13 @@
         <v>93</v>
       </c>
       <c r="C354" t="n">
-        <v>137.23477386149</v>
+        <v>137.074577486558</v>
       </c>
       <c r="D354" t="n">
-        <v>125.19592210701</v>
+        <v>125.0780530979</v>
       </c>
       <c r="E354" t="n">
-        <v>150.90867221037</v>
+        <v>150.278313292008</v>
       </c>
       <c r="F354" t="n">
         <v>2019</v>
@@ -12111,13 +12111,13 @@
         <v>94</v>
       </c>
       <c r="C355" t="n">
-        <v>20.0714017666919</v>
+        <v>19.9311804737613</v>
       </c>
       <c r="D355" t="n">
-        <v>16.1231334016889</v>
+        <v>15.9369895808353</v>
       </c>
       <c r="E355" t="n">
-        <v>24.7014232696744</v>
+        <v>24.4358893224762</v>
       </c>
       <c r="F355" t="n">
         <v>2019</v>
@@ -12143,13 +12143,13 @@
         <v>95</v>
       </c>
       <c r="C356" t="n">
-        <v>211.844806452607</v>
+        <v>212.357274101447</v>
       </c>
       <c r="D356" t="n">
-        <v>195.475365878548</v>
+        <v>195.789931508138</v>
       </c>
       <c r="E356" t="n">
-        <v>227.483500536803</v>
+        <v>228.449283577127</v>
       </c>
       <c r="F356" t="n">
         <v>2019</v>
@@ -12175,13 +12175,13 @@
         <v>96</v>
       </c>
       <c r="C357" t="n">
-        <v>445.377939277518</v>
+        <v>445.337412208474</v>
       </c>
       <c r="D357" t="n">
-        <v>420.211063335947</v>
+        <v>420.877348904124</v>
       </c>
       <c r="E357" t="n">
-        <v>470.922532801595</v>
+        <v>472.836097904986</v>
       </c>
       <c r="F357" t="n">
         <v>2019</v>
@@ -12207,13 +12207,13 @@
         <v>97</v>
       </c>
       <c r="C358" t="n">
-        <v>478.129672865096</v>
+        <v>478.438436120529</v>
       </c>
       <c r="D358" t="n">
-        <v>452.755837266375</v>
+        <v>451.840393249647</v>
       </c>
       <c r="E358" t="n">
-        <v>504.666709051919</v>
+        <v>503.439501336556</v>
       </c>
       <c r="F358" t="n">
         <v>2019</v>
@@ -12239,13 +12239,13 @@
         <v>98</v>
       </c>
       <c r="C359" t="n">
-        <v>329.283100273231</v>
+        <v>328.560052591176</v>
       </c>
       <c r="D359" t="n">
-        <v>307.416489213614</v>
+        <v>308.50331049243</v>
       </c>
       <c r="E359" t="n">
-        <v>351.2758186258</v>
+        <v>350.243552787503</v>
       </c>
       <c r="F359" t="n">
         <v>2019</v>
@@ -12271,13 +12271,13 @@
         <v>99</v>
       </c>
       <c r="C360" t="n">
-        <v>342.173231592584</v>
+        <v>342.148387621911</v>
       </c>
       <c r="D360" t="n">
-        <v>322.449615728817</v>
+        <v>320.485457209558</v>
       </c>
       <c r="E360" t="n">
-        <v>364.157563443018</v>
+        <v>363.305000473101</v>
       </c>
       <c r="F360" t="n">
         <v>2019</v>
@@ -12303,13 +12303,13 @@
         <v>100</v>
       </c>
       <c r="C361" t="n">
-        <v>121.334034433953</v>
+        <v>121.755438801921</v>
       </c>
       <c r="D361" t="n">
-        <v>111.261836914842</v>
+        <v>111.039686584875</v>
       </c>
       <c r="E361" t="n">
-        <v>133.796425011553</v>
+        <v>133.828290823735</v>
       </c>
       <c r="F361" t="n">
         <v>2019</v>
@@ -12335,13 +12335,13 @@
         <v>101</v>
       </c>
       <c r="C362" t="n">
-        <v>1398.25695087421</v>
+        <v>1398.34288359431</v>
       </c>
       <c r="D362" t="n">
-        <v>1347.61978940205</v>
+        <v>1345.95066472368</v>
       </c>
       <c r="E362" t="n">
-        <v>1448.30398422177</v>
+        <v>1450.82520770322</v>
       </c>
       <c r="F362" t="n">
         <v>2019</v>
@@ -12367,13 +12367,13 @@
         <v>102</v>
       </c>
       <c r="C363" t="n">
-        <v>797.515602405272</v>
+        <v>797.906731028786</v>
       </c>
       <c r="D363" t="n">
-        <v>760.819718860008</v>
+        <v>760.630559131504</v>
       </c>
       <c r="E363" t="n">
-        <v>834.403204621829</v>
+        <v>831.512144285858</v>
       </c>
       <c r="F363" t="n">
         <v>2019</v>
@@ -12399,13 +12399,13 @@
         <v>103</v>
       </c>
       <c r="C364" t="n">
-        <v>268.743539388213</v>
+        <v>267.724880402192</v>
       </c>
       <c r="D364" t="n">
-        <v>249.61597291236</v>
+        <v>249.907674156641</v>
       </c>
       <c r="E364" t="n">
-        <v>287.944019945033</v>
+        <v>287.328866103223</v>
       </c>
       <c r="F364" t="n">
         <v>2019</v>
@@ -12431,13 +12431,13 @@
         <v>104</v>
       </c>
       <c r="C365" t="n">
-        <v>403.800062233139</v>
+        <v>404.217365921814</v>
       </c>
       <c r="D365" t="n">
-        <v>381.01149048585</v>
+        <v>380.40613396083</v>
       </c>
       <c r="E365" t="n">
-        <v>427.273373330118</v>
+        <v>430.857641497992</v>
       </c>
       <c r="F365" t="n">
         <v>2019</v>
@@ -12463,13 +12463,13 @@
         <v>105</v>
       </c>
       <c r="C366" t="n">
-        <v>3630.51500768118</v>
+        <v>3628.82587560868</v>
       </c>
       <c r="D366" t="n">
-        <v>3524.81338901905</v>
+        <v>3525.3184777381</v>
       </c>
       <c r="E366" t="n">
-        <v>3731.14822112157</v>
+        <v>3732.11455670288</v>
       </c>
       <c r="F366" t="n">
         <v>2019</v>
@@ -12495,13 +12495,13 @@
         <v>106</v>
       </c>
       <c r="C367" t="n">
-        <v>322.859571997877</v>
+        <v>322.730658086947</v>
       </c>
       <c r="D367" t="n">
-        <v>301.02687548231</v>
+        <v>301.701147021829</v>
       </c>
       <c r="E367" t="n">
-        <v>345.071108340377</v>
+        <v>344.038320281238</v>
       </c>
       <c r="F367" t="n">
         <v>2019</v>
@@ -12527,13 +12527,13 @@
         <v>107</v>
       </c>
       <c r="C368" t="n">
-        <v>359.215745310748</v>
+        <v>358.134729064228</v>
       </c>
       <c r="D368" t="n">
-        <v>337.92825334721</v>
+        <v>336.203326789083</v>
       </c>
       <c r="E368" t="n">
-        <v>381.309741335195</v>
+        <v>381.164467900867</v>
       </c>
       <c r="F368" t="n">
         <v>2019</v>
@@ -12559,13 +12559,13 @@
         <v>108</v>
       </c>
       <c r="C369" t="n">
-        <v>153.960787016178</v>
+        <v>153.873778558371</v>
       </c>
       <c r="D369" t="n">
-        <v>141.334658175592</v>
+        <v>141.172313810513</v>
       </c>
       <c r="E369" t="n">
-        <v>167.89696579785</v>
+        <v>167.439939752035</v>
       </c>
       <c r="F369" t="n">
         <v>2019</v>
@@ -12591,13 +12591,13 @@
         <v>109</v>
       </c>
       <c r="C370" t="n">
-        <v>508.0738386952</v>
+        <v>508.36333621379</v>
       </c>
       <c r="D370" t="n">
-        <v>479.488054484494</v>
+        <v>480.944242464575</v>
       </c>
       <c r="E370" t="n">
-        <v>536.581725145726</v>
+        <v>536.930562470851</v>
       </c>
       <c r="F370" t="n">
         <v>2019</v>
@@ -12623,13 +12623,13 @@
         <v>110</v>
       </c>
       <c r="C371" t="n">
-        <v>651.942225768156</v>
+        <v>651.991616019074</v>
       </c>
       <c r="D371" t="n">
-        <v>622.015515816723</v>
+        <v>621.165628437056</v>
       </c>
       <c r="E371" t="n">
-        <v>686.411181437457</v>
+        <v>684.075992998449</v>
       </c>
       <c r="F371" t="n">
         <v>2019</v>
@@ -12655,13 +12655,13 @@
         <v>111</v>
       </c>
       <c r="C372" t="n">
-        <v>130.759591577116</v>
+        <v>130.545482889287</v>
       </c>
       <c r="D372" t="n">
-        <v>118.685159279215</v>
+        <v>118.210839780196</v>
       </c>
       <c r="E372" t="n">
-        <v>143.521065776875</v>
+        <v>143.375466261721</v>
       </c>
       <c r="F372" t="n">
         <v>2019</v>
@@ -12687,13 +12687,13 @@
         <v>112</v>
       </c>
       <c r="C373" t="n">
-        <v>331.863969887458</v>
+        <v>330.989635076459</v>
       </c>
       <c r="D373" t="n">
-        <v>309.236558863122</v>
+        <v>310.276402429163</v>
       </c>
       <c r="E373" t="n">
-        <v>352.680241777153</v>
+        <v>354.283452821834</v>
       </c>
       <c r="F373" t="n">
         <v>2019</v>
@@ -12719,13 +12719,13 @@
         <v>113</v>
       </c>
       <c r="C374" t="n">
-        <v>391.973244769857</v>
+        <v>393.680700639482</v>
       </c>
       <c r="D374" t="n">
-        <v>369.846686059701</v>
+        <v>370.272527982625</v>
       </c>
       <c r="E374" t="n">
-        <v>416.591684779766</v>
+        <v>417.3693049328</v>
       </c>
       <c r="F374" t="n">
         <v>2019</v>
@@ -12751,13 +12751,13 @@
         <v>114</v>
       </c>
       <c r="C375" t="n">
-        <v>763.617929999283</v>
+        <v>762.864386857073</v>
       </c>
       <c r="D375" t="n">
-        <v>729.708389146527</v>
+        <v>728.211535001181</v>
       </c>
       <c r="E375" t="n">
-        <v>798.318660450299</v>
+        <v>797.374774494709</v>
       </c>
       <c r="F375" t="n">
         <v>2019</v>
@@ -12783,13 +12783,13 @@
         <v>115</v>
       </c>
       <c r="C376" t="n">
-        <v>378.117412565906</v>
+        <v>378.698279593199</v>
       </c>
       <c r="D376" t="n">
-        <v>356.112079255926</v>
+        <v>356.116899277342</v>
       </c>
       <c r="E376" t="n">
-        <v>402.762821851919</v>
+        <v>402.169794777866</v>
       </c>
       <c r="F376" t="n">
         <v>2019</v>
@@ -12815,13 +12815,13 @@
         <v>116</v>
       </c>
       <c r="C377" t="n">
-        <v>106.807519316571</v>
+        <v>106.212088466105</v>
       </c>
       <c r="D377" t="n">
-        <v>95.2867718013064</v>
+        <v>95.888047770775</v>
       </c>
       <c r="E377" t="n">
-        <v>118.281920493105</v>
+        <v>117.131864200457</v>
       </c>
       <c r="F377" t="n">
         <v>2019</v>
@@ -12847,13 +12847,13 @@
         <v>117</v>
       </c>
       <c r="C378" t="n">
-        <v>162.657491575454</v>
+        <v>162.425339546961</v>
       </c>
       <c r="D378" t="n">
-        <v>148.512365371447</v>
+        <v>148.626085595453</v>
       </c>
       <c r="E378" t="n">
-        <v>177.845748084105</v>
+        <v>177.475201034401</v>
       </c>
       <c r="F378" t="n">
         <v>2019</v>
@@ -12879,13 +12879,13 @@
         <v>118</v>
       </c>
       <c r="C379" t="n">
-        <v>512.421700224886</v>
+        <v>512.191536554409</v>
       </c>
       <c r="D379" t="n">
-        <v>482.767741048076</v>
+        <v>487.065535880096</v>
       </c>
       <c r="E379" t="n">
-        <v>540.721935583778</v>
+        <v>541.687021236194</v>
       </c>
       <c r="F379" t="n">
         <v>2019</v>
@@ -12911,13 +12911,13 @@
         <v>119</v>
       </c>
       <c r="C380" t="n">
-        <v>98.1608668899691</v>
+        <v>97.9420478912387</v>
       </c>
       <c r="D380" t="n">
-        <v>89.2026537613262</v>
+        <v>88.6934181269645</v>
       </c>
       <c r="E380" t="n">
-        <v>108.658725431194</v>
+        <v>108.775828166275</v>
       </c>
       <c r="F380" t="n">
         <v>2019</v>
@@ -12943,13 +12943,13 @@
         <v>120</v>
       </c>
       <c r="C381" t="n">
-        <v>325.590015451613</v>
+        <v>325.021396844502</v>
       </c>
       <c r="D381" t="n">
-        <v>305.793462066226</v>
+        <v>305.188659743419</v>
       </c>
       <c r="E381" t="n">
-        <v>345.838601334057</v>
+        <v>346.900554529452</v>
       </c>
       <c r="F381" t="n">
         <v>2019</v>
@@ -12975,13 +12975,13 @@
         <v>121</v>
       </c>
       <c r="C382" t="n">
-        <v>541.627772062806</v>
+        <v>541.658452578915</v>
       </c>
       <c r="D382" t="n">
-        <v>513.06053460921</v>
+        <v>513.600357347237</v>
       </c>
       <c r="E382" t="n">
-        <v>569.976799100901</v>
+        <v>569.398930242617</v>
       </c>
       <c r="F382" t="n">
         <v>2019</v>
@@ -13007,13 +13007,13 @@
         <v>122</v>
       </c>
       <c r="C383" t="n">
-        <v>708.242010738587</v>
+        <v>709.075426391076</v>
       </c>
       <c r="D383" t="n">
-        <v>674.370359889713</v>
+        <v>676.776434035536</v>
       </c>
       <c r="E383" t="n">
-        <v>741.693517726352</v>
+        <v>738.174228592891</v>
       </c>
       <c r="F383" t="n">
         <v>2019</v>
@@ -13039,13 +13039,13 @@
         <v>123</v>
       </c>
       <c r="C384" t="n">
-        <v>1512.81767956511</v>
+        <v>1513.86827495672</v>
       </c>
       <c r="D384" t="n">
-        <v>1463.91358521794</v>
+        <v>1462.25436483827</v>
       </c>
       <c r="E384" t="n">
-        <v>1564.75896705447</v>
+        <v>1569.87611198396</v>
       </c>
       <c r="F384" t="n">
         <v>2019</v>
@@ -13071,13 +13071,13 @@
         <v>124</v>
       </c>
       <c r="C385" t="n">
-        <v>1630.40615194919</v>
+        <v>1631.60345368455</v>
       </c>
       <c r="D385" t="n">
-        <v>1573.14303653359</v>
+        <v>1574.27165573924</v>
       </c>
       <c r="E385" t="n">
-        <v>1692.5268205696</v>
+        <v>1689.71582665843</v>
       </c>
       <c r="F385" t="n">
         <v>2019</v>
@@ -13103,13 +13103,13 @@
         <v>125</v>
       </c>
       <c r="C386" t="n">
-        <v>4085.03222758008</v>
+        <v>4087.03829076338</v>
       </c>
       <c r="D386" t="n">
-        <v>3970.43103043148</v>
+        <v>3968.40233688509</v>
       </c>
       <c r="E386" t="n">
-        <v>4199.60012828542</v>
+        <v>4207.00520312305</v>
       </c>
       <c r="F386" t="n">
         <v>2019</v>
@@ -13135,13 +13135,13 @@
         <v>126</v>
       </c>
       <c r="C387" t="n">
-        <v>752.672206466942</v>
+        <v>752.976370366215</v>
       </c>
       <c r="D387" t="n">
-        <v>717.121553432634</v>
+        <v>718.28699432603</v>
       </c>
       <c r="E387" t="n">
-        <v>786.382303754391</v>
+        <v>789.260437556526</v>
       </c>
       <c r="F387" t="n">
         <v>2019</v>
@@ -13167,13 +13167,13 @@
         <v>127</v>
       </c>
       <c r="C388" t="n">
-        <v>511.660888550385</v>
+        <v>510.207005325528</v>
       </c>
       <c r="D388" t="n">
-        <v>485.619875777544</v>
+        <v>483.010571653435</v>
       </c>
       <c r="E388" t="n">
-        <v>539.449320421535</v>
+        <v>538.965832854226</v>
       </c>
       <c r="F388" t="n">
         <v>2019</v>
@@ -13199,13 +13199,13 @@
         <v>128</v>
       </c>
       <c r="C389" t="n">
-        <v>606.883583480074</v>
+        <v>607.752431676485</v>
       </c>
       <c r="D389" t="n">
-        <v>576.821774172248</v>
+        <v>577.442753911043</v>
       </c>
       <c r="E389" t="n">
-        <v>639.121976823196</v>
+        <v>638.35432718265</v>
       </c>
       <c r="F389" t="n">
         <v>2019</v>
@@ -13231,13 +13231,13 @@
         <v>129</v>
       </c>
       <c r="C390" t="n">
-        <v>298.604072542436</v>
+        <v>298.778430239383</v>
       </c>
       <c r="D390" t="n">
-        <v>279.693228677057</v>
+        <v>278.546390121387</v>
       </c>
       <c r="E390" t="n">
-        <v>319.604052608627</v>
+        <v>317.866714000509</v>
       </c>
       <c r="F390" t="n">
         <v>2019</v>
@@ -13263,13 +13263,13 @@
         <v>130</v>
       </c>
       <c r="C391" t="n">
-        <v>280.002980951081</v>
+        <v>279.377720591906</v>
       </c>
       <c r="D391" t="n">
-        <v>261.640907938191</v>
+        <v>260.300485070684</v>
       </c>
       <c r="E391" t="n">
-        <v>298.236189742929</v>
+        <v>299.519258551543</v>
       </c>
       <c r="F391" t="n">
         <v>2019</v>
@@ -13295,13 +13295,13 @@
         <v>1</v>
       </c>
       <c r="C392" t="n">
-        <v>91.3281408402096</v>
+        <v>90.4623158615683</v>
       </c>
       <c r="D392" t="n">
-        <v>81.0909505344979</v>
+        <v>80.4570305014362</v>
       </c>
       <c r="E392" t="n">
-        <v>101.59545828218</v>
+        <v>101.39748576507</v>
       </c>
       <c r="F392" t="n">
         <v>2020</v>
@@ -13327,13 +13327,13 @@
         <v>2</v>
       </c>
       <c r="C393" t="n">
-        <v>181.019308145872</v>
+        <v>181.051890588163</v>
       </c>
       <c r="D393" t="n">
-        <v>167.058557211778</v>
+        <v>165.131108770597</v>
       </c>
       <c r="E393" t="n">
-        <v>195.243825200054</v>
+        <v>196.585846338513</v>
       </c>
       <c r="F393" t="n">
         <v>2020</v>
@@ -13359,13 +13359,13 @@
         <v>3</v>
       </c>
       <c r="C394" t="n">
-        <v>207.368334315539</v>
+        <v>208.193400978874</v>
       </c>
       <c r="D394" t="n">
-        <v>191.779398667</v>
+        <v>192.436608826107</v>
       </c>
       <c r="E394" t="n">
-        <v>223.939734333076</v>
+        <v>225.279516899542</v>
       </c>
       <c r="F394" t="n">
         <v>2020</v>
@@ -13391,13 +13391,13 @@
         <v>4</v>
       </c>
       <c r="C395" t="n">
-        <v>3345.93296204159</v>
+        <v>3345.68898552877</v>
       </c>
       <c r="D395" t="n">
-        <v>3260.74986343264</v>
+        <v>3246.99902188757</v>
       </c>
       <c r="E395" t="n">
-        <v>3436.33671592705</v>
+        <v>3448.6055237103</v>
       </c>
       <c r="F395" t="n">
         <v>2020</v>
@@ -13423,13 +13423,13 @@
         <v>5</v>
       </c>
       <c r="C396" t="n">
-        <v>507.690528749028</v>
+        <v>507.910856887576</v>
       </c>
       <c r="D396" t="n">
-        <v>480.878567487887</v>
+        <v>480.402452925065</v>
       </c>
       <c r="E396" t="n">
-        <v>535.754616431041</v>
+        <v>536.850981340437</v>
       </c>
       <c r="F396" t="n">
         <v>2020</v>
@@ -13455,13 +13455,13 @@
         <v>6</v>
       </c>
       <c r="C397" t="n">
-        <v>2086.18716468938</v>
+        <v>2082.35333164282</v>
       </c>
       <c r="D397" t="n">
-        <v>2026.46688846216</v>
+        <v>2014.23400501608</v>
       </c>
       <c r="E397" t="n">
-        <v>2151.4071904469</v>
+        <v>2153.02555252621</v>
       </c>
       <c r="F397" t="n">
         <v>2020</v>
@@ -13487,13 +13487,13 @@
         <v>7</v>
       </c>
       <c r="C398" t="n">
-        <v>1001.90405615562</v>
+        <v>1000.80906095751</v>
       </c>
       <c r="D398" t="n">
-        <v>963.016163407318</v>
+        <v>963.350504756489</v>
       </c>
       <c r="E398" t="n">
-        <v>1039.76880853945</v>
+        <v>1041.47465608643</v>
       </c>
       <c r="F398" t="n">
         <v>2020</v>
@@ -13519,13 +13519,13 @@
         <v>8</v>
       </c>
       <c r="C399" t="n">
-        <v>158.739872975121</v>
+        <v>160.142550412729</v>
       </c>
       <c r="D399" t="n">
-        <v>146.636405988993</v>
+        <v>147.43178589626</v>
       </c>
       <c r="E399" t="n">
-        <v>173.885266492802</v>
+        <v>174.051626645023</v>
       </c>
       <c r="F399" t="n">
         <v>2020</v>
@@ -13551,13 +13551,13 @@
         <v>9</v>
       </c>
       <c r="C400" t="n">
-        <v>275.38395654552</v>
+        <v>274.282567972362</v>
       </c>
       <c r="D400" t="n">
-        <v>257.283487202326</v>
+        <v>257.080367941497</v>
       </c>
       <c r="E400" t="n">
-        <v>294.901328730147</v>
+        <v>295.299854116806</v>
       </c>
       <c r="F400" t="n">
         <v>2020</v>
@@ -13583,13 +13583,13 @@
         <v>10</v>
       </c>
       <c r="C401" t="n">
-        <v>208.92853247033</v>
+        <v>208.200042407986</v>
       </c>
       <c r="D401" t="n">
-        <v>192.696644810443</v>
+        <v>192.087638939224</v>
       </c>
       <c r="E401" t="n">
-        <v>225.455723927139</v>
+        <v>225.455233449935</v>
       </c>
       <c r="F401" t="n">
         <v>2020</v>
@@ -13615,13 +13615,13 @@
         <v>11</v>
       </c>
       <c r="C402" t="n">
-        <v>407.125385180501</v>
+        <v>406.779045157682</v>
       </c>
       <c r="D402" t="n">
-        <v>384.746368019469</v>
+        <v>383.10042138529</v>
       </c>
       <c r="E402" t="n">
-        <v>430.988171906647</v>
+        <v>430.748039595276</v>
       </c>
       <c r="F402" t="n">
         <v>2020</v>
@@ -13647,13 +13647,13 @@
         <v>12</v>
       </c>
       <c r="C403" t="n">
-        <v>477.612047733906</v>
+        <v>479.046188398511</v>
       </c>
       <c r="D403" t="n">
-        <v>452.823527862482</v>
+        <v>452.403556608126</v>
       </c>
       <c r="E403" t="n">
-        <v>502.274193711858</v>
+        <v>504.904911853201</v>
       </c>
       <c r="F403" t="n">
         <v>2020</v>
@@ -13679,13 +13679,13 @@
         <v>13</v>
       </c>
       <c r="C404" t="n">
-        <v>190.172799741237</v>
+        <v>190.525869284097</v>
       </c>
       <c r="D404" t="n">
-        <v>175.073985121925</v>
+        <v>175.514707025682</v>
       </c>
       <c r="E404" t="n">
-        <v>205.718545253099</v>
+        <v>206.040211642114</v>
       </c>
       <c r="F404" t="n">
         <v>2020</v>
@@ -13711,13 +13711,13 @@
         <v>14</v>
       </c>
       <c r="C405" t="n">
-        <v>63.2867318741391</v>
+        <v>62.0883912862598</v>
       </c>
       <c r="D405" t="n">
-        <v>55.6709097075079</v>
+        <v>54.881591907035</v>
       </c>
       <c r="E405" t="n">
-        <v>70.7647077991609</v>
+        <v>71.1147089496363</v>
       </c>
       <c r="F405" t="n">
         <v>2020</v>
@@ -13743,13 +13743,13 @@
         <v>15</v>
       </c>
       <c r="C406" t="n">
-        <v>340.205494052442</v>
+        <v>339.647656093002</v>
       </c>
       <c r="D406" t="n">
-        <v>319.772784683788</v>
+        <v>318.725051719645</v>
       </c>
       <c r="E406" t="n">
-        <v>360.991183385262</v>
+        <v>360.971468084155</v>
       </c>
       <c r="F406" t="n">
         <v>2020</v>
@@ -13775,13 +13775,13 @@
         <v>16</v>
       </c>
       <c r="C407" t="n">
-        <v>380.452324207255</v>
+        <v>380.542182863318</v>
       </c>
       <c r="D407" t="n">
-        <v>358.568171282809</v>
+        <v>357.62199868259</v>
       </c>
       <c r="E407" t="n">
-        <v>403.90691885589</v>
+        <v>403.297209070406</v>
       </c>
       <c r="F407" t="n">
         <v>2020</v>
@@ -13807,13 +13807,13 @@
         <v>17</v>
       </c>
       <c r="C408" t="n">
-        <v>355.324907399443</v>
+        <v>355.415878885668</v>
       </c>
       <c r="D408" t="n">
-        <v>335.167395287469</v>
+        <v>333.928834458088</v>
       </c>
       <c r="E408" t="n">
-        <v>377.511228361257</v>
+        <v>377.406210642507</v>
       </c>
       <c r="F408" t="n">
         <v>2020</v>
@@ -13839,13 +13839,13 @@
         <v>18</v>
       </c>
       <c r="C409" t="n">
-        <v>87.4053207199512</v>
+        <v>87.3845017799293</v>
       </c>
       <c r="D409" t="n">
-        <v>77.5618672735186</v>
+        <v>78.1052494950356</v>
       </c>
       <c r="E409" t="n">
-        <v>97.6155501850988</v>
+        <v>97.7937606744919</v>
       </c>
       <c r="F409" t="n">
         <v>2020</v>
@@ -13871,13 +13871,13 @@
         <v>19</v>
       </c>
       <c r="C410" t="n">
-        <v>546.294791183478</v>
+        <v>546.590575106773</v>
       </c>
       <c r="D410" t="n">
-        <v>519.724295888352</v>
+        <v>517.913851530645</v>
       </c>
       <c r="E410" t="n">
-        <v>572.291954865025</v>
+        <v>573.30284634469</v>
       </c>
       <c r="F410" t="n">
         <v>2020</v>
@@ -13903,13 +13903,13 @@
         <v>20</v>
       </c>
       <c r="C411" t="n">
-        <v>261.315215928286</v>
+        <v>260.645129043402</v>
       </c>
       <c r="D411" t="n">
-        <v>243.027812740093</v>
+        <v>242.853024352045</v>
       </c>
       <c r="E411" t="n">
-        <v>279.688802647846</v>
+        <v>280.797241484738</v>
       </c>
       <c r="F411" t="n">
         <v>2020</v>
@@ -13935,13 +13935,13 @@
         <v>21</v>
       </c>
       <c r="C412" t="n">
-        <v>291.423925507505</v>
+        <v>291.065297657472</v>
       </c>
       <c r="D412" t="n">
-        <v>272.538152197566</v>
+        <v>270.461631176172</v>
       </c>
       <c r="E412" t="n">
-        <v>309.646792872979</v>
+        <v>310.866483896964</v>
       </c>
       <c r="F412" t="n">
         <v>2020</v>
@@ -13967,13 +13967,13 @@
         <v>22</v>
       </c>
       <c r="C413" t="n">
-        <v>836.101876998239</v>
+        <v>834.603350153278</v>
       </c>
       <c r="D413" t="n">
-        <v>800.785925381431</v>
+        <v>798.516746264644</v>
       </c>
       <c r="E413" t="n">
-        <v>868.383404353405</v>
+        <v>873.884102589906</v>
       </c>
       <c r="F413" t="n">
         <v>2020</v>
@@ -13999,13 +13999,13 @@
         <v>23</v>
       </c>
       <c r="C414" t="n">
-        <v>518.565815669511</v>
+        <v>520.545425428271</v>
       </c>
       <c r="D414" t="n">
-        <v>491.993676648715</v>
+        <v>491.965392708558</v>
       </c>
       <c r="E414" t="n">
-        <v>548.110265498676</v>
+        <v>549.371518623636</v>
       </c>
       <c r="F414" t="n">
         <v>2020</v>
@@ -14031,13 +14031,13 @@
         <v>24</v>
       </c>
       <c r="C415" t="n">
-        <v>517.406953933448</v>
+        <v>517.252855423929</v>
       </c>
       <c r="D415" t="n">
-        <v>491.794601337604</v>
+        <v>491.067169985423</v>
       </c>
       <c r="E415" t="n">
-        <v>543.56489602839</v>
+        <v>547.341330645924</v>
       </c>
       <c r="F415" t="n">
         <v>2020</v>
@@ -14063,13 +14063,13 @@
         <v>25</v>
       </c>
       <c r="C416" t="n">
-        <v>525.608682189618</v>
+        <v>525.094899619595</v>
       </c>
       <c r="D416" t="n">
-        <v>498.558274703049</v>
+        <v>496.26460251544</v>
       </c>
       <c r="E416" t="n">
-        <v>554.02236414468</v>
+        <v>554.247022596754</v>
       </c>
       <c r="F416" t="n">
         <v>2020</v>
@@ -14095,13 +14095,13 @@
         <v>26</v>
       </c>
       <c r="C417" t="n">
-        <v>324.020789057753</v>
+        <v>324.362957006467</v>
       </c>
       <c r="D417" t="n">
-        <v>304.285643623078</v>
+        <v>303.071270364555</v>
       </c>
       <c r="E417" t="n">
-        <v>345.828945224105</v>
+        <v>345.40285324643</v>
       </c>
       <c r="F417" t="n">
         <v>2020</v>
@@ -14127,13 +14127,13 @@
         <v>27</v>
       </c>
       <c r="C418" t="n">
-        <v>114.210696744127</v>
+        <v>115.467105084532</v>
       </c>
       <c r="D418" t="n">
-        <v>104.091533717134</v>
+        <v>104.725497432418</v>
       </c>
       <c r="E418" t="n">
-        <v>126.179383153714</v>
+        <v>127.314607366564</v>
       </c>
       <c r="F418" t="n">
         <v>2020</v>
@@ -14159,13 +14159,13 @@
         <v>28</v>
       </c>
       <c r="C419" t="n">
-        <v>218.86624559018</v>
+        <v>218.778948761677</v>
       </c>
       <c r="D419" t="n">
-        <v>203.720244213678</v>
+        <v>201.819030379907</v>
       </c>
       <c r="E419" t="n">
-        <v>235.432002315108</v>
+        <v>235.409654056586</v>
       </c>
       <c r="F419" t="n">
         <v>2020</v>
@@ -14191,13 +14191,13 @@
         <v>29</v>
       </c>
       <c r="C420" t="n">
-        <v>123.764113160228</v>
+        <v>124.283106598993</v>
       </c>
       <c r="D420" t="n">
-        <v>112.325525482357</v>
+        <v>112.100527114167</v>
       </c>
       <c r="E420" t="n">
-        <v>136.622611349185</v>
+        <v>136.779675028139</v>
       </c>
       <c r="F420" t="n">
         <v>2020</v>
@@ -14223,13 +14223,13 @@
         <v>30</v>
       </c>
       <c r="C421" t="n">
-        <v>1015.95623375904</v>
+        <v>1015.47982462335</v>
       </c>
       <c r="D421" t="n">
-        <v>977.20311493544</v>
+        <v>974.379883251968</v>
       </c>
       <c r="E421" t="n">
-        <v>1054.66943544106</v>
+        <v>1060.72910134723</v>
       </c>
       <c r="F421" t="n">
         <v>2020</v>
@@ -14255,13 +14255,13 @@
         <v>31</v>
       </c>
       <c r="C422" t="n">
-        <v>435.985105009926</v>
+        <v>437.028787739966</v>
       </c>
       <c r="D422" t="n">
-        <v>413.38323339745</v>
+        <v>413.104400059199</v>
       </c>
       <c r="E422" t="n">
-        <v>459.414774324015</v>
+        <v>462.395849251133</v>
       </c>
       <c r="F422" t="n">
         <v>2020</v>
@@ -14287,13 +14287,13 @@
         <v>32</v>
       </c>
       <c r="C423" t="n">
-        <v>248.877157629455</v>
+        <v>249.384227089784</v>
       </c>
       <c r="D423" t="n">
-        <v>232.621627902356</v>
+        <v>231.66828703745</v>
       </c>
       <c r="E423" t="n">
-        <v>267.629747736194</v>
+        <v>268.169714434855</v>
       </c>
       <c r="F423" t="n">
         <v>2020</v>
@@ -14319,13 +14319,13 @@
         <v>33</v>
       </c>
       <c r="C424" t="n">
-        <v>607.101422949845</v>
+        <v>604.785158734079</v>
       </c>
       <c r="D424" t="n">
-        <v>577.441251706016</v>
+        <v>573.912908363452</v>
       </c>
       <c r="E424" t="n">
-        <v>634.394627754138</v>
+        <v>636.065933992613</v>
       </c>
       <c r="F424" t="n">
         <v>2020</v>
@@ -14351,13 +14351,13 @@
         <v>34</v>
       </c>
       <c r="C425" t="n">
-        <v>124.054494415664</v>
+        <v>124.96366855675</v>
       </c>
       <c r="D425" t="n">
-        <v>112.577688678624</v>
+        <v>113.140384247606</v>
       </c>
       <c r="E425" t="n">
-        <v>136.502829522411</v>
+        <v>137.210954056076</v>
       </c>
       <c r="F425" t="n">
         <v>2020</v>
@@ -14383,13 +14383,13 @@
         <v>35</v>
       </c>
       <c r="C426" t="n">
-        <v>553.62839214702</v>
+        <v>552.969683984508</v>
       </c>
       <c r="D426" t="n">
-        <v>526.386343283248</v>
+        <v>523.186113344937</v>
       </c>
       <c r="E426" t="n">
-        <v>579.853092315775</v>
+        <v>584.885847765062</v>
       </c>
       <c r="F426" t="n">
         <v>2020</v>
@@ -14415,13 +14415,13 @@
         <v>36</v>
       </c>
       <c r="C427" t="n">
-        <v>123.085491665862</v>
+        <v>122.758598642323</v>
       </c>
       <c r="D427" t="n">
-        <v>112.115435901946</v>
+        <v>111.833375478529</v>
       </c>
       <c r="E427" t="n">
-        <v>134.180076879676</v>
+        <v>135.148089850039</v>
       </c>
       <c r="F427" t="n">
         <v>2020</v>
@@ -14447,13 +14447,13 @@
         <v>37</v>
       </c>
       <c r="C428" t="n">
-        <v>968.931809777584</v>
+        <v>968.84288926181</v>
       </c>
       <c r="D428" t="n">
-        <v>932.78611425847</v>
+        <v>928.375336106683</v>
       </c>
       <c r="E428" t="n">
-        <v>1006.5626744268</v>
+        <v>1012.6820643095</v>
       </c>
       <c r="F428" t="n">
         <v>2020</v>
@@ -14479,13 +14479,13 @@
         <v>38</v>
       </c>
       <c r="C429" t="n">
-        <v>485.786266521149</v>
+        <v>484.032611717105</v>
       </c>
       <c r="D429" t="n">
-        <v>460.685408393641</v>
+        <v>459.492855735423</v>
       </c>
       <c r="E429" t="n">
-        <v>510.069415064353</v>
+        <v>512.896785496915</v>
       </c>
       <c r="F429" t="n">
         <v>2020</v>
@@ -14511,13 +14511,13 @@
         <v>39</v>
       </c>
       <c r="C430" t="n">
-        <v>623.175475417872</v>
+        <v>623.615075819654</v>
       </c>
       <c r="D430" t="n">
-        <v>592.514256217832</v>
+        <v>592.105284516681</v>
       </c>
       <c r="E430" t="n">
-        <v>654.433430390636</v>
+        <v>654.893344641317</v>
       </c>
       <c r="F430" t="n">
         <v>2020</v>
@@ -14543,13 +14543,13 @@
         <v>40</v>
       </c>
       <c r="C431" t="n">
-        <v>690.189657126298</v>
+        <v>690.713849754756</v>
       </c>
       <c r="D431" t="n">
-        <v>659.355080565229</v>
+        <v>659.671996870252</v>
       </c>
       <c r="E431" t="n">
-        <v>722.084186313994</v>
+        <v>725.37228669588</v>
       </c>
       <c r="F431" t="n">
         <v>2020</v>
@@ -14575,13 +14575,13 @@
         <v>41</v>
       </c>
       <c r="C432" t="n">
-        <v>83.0326014101905</v>
+        <v>82.5632838802953</v>
       </c>
       <c r="D432" t="n">
-        <v>73.6014675625628</v>
+        <v>73.7371671101428</v>
       </c>
       <c r="E432" t="n">
-        <v>92.5223517804611</v>
+        <v>92.0095958774817</v>
       </c>
       <c r="F432" t="n">
         <v>2020</v>
@@ -14607,13 +14607,13 @@
         <v>42</v>
       </c>
       <c r="C433" t="n">
-        <v>44.5905090042822</v>
+        <v>43.9879000559717</v>
       </c>
       <c r="D433" t="n">
-        <v>38.9762819518599</v>
+        <v>38.0499256151798</v>
       </c>
       <c r="E433" t="n">
-        <v>51.1191661708739</v>
+        <v>50.2770306801003</v>
       </c>
       <c r="F433" t="n">
         <v>2020</v>
@@ -14639,13 +14639,13 @@
         <v>43</v>
       </c>
       <c r="C434" t="n">
-        <v>418.697183997716</v>
+        <v>417.844625802484</v>
       </c>
       <c r="D434" t="n">
-        <v>394.514357144076</v>
+        <v>392.502493370901</v>
       </c>
       <c r="E434" t="n">
-        <v>441.571616314399</v>
+        <v>445.311504498097</v>
       </c>
       <c r="F434" t="n">
         <v>2020</v>
@@ -14671,13 +14671,13 @@
         <v>44</v>
       </c>
       <c r="C435" t="n">
-        <v>112.700023408177</v>
+        <v>112.554413543552</v>
       </c>
       <c r="D435" t="n">
-        <v>101.895283889139</v>
+        <v>102.219522469628</v>
       </c>
       <c r="E435" t="n">
-        <v>124.398544995341</v>
+        <v>124.078851550942</v>
       </c>
       <c r="F435" t="n">
         <v>2020</v>
@@ -14703,13 +14703,13 @@
         <v>45</v>
       </c>
       <c r="C436" t="n">
-        <v>308.969247465709</v>
+        <v>307.42867913859</v>
       </c>
       <c r="D436" t="n">
-        <v>290.886105613578</v>
+        <v>289.43457638775</v>
       </c>
       <c r="E436" t="n">
-        <v>330.355281210188</v>
+        <v>329.378320762052</v>
       </c>
       <c r="F436" t="n">
         <v>2020</v>
@@ -14735,13 +14735,13 @@
         <v>46</v>
       </c>
       <c r="C437" t="n">
-        <v>223.692448092151</v>
+        <v>223.960102075345</v>
       </c>
       <c r="D437" t="n">
-        <v>207.809260094514</v>
+        <v>208.152217117574</v>
       </c>
       <c r="E437" t="n">
-        <v>240.273020366824</v>
+        <v>241.931087650149</v>
       </c>
       <c r="F437" t="n">
         <v>2020</v>
@@ -14767,13 +14767,13 @@
         <v>47</v>
       </c>
       <c r="C438" t="n">
-        <v>476.000189897651</v>
+        <v>475.216681075677</v>
       </c>
       <c r="D438" t="n">
-        <v>450.001476812639</v>
+        <v>449.575146030058</v>
       </c>
       <c r="E438" t="n">
-        <v>501.957189030033</v>
+        <v>500.306868983022</v>
       </c>
       <c r="F438" t="n">
         <v>2020</v>
@@ -14799,13 +14799,13 @@
         <v>48</v>
       </c>
       <c r="C439" t="n">
-        <v>1002.47921726258</v>
+        <v>999.911144476336</v>
       </c>
       <c r="D439" t="n">
-        <v>965.792914259386</v>
+        <v>956.076171802996</v>
       </c>
       <c r="E439" t="n">
-        <v>1040.29698670626</v>
+        <v>1042.79409293798</v>
       </c>
       <c r="F439" t="n">
         <v>2020</v>
@@ -14831,13 +14831,13 @@
         <v>49</v>
       </c>
       <c r="C440" t="n">
-        <v>145.958731035017</v>
+        <v>144.944063685037</v>
       </c>
       <c r="D440" t="n">
-        <v>133.062236384325</v>
+        <v>132.521302152522</v>
       </c>
       <c r="E440" t="n">
-        <v>159.777572750667</v>
+        <v>159.293126531363</v>
       </c>
       <c r="F440" t="n">
         <v>2020</v>
@@ -14863,13 +14863,13 @@
         <v>50</v>
       </c>
       <c r="C441" t="n">
-        <v>426.950213926759</v>
+        <v>425.930539096601</v>
       </c>
       <c r="D441" t="n">
-        <v>403.811698287931</v>
+        <v>402.353287115849</v>
       </c>
       <c r="E441" t="n">
-        <v>449.252873988132</v>
+        <v>450.936269498326</v>
       </c>
       <c r="F441" t="n">
         <v>2020</v>
@@ -14895,13 +14895,13 @@
         <v>51</v>
       </c>
       <c r="C442" t="n">
-        <v>213.783309724515</v>
+        <v>214.823414504656</v>
       </c>
       <c r="D442" t="n">
-        <v>197.508230632294</v>
+        <v>198.585700841599</v>
       </c>
       <c r="E442" t="n">
-        <v>231.863260273596</v>
+        <v>231.853336795342</v>
       </c>
       <c r="F442" t="n">
         <v>2020</v>
@@ -14927,13 +14927,13 @@
         <v>52</v>
       </c>
       <c r="C443" t="n">
-        <v>56.9792249504731</v>
+        <v>56.7737446965362</v>
       </c>
       <c r="D443" t="n">
-        <v>49.5684495985964</v>
+        <v>49.3437559126761</v>
       </c>
       <c r="E443" t="n">
-        <v>65.3430451023981</v>
+        <v>64.7588297330525</v>
       </c>
       <c r="F443" t="n">
         <v>2020</v>
@@ -14959,13 +14959,13 @@
         <v>53</v>
       </c>
       <c r="C444" t="n">
-        <v>51.4103887735846</v>
+        <v>51.0815976681039</v>
       </c>
       <c r="D444" t="n">
-        <v>43.8256778757418</v>
+        <v>44.0919635148843</v>
       </c>
       <c r="E444" t="n">
-        <v>59.8615587703645</v>
+        <v>59.3071490605484</v>
       </c>
       <c r="F444" t="n">
         <v>2020</v>
@@ -14991,13 +14991,13 @@
         <v>54</v>
       </c>
       <c r="C445" t="n">
-        <v>398.324632227013</v>
+        <v>400.019855328822</v>
       </c>
       <c r="D445" t="n">
-        <v>376.846374677504</v>
+        <v>377.059056941278</v>
       </c>
       <c r="E445" t="n">
-        <v>421.23968470006</v>
+        <v>422.561273841709</v>
       </c>
       <c r="F445" t="n">
         <v>2020</v>
@@ -15023,13 +15023,13 @@
         <v>55</v>
       </c>
       <c r="C446" t="n">
-        <v>641.78821570735</v>
+        <v>641.099736846403</v>
       </c>
       <c r="D446" t="n">
-        <v>611.703282221152</v>
+        <v>611.514082274353</v>
       </c>
       <c r="E446" t="n">
-        <v>671.736339130113</v>
+        <v>676.079997266302</v>
       </c>
       <c r="F446" t="n">
         <v>2020</v>
@@ -15055,13 +15055,13 @@
         <v>56</v>
       </c>
       <c r="C447" t="n">
-        <v>737.468504992863</v>
+        <v>738.868540562903</v>
       </c>
       <c r="D447" t="n">
-        <v>707.452580265168</v>
+        <v>704.840125831052</v>
       </c>
       <c r="E447" t="n">
-        <v>771.227774814919</v>
+        <v>774.348669516726</v>
       </c>
       <c r="F447" t="n">
         <v>2020</v>
@@ -15087,13 +15087,13 @@
         <v>57</v>
       </c>
       <c r="C448" t="n">
-        <v>887.038608179241</v>
+        <v>886.377852879295</v>
       </c>
       <c r="D448" t="n">
-        <v>851.580441848379</v>
+        <v>845.254998050998</v>
       </c>
       <c r="E448" t="n">
-        <v>923.675616784556</v>
+        <v>922.967806036241</v>
       </c>
       <c r="F448" t="n">
         <v>2020</v>
@@ -15119,13 +15119,13 @@
         <v>58</v>
       </c>
       <c r="C449" t="n">
-        <v>262.508764675726</v>
+        <v>260.930305372062</v>
       </c>
       <c r="D449" t="n">
-        <v>244.551014767877</v>
+        <v>243.437419985975</v>
       </c>
       <c r="E449" t="n">
-        <v>282.624157605938</v>
+        <v>279.952551303048</v>
       </c>
       <c r="F449" t="n">
         <v>2020</v>
@@ -15151,13 +15151,13 @@
         <v>59</v>
       </c>
       <c r="C450" t="n">
-        <v>903.106391083953</v>
+        <v>900.272647946698</v>
       </c>
       <c r="D450" t="n">
-        <v>865.75789926711</v>
+        <v>861.542106891031</v>
       </c>
       <c r="E450" t="n">
-        <v>938.745330802044</v>
+        <v>943.978669801022</v>
       </c>
       <c r="F450" t="n">
         <v>2020</v>
@@ -15183,13 +15183,13 @@
         <v>60</v>
       </c>
       <c r="C451" t="n">
-        <v>414.341245601457</v>
+        <v>412.425136298978</v>
       </c>
       <c r="D451" t="n">
-        <v>391.120535571894</v>
+        <v>389.598078258295</v>
       </c>
       <c r="E451" t="n">
-        <v>436.386891379176</v>
+        <v>436.683354222793</v>
       </c>
       <c r="F451" t="n">
         <v>2020</v>
@@ -15215,13 +15215,13 @@
         <v>61</v>
       </c>
       <c r="C452" t="n">
-        <v>246.162406882041</v>
+        <v>245.990437003136</v>
       </c>
       <c r="D452" t="n">
-        <v>229.686214849915</v>
+        <v>228.360863749785</v>
       </c>
       <c r="E452" t="n">
-        <v>263.306303828203</v>
+        <v>265.624625957171</v>
       </c>
       <c r="F452" t="n">
         <v>2020</v>
@@ -15247,13 +15247,13 @@
         <v>62</v>
       </c>
       <c r="C453" t="n">
-        <v>1259.10065706028</v>
+        <v>1257.98045683606</v>
       </c>
       <c r="D453" t="n">
-        <v>1213.1302487384</v>
+        <v>1211.81401852688</v>
       </c>
       <c r="E453" t="n">
-        <v>1300.38385927395</v>
+        <v>1308.42454223927</v>
       </c>
       <c r="F453" t="n">
         <v>2020</v>
@@ -15279,13 +15279,13 @@
         <v>63</v>
       </c>
       <c r="C454" t="n">
-        <v>92.5719507802559</v>
+        <v>91.519952030246</v>
       </c>
       <c r="D454" t="n">
-        <v>82.2412024676353</v>
+        <v>82.0079879370139</v>
       </c>
       <c r="E454" t="n">
-        <v>102.187486637294</v>
+        <v>101.251596784632</v>
       </c>
       <c r="F454" t="n">
         <v>2020</v>
@@ -15311,13 +15311,13 @@
         <v>64</v>
       </c>
       <c r="C455" t="n">
-        <v>337.894669177479</v>
+        <v>337.856561625704</v>
       </c>
       <c r="D455" t="n">
-        <v>318.010982810652</v>
+        <v>317.469306418068</v>
       </c>
       <c r="E455" t="n">
-        <v>358.618585305794</v>
+        <v>361.212857534259</v>
       </c>
       <c r="F455" t="n">
         <v>2020</v>
@@ -15343,13 +15343,13 @@
         <v>65</v>
       </c>
       <c r="C456" t="n">
-        <v>325.531211465796</v>
+        <v>325.577808853674</v>
       </c>
       <c r="D456" t="n">
-        <v>306.043688395344</v>
+        <v>304.183086285898</v>
       </c>
       <c r="E456" t="n">
-        <v>346.540340486235</v>
+        <v>345.956842480021</v>
       </c>
       <c r="F456" t="n">
         <v>2020</v>
@@ -15375,13 +15375,13 @@
         <v>66</v>
       </c>
       <c r="C457" t="n">
-        <v>126.300262217293</v>
+        <v>126.085727001663</v>
       </c>
       <c r="D457" t="n">
-        <v>113.961951310043</v>
+        <v>113.689887116823</v>
       </c>
       <c r="E457" t="n">
-        <v>138.100177242112</v>
+        <v>138.717088925501</v>
       </c>
       <c r="F457" t="n">
         <v>2020</v>
@@ -15407,13 +15407,13 @@
         <v>67</v>
       </c>
       <c r="C458" t="n">
-        <v>195.872502343514</v>
+        <v>196.196919996979</v>
       </c>
       <c r="D458" t="n">
-        <v>180.489730511334</v>
+        <v>181.898026000622</v>
       </c>
       <c r="E458" t="n">
-        <v>210.613617188913</v>
+        <v>212.374102221611</v>
       </c>
       <c r="F458" t="n">
         <v>2020</v>
@@ -15439,13 +15439,13 @@
         <v>68</v>
       </c>
       <c r="C459" t="n">
-        <v>224.818254669986</v>
+        <v>223.402094054428</v>
       </c>
       <c r="D459" t="n">
-        <v>207.799052321694</v>
+        <v>206.334504843069</v>
       </c>
       <c r="E459" t="n">
-        <v>242.671774062352</v>
+        <v>241.279532652289</v>
       </c>
       <c r="F459" t="n">
         <v>2020</v>
@@ -15471,13 +15471,13 @@
         <v>69</v>
       </c>
       <c r="C460" t="n">
-        <v>992.948748372695</v>
+        <v>993.367143251154</v>
       </c>
       <c r="D460" t="n">
-        <v>952.555083619901</v>
+        <v>950.525953347065</v>
       </c>
       <c r="E460" t="n">
-        <v>1032.34008498158</v>
+        <v>1037.23441139534</v>
       </c>
       <c r="F460" t="n">
         <v>2020</v>
@@ -15503,13 +15503,13 @@
         <v>70</v>
       </c>
       <c r="C461" t="n">
-        <v>71.9929953989646</v>
+        <v>72.1666415381136</v>
       </c>
       <c r="D461" t="n">
-        <v>63.6390218997665</v>
+        <v>63.8700462633565</v>
       </c>
       <c r="E461" t="n">
-        <v>80.9913348088925</v>
+        <v>81.2050253413469</v>
       </c>
       <c r="F461" t="n">
         <v>2020</v>
@@ -15535,13 +15535,13 @@
         <v>71</v>
       </c>
       <c r="C462" t="n">
-        <v>160.529340414245</v>
+        <v>159.459903281539</v>
       </c>
       <c r="D462" t="n">
-        <v>147.728688783049</v>
+        <v>146.351093909863</v>
       </c>
       <c r="E462" t="n">
-        <v>175.094051699307</v>
+        <v>174.602141925758</v>
       </c>
       <c r="F462" t="n">
         <v>2020</v>
@@ -15567,13 +15567,13 @@
         <v>72</v>
       </c>
       <c r="C463" t="n">
-        <v>274.989240227434</v>
+        <v>274.903747680214</v>
       </c>
       <c r="D463" t="n">
-        <v>256.471225110504</v>
+        <v>256.338654993256</v>
       </c>
       <c r="E463" t="n">
-        <v>294.366650295683</v>
+        <v>296.737201690282</v>
       </c>
       <c r="F463" t="n">
         <v>2020</v>
@@ -15599,13 +15599,13 @@
         <v>73</v>
       </c>
       <c r="C464" t="n">
-        <v>747.892989874483</v>
+        <v>747.798242834572</v>
       </c>
       <c r="D464" t="n">
-        <v>713.809224742363</v>
+        <v>715.095407910487</v>
       </c>
       <c r="E464" t="n">
-        <v>782.226505584674</v>
+        <v>782.704735056565</v>
       </c>
       <c r="F464" t="n">
         <v>2020</v>
@@ -15631,13 +15631,13 @@
         <v>74</v>
       </c>
       <c r="C465" t="n">
-        <v>112.157981332925</v>
+        <v>111.931775943478</v>
       </c>
       <c r="D465" t="n">
-        <v>101.512971637733</v>
+        <v>101.030235173308</v>
       </c>
       <c r="E465" t="n">
-        <v>123.504666536951</v>
+        <v>123.557211744276</v>
       </c>
       <c r="F465" t="n">
         <v>2020</v>
@@ -15663,13 +15663,13 @@
         <v>75</v>
       </c>
       <c r="C466" t="n">
-        <v>93.9530784610445</v>
+        <v>93.7329025851492</v>
       </c>
       <c r="D466" t="n">
-        <v>84.2238965313808</v>
+        <v>83.237156654286</v>
       </c>
       <c r="E466" t="n">
-        <v>104.940626922634</v>
+        <v>104.401734882774</v>
       </c>
       <c r="F466" t="n">
         <v>2020</v>
@@ -15695,13 +15695,13 @@
         <v>76</v>
       </c>
       <c r="C467" t="n">
-        <v>702.823590354781</v>
+        <v>706.372106145963</v>
       </c>
       <c r="D467" t="n">
-        <v>670.623862776056</v>
+        <v>671.775907655907</v>
       </c>
       <c r="E467" t="n">
-        <v>735.674282508794</v>
+        <v>739.901996275361</v>
       </c>
       <c r="F467" t="n">
         <v>2020</v>
@@ -15727,13 +15727,13 @@
         <v>77</v>
       </c>
       <c r="C468" t="n">
-        <v>252.646286320744</v>
+        <v>252.518024433439</v>
       </c>
       <c r="D468" t="n">
-        <v>233.709223574501</v>
+        <v>234.836883316008</v>
       </c>
       <c r="E468" t="n">
-        <v>270.848465048411</v>
+        <v>271.050349535536</v>
       </c>
       <c r="F468" t="n">
         <v>2020</v>
@@ -15759,13 +15759,13 @@
         <v>78</v>
       </c>
       <c r="C469" t="n">
-        <v>463.047564994205</v>
+        <v>463.345027349175</v>
       </c>
       <c r="D469" t="n">
-        <v>439.187403203496</v>
+        <v>438.320516420419</v>
       </c>
       <c r="E469" t="n">
-        <v>488.82160826042</v>
+        <v>490.11477875441</v>
       </c>
       <c r="F469" t="n">
         <v>2020</v>
@@ -15791,13 +15791,13 @@
         <v>79</v>
       </c>
       <c r="C470" t="n">
-        <v>356.17188896707</v>
+        <v>356.216024365636</v>
       </c>
       <c r="D470" t="n">
-        <v>335.540091329018</v>
+        <v>333.990308558183</v>
       </c>
       <c r="E470" t="n">
-        <v>378.484647532267</v>
+        <v>377.366734180001</v>
       </c>
       <c r="F470" t="n">
         <v>2020</v>
@@ -15823,13 +15823,13 @@
         <v>80</v>
       </c>
       <c r="C471" t="n">
-        <v>384.746615703473</v>
+        <v>385.5262456625</v>
       </c>
       <c r="D471" t="n">
-        <v>363.400679514232</v>
+        <v>362.604526378408</v>
       </c>
       <c r="E471" t="n">
-        <v>406.178923072763</v>
+        <v>408.59814219269</v>
       </c>
       <c r="F471" t="n">
         <v>2020</v>
@@ -15855,13 +15855,13 @@
         <v>81</v>
       </c>
       <c r="C472" t="n">
-        <v>417.769639908857</v>
+        <v>416.706655832311</v>
       </c>
       <c r="D472" t="n">
-        <v>395.570117639168</v>
+        <v>393.756655226351</v>
       </c>
       <c r="E472" t="n">
-        <v>442.455732289952</v>
+        <v>441.894581609418</v>
       </c>
       <c r="F472" t="n">
         <v>2020</v>
@@ -15887,13 +15887,13 @@
         <v>82</v>
       </c>
       <c r="C473" t="n">
-        <v>1570.36270269724</v>
+        <v>1570.24788915846</v>
       </c>
       <c r="D473" t="n">
-        <v>1520.63346327494</v>
+        <v>1507.33224155452</v>
       </c>
       <c r="E473" t="n">
-        <v>1622.57470668147</v>
+        <v>1623.94687554609</v>
       </c>
       <c r="F473" t="n">
         <v>2020</v>
@@ -15919,13 +15919,13 @@
         <v>83</v>
       </c>
       <c r="C474" t="n">
-        <v>207.560231916568</v>
+        <v>207.11733406541</v>
       </c>
       <c r="D474" t="n">
-        <v>192.998029793006</v>
+        <v>191.14619097508</v>
       </c>
       <c r="E474" t="n">
-        <v>224.12627348492</v>
+        <v>224.724294953252</v>
       </c>
       <c r="F474" t="n">
         <v>2020</v>
@@ -15951,13 +15951,13 @@
         <v>84</v>
       </c>
       <c r="C475" t="n">
-        <v>339.569348636558</v>
+        <v>339.975024947386</v>
       </c>
       <c r="D475" t="n">
-        <v>320.738833660762</v>
+        <v>318.255112383683</v>
       </c>
       <c r="E475" t="n">
-        <v>360.372719359996</v>
+        <v>362.356745930119</v>
       </c>
       <c r="F475" t="n">
         <v>2020</v>
@@ -15983,13 +15983,13 @@
         <v>85</v>
       </c>
       <c r="C476" t="n">
-        <v>321.173803004364</v>
+        <v>321.640802003623</v>
       </c>
       <c r="D476" t="n">
-        <v>301.073111513136</v>
+        <v>300.416861563935</v>
       </c>
       <c r="E476" t="n">
-        <v>342.106042283608</v>
+        <v>343.555539080673</v>
       </c>
       <c r="F476" t="n">
         <v>2020</v>
@@ -16015,13 +16015,13 @@
         <v>86</v>
       </c>
       <c r="C477" t="n">
-        <v>1048.79775261292</v>
+        <v>1047.37333884503</v>
       </c>
       <c r="D477" t="n">
-        <v>1010.00002448522</v>
+        <v>1005.66659934182</v>
       </c>
       <c r="E477" t="n">
-        <v>1094.04493668888</v>
+        <v>1092.52750021396</v>
       </c>
       <c r="F477" t="n">
         <v>2020</v>
@@ -16047,13 +16047,13 @@
         <v>87</v>
       </c>
       <c r="C478" t="n">
-        <v>95.2073431807857</v>
+        <v>94.2310286891353</v>
       </c>
       <c r="D478" t="n">
-        <v>85.4043072372187</v>
+        <v>84.6772651620665</v>
       </c>
       <c r="E478" t="n">
-        <v>105.485594891947</v>
+        <v>105.053644464342</v>
       </c>
       <c r="F478" t="n">
         <v>2020</v>
@@ -16079,13 +16079,13 @@
         <v>88</v>
       </c>
       <c r="C479" t="n">
-        <v>285.764842793909</v>
+        <v>285.361051374277</v>
       </c>
       <c r="D479" t="n">
-        <v>266.036137006149</v>
+        <v>267.280360342337</v>
       </c>
       <c r="E479" t="n">
-        <v>304.934276930495</v>
+        <v>305.425163460702</v>
       </c>
       <c r="F479" t="n">
         <v>2020</v>
@@ -16111,13 +16111,13 @@
         <v>89</v>
       </c>
       <c r="C480" t="n">
-        <v>370.732472239373</v>
+        <v>371.824835124663</v>
       </c>
       <c r="D480" t="n">
-        <v>350.064601977203</v>
+        <v>349.210024605646</v>
       </c>
       <c r="E480" t="n">
-        <v>392.941088863202</v>
+        <v>394.523685347591</v>
       </c>
       <c r="F480" t="n">
         <v>2020</v>
@@ -16143,13 +16143,13 @@
         <v>90</v>
       </c>
       <c r="C481" t="n">
-        <v>386.711558701979</v>
+        <v>385.209009091446</v>
       </c>
       <c r="D481" t="n">
-        <v>364.456326028853</v>
+        <v>363.797936255692</v>
       </c>
       <c r="E481" t="n">
-        <v>408.489342550328</v>
+        <v>408.749807596222</v>
       </c>
       <c r="F481" t="n">
         <v>2020</v>
@@ -16175,13 +16175,13 @@
         <v>91</v>
       </c>
       <c r="C482" t="n">
-        <v>1287.46567704412</v>
+        <v>1288.29532466516</v>
       </c>
       <c r="D482" t="n">
-        <v>1246.2881652908</v>
+        <v>1240.52976967947</v>
       </c>
       <c r="E482" t="n">
-        <v>1334.00368251803</v>
+        <v>1336.99950546162</v>
       </c>
       <c r="F482" t="n">
         <v>2020</v>
@@ -16207,13 +16207,13 @@
         <v>92</v>
       </c>
       <c r="C483" t="n">
-        <v>487.990125823305</v>
+        <v>488.377960215673</v>
       </c>
       <c r="D483" t="n">
-        <v>462.025192935703</v>
+        <v>463.18864879043</v>
       </c>
       <c r="E483" t="n">
-        <v>514.321477112416</v>
+        <v>516.052918606116</v>
       </c>
       <c r="F483" t="n">
         <v>2020</v>
@@ -16239,13 +16239,13 @@
         <v>93</v>
       </c>
       <c r="C484" t="n">
-        <v>130.284038207357</v>
+        <v>130.064877251904</v>
       </c>
       <c r="D484" t="n">
-        <v>119.925831784697</v>
+        <v>118.776947243589</v>
       </c>
       <c r="E484" t="n">
-        <v>143.06855245202</v>
+        <v>142.860053777131</v>
       </c>
       <c r="F484" t="n">
         <v>2020</v>
@@ -16271,13 +16271,13 @@
         <v>94</v>
       </c>
       <c r="C485" t="n">
-        <v>17.5310469692598</v>
+        <v>17.2580637911165</v>
       </c>
       <c r="D485" t="n">
-        <v>13.7571823278556</v>
+        <v>13.8121346921356</v>
       </c>
       <c r="E485" t="n">
-        <v>22.0506293143732</v>
+        <v>21.0958466058977</v>
       </c>
       <c r="F485" t="n">
         <v>2020</v>
@@ -16303,13 +16303,13 @@
         <v>95</v>
       </c>
       <c r="C486" t="n">
-        <v>207.487150979184</v>
+        <v>207.28527919349</v>
       </c>
       <c r="D486" t="n">
-        <v>193.464757032766</v>
+        <v>191.215263192681</v>
       </c>
       <c r="E486" t="n">
-        <v>223.82240045916</v>
+        <v>224.362425349023</v>
       </c>
       <c r="F486" t="n">
         <v>2020</v>
@@ -16335,13 +16335,13 @@
         <v>96</v>
       </c>
       <c r="C487" t="n">
-        <v>453.773336917639</v>
+        <v>452.856725954755</v>
       </c>
       <c r="D487" t="n">
-        <v>428.365159166557</v>
+        <v>429.128935663892</v>
       </c>
       <c r="E487" t="n">
-        <v>479.619279455688</v>
+        <v>481.048764937077</v>
       </c>
       <c r="F487" t="n">
         <v>2020</v>
@@ -16367,13 +16367,13 @@
         <v>97</v>
       </c>
       <c r="C488" t="n">
-        <v>474.944104783749</v>
+        <v>474.812490218723</v>
       </c>
       <c r="D488" t="n">
-        <v>450.777719429946</v>
+        <v>448.875214395228</v>
       </c>
       <c r="E488" t="n">
-        <v>499.598946105081</v>
+        <v>500.174242814288</v>
       </c>
       <c r="F488" t="n">
         <v>2020</v>
@@ -16399,13 +16399,13 @@
         <v>98</v>
       </c>
       <c r="C489" t="n">
-        <v>334.962198090582</v>
+        <v>336.092886854531</v>
       </c>
       <c r="D489" t="n">
-        <v>314.785798810736</v>
+        <v>315.951132806532</v>
       </c>
       <c r="E489" t="n">
-        <v>356.240067302102</v>
+        <v>358.319034295904</v>
       </c>
       <c r="F489" t="n">
         <v>2020</v>
@@ -16431,13 +16431,13 @@
         <v>99</v>
       </c>
       <c r="C490" t="n">
-        <v>330.5455179188</v>
+        <v>329.329120728459</v>
       </c>
       <c r="D490" t="n">
-        <v>310.826055988814</v>
+        <v>309.370277583476</v>
       </c>
       <c r="E490" t="n">
-        <v>350.854834628842</v>
+        <v>350.449924910667</v>
       </c>
       <c r="F490" t="n">
         <v>2020</v>
@@ -16463,13 +16463,13 @@
         <v>100</v>
       </c>
       <c r="C491" t="n">
-        <v>126.430208614895</v>
+        <v>126.206763638763</v>
       </c>
       <c r="D491" t="n">
-        <v>115.744265250999</v>
+        <v>114.738568662587</v>
       </c>
       <c r="E491" t="n">
-        <v>138.081863874888</v>
+        <v>138.053054857533</v>
       </c>
       <c r="F491" t="n">
         <v>2020</v>
@@ -16495,13 +16495,13 @@
         <v>101</v>
       </c>
       <c r="C492" t="n">
-        <v>1415.47907656455</v>
+        <v>1414.63706214427</v>
       </c>
       <c r="D492" t="n">
-        <v>1366.99681911486</v>
+        <v>1363.28442069067</v>
       </c>
       <c r="E492" t="n">
-        <v>1463.48924986252</v>
+        <v>1469.06894549878</v>
       </c>
       <c r="F492" t="n">
         <v>2020</v>
@@ -16527,13 +16527,13 @@
         <v>102</v>
       </c>
       <c r="C493" t="n">
-        <v>805.152663487698</v>
+        <v>804.867457407985</v>
       </c>
       <c r="D493" t="n">
-        <v>772.356938295599</v>
+        <v>766.175925569304</v>
       </c>
       <c r="E493" t="n">
-        <v>836.988601468443</v>
+        <v>838.247877976486</v>
       </c>
       <c r="F493" t="n">
         <v>2020</v>
@@ -16559,13 +16559,13 @@
         <v>103</v>
       </c>
       <c r="C494" t="n">
-        <v>257.207744066205</v>
+        <v>255.828013567503</v>
       </c>
       <c r="D494" t="n">
-        <v>239.854952721949</v>
+        <v>238.977858684825</v>
       </c>
       <c r="E494" t="n">
-        <v>275.191685670273</v>
+        <v>274.704803417611</v>
       </c>
       <c r="F494" t="n">
         <v>2020</v>
@@ -16591,13 +16591,13 @@
         <v>104</v>
       </c>
       <c r="C495" t="n">
-        <v>424.371425036647</v>
+        <v>425.50816072035</v>
       </c>
       <c r="D495" t="n">
-        <v>402.824859657724</v>
+        <v>399.56181296584</v>
       </c>
       <c r="E495" t="n">
-        <v>451.384883671979</v>
+        <v>451.22253911969</v>
       </c>
       <c r="F495" t="n">
         <v>2020</v>
@@ -16623,13 +16623,13 @@
         <v>105</v>
       </c>
       <c r="C496" t="n">
-        <v>3669.47506856676</v>
+        <v>3667.18396625161</v>
       </c>
       <c r="D496" t="n">
-        <v>3577.7537453276</v>
+        <v>3561.86811538366</v>
       </c>
       <c r="E496" t="n">
-        <v>3754.78528186197</v>
+        <v>3777.06844993204</v>
       </c>
       <c r="F496" t="n">
         <v>2020</v>
@@ -16655,13 +16655,13 @@
         <v>106</v>
       </c>
       <c r="C497" t="n">
-        <v>328.287332529939</v>
+        <v>328.736565728722</v>
       </c>
       <c r="D497" t="n">
-        <v>308.018369665163</v>
+        <v>308.265318977929</v>
       </c>
       <c r="E497" t="n">
-        <v>349.690791689469</v>
+        <v>351.324428978495</v>
       </c>
       <c r="F497" t="n">
         <v>2020</v>
@@ -16687,13 +16687,13 @@
         <v>107</v>
       </c>
       <c r="C498" t="n">
-        <v>368.009369950298</v>
+        <v>368.127136940027</v>
       </c>
       <c r="D498" t="n">
-        <v>346.712618196667</v>
+        <v>347.444928717522</v>
       </c>
       <c r="E498" t="n">
-        <v>390.794926349512</v>
+        <v>391.073650178388</v>
       </c>
       <c r="F498" t="n">
         <v>2020</v>
@@ -16719,13 +16719,13 @@
         <v>108</v>
       </c>
       <c r="C499" t="n">
-        <v>155.181819336403</v>
+        <v>155.403241617862</v>
       </c>
       <c r="D499" t="n">
-        <v>143.056345226329</v>
+        <v>142.344693785081</v>
       </c>
       <c r="E499" t="n">
-        <v>169.488195743262</v>
+        <v>169.635429905392</v>
       </c>
       <c r="F499" t="n">
         <v>2020</v>
@@ -16751,13 +16751,13 @@
         <v>109</v>
       </c>
       <c r="C500" t="n">
-        <v>529.040096388531</v>
+        <v>528.512731955696</v>
       </c>
       <c r="D500" t="n">
-        <v>503.788674312462</v>
+        <v>501.007151115703</v>
       </c>
       <c r="E500" t="n">
-        <v>555.368713510944</v>
+        <v>556.40150718718</v>
       </c>
       <c r="F500" t="n">
         <v>2020</v>
@@ -16783,13 +16783,13 @@
         <v>110</v>
       </c>
       <c r="C501" t="n">
-        <v>645.17132758481</v>
+        <v>645.231245449852</v>
       </c>
       <c r="D501" t="n">
-        <v>615.721891591405</v>
+        <v>614.779083427196</v>
       </c>
       <c r="E501" t="n">
-        <v>674.61405551713</v>
+        <v>674.537653991901</v>
       </c>
       <c r="F501" t="n">
         <v>2020</v>
@@ -16815,13 +16815,13 @@
         <v>111</v>
       </c>
       <c r="C502" t="n">
-        <v>129.086778526884</v>
+        <v>128.404060529437</v>
       </c>
       <c r="D502" t="n">
-        <v>118.029818558012</v>
+        <v>116.884263753478</v>
       </c>
       <c r="E502" t="n">
-        <v>142.084761847833</v>
+        <v>140.674428112201</v>
       </c>
       <c r="F502" t="n">
         <v>2020</v>
@@ -16847,13 +16847,13 @@
         <v>112</v>
       </c>
       <c r="C503" t="n">
-        <v>346.494142816573</v>
+        <v>346.891762317633</v>
       </c>
       <c r="D503" t="n">
-        <v>325.63782313138</v>
+        <v>325.249771845449</v>
       </c>
       <c r="E503" t="n">
-        <v>369.29060815968</v>
+        <v>371.159401148574</v>
       </c>
       <c r="F503" t="n">
         <v>2020</v>
@@ -16879,13 +16879,13 @@
         <v>113</v>
       </c>
       <c r="C504" t="n">
-        <v>391.956618629626</v>
+        <v>392.514704866411</v>
       </c>
       <c r="D504" t="n">
-        <v>372.334998853688</v>
+        <v>368.886187393765</v>
       </c>
       <c r="E504" t="n">
-        <v>414.588215574953</v>
+        <v>415.845316045819</v>
       </c>
       <c r="F504" t="n">
         <v>2020</v>
@@ -16911,13 +16911,13 @@
         <v>114</v>
       </c>
       <c r="C505" t="n">
-        <v>761.332828444927</v>
+        <v>759.815537652587</v>
       </c>
       <c r="D505" t="n">
-        <v>728.742399911516</v>
+        <v>725.939679615238</v>
       </c>
       <c r="E505" t="n">
-        <v>793.559804205603</v>
+        <v>795.584650485322</v>
       </c>
       <c r="F505" t="n">
         <v>2020</v>
@@ -16943,13 +16943,13 @@
         <v>115</v>
       </c>
       <c r="C506" t="n">
-        <v>379.243192513402</v>
+        <v>379.030746013288</v>
       </c>
       <c r="D506" t="n">
-        <v>357.387043434717</v>
+        <v>355.965365656121</v>
       </c>
       <c r="E506" t="n">
-        <v>403.308279178501</v>
+        <v>401.221191810368</v>
       </c>
       <c r="F506" t="n">
         <v>2020</v>
@@ -16975,13 +16975,13 @@
         <v>116</v>
       </c>
       <c r="C507" t="n">
-        <v>116.525740161402</v>
+        <v>116.194026929414</v>
       </c>
       <c r="D507" t="n">
-        <v>105.508148628305</v>
+        <v>105.349895520536</v>
       </c>
       <c r="E507" t="n">
-        <v>128.417864990423</v>
+        <v>127.752529485926</v>
       </c>
       <c r="F507" t="n">
         <v>2020</v>
@@ -17007,13 +17007,13 @@
         <v>117</v>
       </c>
       <c r="C508" t="n">
-        <v>150.911157238373</v>
+        <v>150.83831418183</v>
       </c>
       <c r="D508" t="n">
-        <v>138.258316269027</v>
+        <v>137.067547823562</v>
       </c>
       <c r="E508" t="n">
-        <v>164.298637721934</v>
+        <v>165.179870002213</v>
       </c>
       <c r="F508" t="n">
         <v>2020</v>
@@ -17039,13 +17039,13 @@
         <v>118</v>
       </c>
       <c r="C509" t="n">
-        <v>530.831607391458</v>
+        <v>531.562768112061</v>
       </c>
       <c r="D509" t="n">
-        <v>503.537682189727</v>
+        <v>505.397568225466</v>
       </c>
       <c r="E509" t="n">
-        <v>557.905245600225</v>
+        <v>561.00669356551</v>
       </c>
       <c r="F509" t="n">
         <v>2020</v>
@@ -17071,13 +17071,13 @@
         <v>119</v>
       </c>
       <c r="C510" t="n">
-        <v>96.8948790324636</v>
+        <v>96.6916888248556</v>
       </c>
       <c r="D510" t="n">
-        <v>87.4504204597815</v>
+        <v>87.0998720911541</v>
       </c>
       <c r="E510" t="n">
-        <v>107.443356555417</v>
+        <v>106.354763038029</v>
       </c>
       <c r="F510" t="n">
         <v>2020</v>
@@ -17103,13 +17103,13 @@
         <v>120</v>
       </c>
       <c r="C511" t="n">
-        <v>323.16170120782</v>
+        <v>321.956931359128</v>
       </c>
       <c r="D511" t="n">
-        <v>303.813625837605</v>
+        <v>300.5787816349</v>
       </c>
       <c r="E511" t="n">
-        <v>345.926643429803</v>
+        <v>343.264928501828</v>
       </c>
       <c r="F511" t="n">
         <v>2020</v>
@@ -17135,13 +17135,13 @@
         <v>121</v>
       </c>
       <c r="C512" t="n">
-        <v>531.769587309112</v>
+        <v>532.435658848291</v>
       </c>
       <c r="D512" t="n">
-        <v>505.698837606998</v>
+        <v>505.977868937899</v>
       </c>
       <c r="E512" t="n">
-        <v>559.586460103875</v>
+        <v>561.552572334273</v>
       </c>
       <c r="F512" t="n">
         <v>2020</v>
@@ -17167,13 +17167,13 @@
         <v>122</v>
       </c>
       <c r="C513" t="n">
-        <v>709.900935184001</v>
+        <v>709.928458407497</v>
       </c>
       <c r="D513" t="n">
-        <v>679.398666932232</v>
+        <v>677.072164879194</v>
       </c>
       <c r="E513" t="n">
-        <v>742.466248739293</v>
+        <v>742.789495064955</v>
       </c>
       <c r="F513" t="n">
         <v>2020</v>
@@ -17199,13 +17199,13 @@
         <v>123</v>
       </c>
       <c r="C514" t="n">
-        <v>1568.55886904899</v>
+        <v>1571.23248093274</v>
       </c>
       <c r="D514" t="n">
-        <v>1520.3674684044</v>
+        <v>1518.96228400654</v>
       </c>
       <c r="E514" t="n">
-        <v>1614.78453270948</v>
+        <v>1626.90382501521</v>
       </c>
       <c r="F514" t="n">
         <v>2020</v>
@@ -17231,13 +17231,13 @@
         <v>124</v>
       </c>
       <c r="C515" t="n">
-        <v>1618.34657009669</v>
+        <v>1616.45400744961</v>
       </c>
       <c r="D515" t="n">
-        <v>1564.26588100516</v>
+        <v>1558.66306699178</v>
       </c>
       <c r="E515" t="n">
-        <v>1669.65337690544</v>
+        <v>1677.39363257345</v>
       </c>
       <c r="F515" t="n">
         <v>2020</v>
@@ -17263,13 +17263,13 @@
         <v>125</v>
       </c>
       <c r="C516" t="n">
-        <v>4120.3145963758</v>
+        <v>4119.0836806755</v>
       </c>
       <c r="D516" t="n">
-        <v>4025.48067461145</v>
+        <v>3996.70081322345</v>
       </c>
       <c r="E516" t="n">
-        <v>4217.01953383895</v>
+        <v>4237.70123037038</v>
       </c>
       <c r="F516" t="n">
         <v>2020</v>
@@ -17295,13 +17295,13 @@
         <v>126</v>
       </c>
       <c r="C517" t="n">
-        <v>770.999883029463</v>
+        <v>769.103895078973</v>
       </c>
       <c r="D517" t="n">
-        <v>736.903412233985</v>
+        <v>734.238927886092</v>
       </c>
       <c r="E517" t="n">
-        <v>803.72383373185</v>
+        <v>806.809502163307</v>
       </c>
       <c r="F517" t="n">
         <v>2020</v>
@@ -17327,13 +17327,13 @@
         <v>127</v>
       </c>
       <c r="C518" t="n">
-        <v>526.475919512642</v>
+        <v>527.614410564016</v>
       </c>
       <c r="D518" t="n">
-        <v>501.409734522851</v>
+        <v>497.964371197343</v>
       </c>
       <c r="E518" t="n">
-        <v>554.207711947565</v>
+        <v>555.207781207313</v>
       </c>
       <c r="F518" t="n">
         <v>2020</v>
@@ -17359,13 +17359,13 @@
         <v>128</v>
       </c>
       <c r="C519" t="n">
-        <v>617.222177734779</v>
+        <v>616.82686742459</v>
       </c>
       <c r="D519" t="n">
-        <v>587.438088186436</v>
+        <v>584.8211469815</v>
       </c>
       <c r="E519" t="n">
-        <v>646.736089375023</v>
+        <v>648.571937393601</v>
       </c>
       <c r="F519" t="n">
         <v>2020</v>
@@ -17391,13 +17391,13 @@
         <v>129</v>
       </c>
       <c r="C520" t="n">
-        <v>287.693027578903</v>
+        <v>287.36336765667</v>
       </c>
       <c r="D520" t="n">
-        <v>270.499468079857</v>
+        <v>266.862148699718</v>
       </c>
       <c r="E520" t="n">
-        <v>307.749919402489</v>
+        <v>307.168379362472</v>
       </c>
       <c r="F520" t="n">
         <v>2020</v>
@@ -17423,13 +17423,13 @@
         <v>130</v>
       </c>
       <c r="C521" t="n">
-        <v>275.760335146048</v>
+        <v>274.850709689875</v>
       </c>
       <c r="D521" t="n">
-        <v>257.814337004489</v>
+        <v>255.963134125325</v>
       </c>
       <c r="E521" t="n">
-        <v>295.305292761098</v>
+        <v>294.506751175112</v>
       </c>
       <c r="F521" t="n">
         <v>2020</v>
